--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="1001">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3468,7 +3468,7 @@
   <dimension ref="A1:G381"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195:B200"/>
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6825,6 +6825,9 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>226</v>
+      </c>
       <c r="B204" t="s">
         <v>702</v>
       </c>
@@ -8619,7 +8622,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="10" r:id="rId2"/>
-    <sheet name="Foret_est" sheetId="6" r:id="rId3"/>
-    <sheet name="Foret_ouest" sheetId="5" r:id="rId4"/>
-    <sheet name="Foret_neige" sheetId="7" r:id="rId5"/>
-    <sheet name="Foret_sol" sheetId="3" r:id="rId6"/>
-    <sheet name="Reservoir" sheetId="2" r:id="rId7"/>
-    <sheet name="Thermistors" sheetId="8" r:id="rId8"/>
-    <sheet name="Notations and abbreviations" sheetId="4" r:id="rId9"/>
+    <sheet name="Foret_est" sheetId="6" r:id="rId2"/>
+    <sheet name="Foret_ouest" sheetId="5" r:id="rId3"/>
+    <sheet name="Foret_neige" sheetId="7" r:id="rId4"/>
+    <sheet name="Foret_sol" sheetId="3" r:id="rId5"/>
+    <sheet name="Reservoir" sheetId="2" r:id="rId6"/>
+    <sheet name="Thermistors" sheetId="8" r:id="rId7"/>
+    <sheet name="Notations and abbreviations" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1001">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3467,15 +3466,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="3" width="115.109375" customWidth="1"/>
+    <col min="3" max="3" width="143.21875" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.5546875" bestFit="1" customWidth="1"/>
@@ -6836,6 +6835,9 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>226</v>
+      </c>
       <c r="B205" t="s">
         <v>703</v>
       </c>
@@ -6847,6 +6849,9 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>226</v>
+      </c>
       <c r="B206" t="s">
         <v>705</v>
       </c>
@@ -6858,6 +6863,9 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>707</v>
+      </c>
       <c r="B207" t="s">
         <v>707</v>
       </c>
@@ -6869,6 +6877,9 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>102</v>
+      </c>
       <c r="B208" t="s">
         <v>102</v>
       </c>
@@ -6879,7 +6890,10 @@
         <v>709</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>226</v>
+      </c>
       <c r="B209" t="s">
         <v>710</v>
       </c>
@@ -6890,7 +6904,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>712</v>
+      </c>
       <c r="B210" t="s">
         <v>712</v>
       </c>
@@ -6901,7 +6918,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>713</v>
+      </c>
       <c r="B211" t="s">
         <v>713</v>
       </c>
@@ -6912,7 +6932,10 @@
         <v>714</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>715</v>
+      </c>
       <c r="B212" t="s">
         <v>715</v>
       </c>
@@ -6923,7 +6946,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>716</v>
+      </c>
       <c r="B213" t="s">
         <v>716</v>
       </c>
@@ -6934,7 +6960,10 @@
         <v>714</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>55</v>
+      </c>
       <c r="B214" t="s">
         <v>55</v>
       </c>
@@ -6948,7 +6977,10 @@
         <v>908</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>718</v>
+      </c>
       <c r="B215" t="s">
         <v>718</v>
       </c>
@@ -6959,7 +6991,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>719</v>
+      </c>
       <c r="B216" t="s">
         <v>719</v>
       </c>
@@ -6970,7 +7005,10 @@
         <v>717</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>52</v>
+      </c>
       <c r="B217" t="s">
         <v>52</v>
       </c>
@@ -6984,7 +7022,10 @@
         <v>908</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>720</v>
+      </c>
       <c r="B218" t="s">
         <v>720</v>
       </c>
@@ -6995,7 +7036,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>721</v>
+      </c>
       <c r="B219" t="s">
         <v>721</v>
       </c>
@@ -7006,7 +7050,10 @@
         <v>717</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>722</v>
+      </c>
       <c r="B220" t="s">
         <v>722</v>
       </c>
@@ -7020,7 +7067,10 @@
         <v>908</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>723</v>
+      </c>
       <c r="B221" t="s">
         <v>723</v>
       </c>
@@ -7031,7 +7081,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>724</v>
+      </c>
       <c r="B222" t="s">
         <v>724</v>
       </c>
@@ -7042,7 +7095,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>725</v>
+      </c>
       <c r="B223" t="s">
         <v>725</v>
       </c>
@@ -7053,7 +7109,10 @@
         <v>726</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>727</v>
+      </c>
       <c r="B224" t="s">
         <v>727</v>
       </c>
@@ -7064,7 +7123,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>728</v>
+      </c>
       <c r="B225" t="s">
         <v>728</v>
       </c>
@@ -7075,7 +7137,10 @@
         <v>726</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>729</v>
+      </c>
       <c r="B226" t="s">
         <v>729</v>
       </c>
@@ -7086,7 +7151,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>730</v>
+      </c>
       <c r="B227" t="s">
         <v>730</v>
       </c>
@@ -7097,7 +7165,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>731</v>
+      </c>
       <c r="B228" t="s">
         <v>731</v>
       </c>
@@ -7108,7 +7179,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>226</v>
+      </c>
       <c r="B229" t="s">
         <v>732</v>
       </c>
@@ -7119,7 +7193,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>226</v>
+      </c>
       <c r="B230" t="s">
         <v>733</v>
       </c>
@@ -7130,7 +7207,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>226</v>
+      </c>
       <c r="B231" t="s">
         <v>734</v>
       </c>
@@ -7141,7 +7221,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>735</v>
+      </c>
       <c r="B232" t="s">
         <v>735</v>
       </c>
@@ -7152,7 +7235,10 @@
         <v>717</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>736</v>
+      </c>
       <c r="B233" t="s">
         <v>736</v>
       </c>
@@ -7163,7 +7249,10 @@
         <v>717</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>737</v>
+      </c>
       <c r="B234" t="s">
         <v>737</v>
       </c>
@@ -7174,7 +7263,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>738</v>
+      </c>
       <c r="B235" t="s">
         <v>738</v>
       </c>
@@ -7185,7 +7277,10 @@
         <v>726</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>739</v>
+      </c>
       <c r="B236" t="s">
         <v>739</v>
       </c>
@@ -7196,7 +7291,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>740</v>
+      </c>
       <c r="B237" t="s">
         <v>740</v>
       </c>
@@ -7207,7 +7305,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>741</v>
+      </c>
       <c r="B238" t="s">
         <v>741</v>
       </c>
@@ -7218,7 +7319,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>742</v>
+      </c>
       <c r="B239" t="s">
         <v>742</v>
       </c>
@@ -7229,7 +7333,10 @@
         <v>726</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>743</v>
+      </c>
       <c r="B240" t="s">
         <v>743</v>
       </c>
@@ -7240,7 +7347,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>744</v>
+      </c>
       <c r="B241" t="s">
         <v>744</v>
       </c>
@@ -7251,7 +7361,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>745</v>
+      </c>
       <c r="B242" t="s">
         <v>745</v>
       </c>
@@ -7262,7 +7375,10 @@
         <v>746</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>747</v>
+      </c>
       <c r="B243" t="s">
         <v>747</v>
       </c>
@@ -7273,7 +7389,10 @@
         <v>926</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>748</v>
+      </c>
       <c r="B244" t="s">
         <v>748</v>
       </c>
@@ -7284,7 +7403,10 @@
         <v>927</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>749</v>
+      </c>
       <c r="B245" t="s">
         <v>749</v>
       </c>
@@ -7295,7 +7417,10 @@
         <v>750</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>751</v>
+      </c>
       <c r="B246" t="s">
         <v>751</v>
       </c>
@@ -7306,7 +7431,10 @@
         <v>752</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>753</v>
+      </c>
       <c r="B247" t="s">
         <v>753</v>
       </c>
@@ -7317,7 +7445,10 @@
         <v>746</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>754</v>
+      </c>
       <c r="B248" t="s">
         <v>754</v>
       </c>
@@ -7328,7 +7459,10 @@
         <v>755</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>756</v>
+      </c>
       <c r="B249" t="s">
         <v>756</v>
       </c>
@@ -7339,7 +7473,10 @@
         <v>757</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>758</v>
+      </c>
       <c r="B250" t="s">
         <v>758</v>
       </c>
@@ -7350,7 +7487,10 @@
         <v>750</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>759</v>
+      </c>
       <c r="B251" t="s">
         <v>759</v>
       </c>
@@ -7361,7 +7501,10 @@
         <v>752</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>760</v>
+      </c>
       <c r="B252" t="s">
         <v>760</v>
       </c>
@@ -7372,7 +7515,10 @@
         <v>746</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>761</v>
+      </c>
       <c r="B253" t="s">
         <v>761</v>
       </c>
@@ -7383,7 +7529,10 @@
         <v>926</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>762</v>
+      </c>
       <c r="B254" t="s">
         <v>762</v>
       </c>
@@ -7394,7 +7543,10 @@
         <v>927</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>763</v>
+      </c>
       <c r="B255" t="s">
         <v>763</v>
       </c>
@@ -7405,7 +7557,10 @@
         <v>750</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>764</v>
+      </c>
       <c r="B256" t="s">
         <v>764</v>
       </c>
@@ -7416,7 +7571,10 @@
         <v>752</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>226</v>
+      </c>
       <c r="B257" t="s">
         <v>765</v>
       </c>
@@ -7427,7 +7585,10 @@
         <v>746</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>226</v>
+      </c>
       <c r="B258" t="s">
         <v>766</v>
       </c>
@@ -7438,7 +7599,10 @@
         <v>926</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>226</v>
+      </c>
       <c r="B259" t="s">
         <v>767</v>
       </c>
@@ -7449,7 +7613,10 @@
         <v>927</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>226</v>
+      </c>
       <c r="B260" t="s">
         <v>768</v>
       </c>
@@ -7460,7 +7627,10 @@
         <v>750</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>226</v>
+      </c>
       <c r="B261" t="s">
         <v>769</v>
       </c>
@@ -7471,7 +7641,10 @@
         <v>752</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>226</v>
+      </c>
       <c r="B262" t="s">
         <v>770</v>
       </c>
@@ -7482,7 +7655,10 @@
         <v>771</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>226</v>
+      </c>
       <c r="B263" t="s">
         <v>772</v>
       </c>
@@ -7493,7 +7669,10 @@
         <v>771</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>226</v>
+      </c>
       <c r="B264" t="s">
         <v>773</v>
       </c>
@@ -7504,7 +7683,10 @@
         <v>774</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>226</v>
+      </c>
       <c r="B265" t="s">
         <v>775</v>
       </c>
@@ -7515,7 +7697,10 @@
         <v>776</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>226</v>
+      </c>
       <c r="B266" t="s">
         <v>777</v>
       </c>
@@ -7526,7 +7711,10 @@
         <v>778</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>226</v>
+      </c>
       <c r="B267" t="s">
         <v>779</v>
       </c>
@@ -7537,7 +7725,10 @@
         <v>780</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>226</v>
+      </c>
       <c r="B268" t="s">
         <v>781</v>
       </c>
@@ -7548,7 +7739,10 @@
         <v>782</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>226</v>
+      </c>
       <c r="B269" t="s">
         <v>783</v>
       </c>
@@ -7559,7 +7753,10 @@
         <v>776</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>226</v>
+      </c>
       <c r="B270" t="s">
         <v>71</v>
       </c>
@@ -7570,7 +7767,10 @@
         <v>774</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>226</v>
+      </c>
       <c r="B271" t="s">
         <v>784</v>
       </c>
@@ -7581,7 +7781,10 @@
         <v>774</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>226</v>
+      </c>
       <c r="B272" t="s">
         <v>785</v>
       </c>
@@ -7592,7 +7795,10 @@
         <v>786</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>226</v>
+      </c>
       <c r="B273" t="s">
         <v>787</v>
       </c>
@@ -7603,7 +7809,10 @@
         <v>788</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>226</v>
+      </c>
       <c r="B274" t="s">
         <v>80</v>
       </c>
@@ -7614,7 +7823,10 @@
         <v>774</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>226</v>
+      </c>
       <c r="B275" t="s">
         <v>789</v>
       </c>
@@ -7625,7 +7837,10 @@
         <v>771</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>226</v>
+      </c>
       <c r="B276" t="s">
         <v>790</v>
       </c>
@@ -7636,7 +7851,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>226</v>
+      </c>
       <c r="B277" t="s">
         <v>792</v>
       </c>
@@ -7647,7 +7865,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>226</v>
+      </c>
       <c r="B278" t="s">
         <v>793</v>
       </c>
@@ -7658,7 +7879,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>226</v>
+      </c>
       <c r="B279" t="s">
         <v>794</v>
       </c>
@@ -7669,7 +7893,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>226</v>
+      </c>
       <c r="B280" t="s">
         <v>795</v>
       </c>
@@ -7680,7 +7907,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>226</v>
+      </c>
       <c r="B281" t="s">
         <v>796</v>
       </c>
@@ -7691,7 +7921,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>226</v>
+      </c>
       <c r="B282" t="s">
         <v>797</v>
       </c>
@@ -7702,7 +7935,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>226</v>
+      </c>
       <c r="B283" t="s">
         <v>798</v>
       </c>
@@ -7713,7 +7949,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>226</v>
+      </c>
       <c r="B284" t="s">
         <v>799</v>
       </c>
@@ -7724,7 +7963,10 @@
         <v>800</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>226</v>
+      </c>
       <c r="B285" t="s">
         <v>32</v>
       </c>
@@ -7735,7 +7977,10 @@
         <v>801</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>226</v>
+      </c>
       <c r="B286" t="s">
         <v>31</v>
       </c>
@@ -7746,7 +7991,10 @@
         <v>801</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>226</v>
+      </c>
       <c r="B287" t="s">
         <v>30</v>
       </c>
@@ -7757,7 +8005,10 @@
         <v>801</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>226</v>
+      </c>
       <c r="B288" t="s">
         <v>802</v>
       </c>
@@ -7768,7 +8019,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>226</v>
+      </c>
       <c r="B289" t="s">
         <v>63</v>
       </c>
@@ -7779,7 +8033,10 @@
         <v>803</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>226</v>
+      </c>
       <c r="B290" t="s">
         <v>804</v>
       </c>
@@ -7790,7 +8047,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>226</v>
+      </c>
       <c r="B291" t="s">
         <v>806</v>
       </c>
@@ -7801,7 +8061,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>226</v>
+      </c>
       <c r="B292" t="s">
         <v>807</v>
       </c>
@@ -7812,7 +8075,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>226</v>
+      </c>
       <c r="B293" t="s">
         <v>808</v>
       </c>
@@ -7823,7 +8089,10 @@
         <v>771</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>226</v>
+      </c>
       <c r="B294" t="s">
         <v>809</v>
       </c>
@@ -7834,7 +8103,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>226</v>
+      </c>
       <c r="B295" t="s">
         <v>810</v>
       </c>
@@ -7845,7 +8117,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>226</v>
+      </c>
       <c r="B296" t="s">
         <v>811</v>
       </c>
@@ -7856,7 +8131,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>226</v>
+      </c>
       <c r="B297" t="s">
         <v>812</v>
       </c>
@@ -7867,7 +8145,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>226</v>
+      </c>
       <c r="B298" t="s">
         <v>813</v>
       </c>
@@ -7878,7 +8159,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>226</v>
+      </c>
       <c r="B299" t="s">
         <v>814</v>
       </c>
@@ -7889,7 +8173,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>226</v>
+      </c>
       <c r="B300" t="s">
         <v>815</v>
       </c>
@@ -7900,7 +8187,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>226</v>
+      </c>
       <c r="B301" t="s">
         <v>816</v>
       </c>
@@ -7911,7 +8201,10 @@
         <v>805</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>226</v>
+      </c>
       <c r="B302" t="s">
         <v>817</v>
       </c>
@@ -7922,7 +8215,10 @@
         <v>714</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>226</v>
+      </c>
       <c r="B303" t="s">
         <v>818</v>
       </c>
@@ -7933,7 +8229,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>226</v>
+      </c>
       <c r="B304" t="s">
         <v>819</v>
       </c>
@@ -7944,7 +8243,10 @@
         <v>717</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>226</v>
+      </c>
       <c r="B305" t="s">
         <v>820</v>
       </c>
@@ -7955,7 +8257,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>226</v>
+      </c>
       <c r="B306" t="s">
         <v>821</v>
       </c>
@@ -7966,7 +8271,10 @@
         <v>717</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>226</v>
+      </c>
       <c r="B307" t="s">
         <v>822</v>
       </c>
@@ -7977,7 +8285,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>226</v>
+      </c>
       <c r="B308" t="s">
         <v>823</v>
       </c>
@@ -7988,7 +8299,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>226</v>
+      </c>
       <c r="B309" t="s">
         <v>824</v>
       </c>
@@ -7999,7 +8313,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>226</v>
+      </c>
       <c r="B310" t="s">
         <v>825</v>
       </c>
@@ -8010,7 +8327,10 @@
         <v>726</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>226</v>
+      </c>
       <c r="B311" t="s">
         <v>826</v>
       </c>
@@ -8021,7 +8341,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>226</v>
+      </c>
       <c r="B312" t="s">
         <v>827</v>
       </c>
@@ -8032,7 +8355,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>226</v>
+      </c>
       <c r="B313" t="s">
         <v>828</v>
       </c>
@@ -8043,7 +8369,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>226</v>
+      </c>
       <c r="B314" t="s">
         <v>829</v>
       </c>
@@ -8054,7 +8383,10 @@
         <v>925</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>226</v>
+      </c>
       <c r="B315" t="s">
         <v>830</v>
       </c>
@@ -8065,7 +8397,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>226</v>
+      </c>
       <c r="B316" t="s">
         <v>831</v>
       </c>
@@ -8074,7 +8409,10 @@
         <v>832</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>226</v>
+      </c>
       <c r="B317" t="s">
         <v>833</v>
       </c>
@@ -8083,7 +8421,10 @@
         <v>832</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>226</v>
+      </c>
       <c r="B318" t="s">
         <v>834</v>
       </c>
@@ -8092,7 +8433,10 @@
         <v>832</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>226</v>
+      </c>
       <c r="B319" t="s">
         <v>835</v>
       </c>
@@ -8101,7 +8445,10 @@
         <v>832</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>226</v>
+      </c>
       <c r="B320" t="s">
         <v>836</v>
       </c>
@@ -8110,7 +8457,10 @@
         <v>832</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>226</v>
+      </c>
       <c r="B321" t="s">
         <v>837</v>
       </c>
@@ -8119,7 +8469,10 @@
         <v>832</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>226</v>
+      </c>
       <c r="B322" t="s">
         <v>838</v>
       </c>
@@ -8128,7 +8481,10 @@
         <v>832</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>226</v>
+      </c>
       <c r="B323" t="s">
         <v>839</v>
       </c>
@@ -8137,7 +8493,10 @@
         <v>832</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>226</v>
+      </c>
       <c r="B324" t="s">
         <v>840</v>
       </c>
@@ -8146,7 +8505,10 @@
         <v>841</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>226</v>
+      </c>
       <c r="B325" t="s">
         <v>842</v>
       </c>
@@ -8155,7 +8517,10 @@
         <v>841</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>226</v>
+      </c>
       <c r="B326" t="s">
         <v>843</v>
       </c>
@@ -8164,7 +8529,10 @@
         <v>844</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>226</v>
+      </c>
       <c r="B327" t="s">
         <v>845</v>
       </c>
@@ -8173,7 +8541,10 @@
         <v>846</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>226</v>
+      </c>
       <c r="B328" t="s">
         <v>847</v>
       </c>
@@ -8181,7 +8552,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>226</v>
+      </c>
       <c r="B329" t="s">
         <v>848</v>
       </c>
@@ -8189,7 +8563,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>226</v>
+      </c>
       <c r="B330" t="s">
         <v>849</v>
       </c>
@@ -8197,7 +8574,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>226</v>
+      </c>
       <c r="B331" t="s">
         <v>850</v>
       </c>
@@ -8205,7 +8585,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>226</v>
+      </c>
       <c r="B332" t="s">
         <v>851</v>
       </c>
@@ -8213,7 +8596,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>226</v>
+      </c>
       <c r="B333" t="s">
         <v>852</v>
       </c>
@@ -8221,7 +8607,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>226</v>
+      </c>
       <c r="B334" t="s">
         <v>853</v>
       </c>
@@ -8229,7 +8618,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>226</v>
+      </c>
       <c r="B335" t="s">
         <v>854</v>
       </c>
@@ -8237,7 +8629,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>226</v>
+      </c>
       <c r="B336" t="s">
         <v>855</v>
       </c>
@@ -8245,7 +8640,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>226</v>
+      </c>
       <c r="B337" t="s">
         <v>857</v>
       </c>
@@ -8253,7 +8651,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>226</v>
+      </c>
       <c r="B338" t="s">
         <v>858</v>
       </c>
@@ -8261,7 +8662,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>226</v>
+      </c>
       <c r="B339" t="s">
         <v>859</v>
       </c>
@@ -8269,7 +8673,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>226</v>
+      </c>
       <c r="B340" t="s">
         <v>860</v>
       </c>
@@ -8277,7 +8684,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>226</v>
+      </c>
       <c r="B341" t="s">
         <v>861</v>
       </c>
@@ -8285,7 +8695,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>226</v>
+      </c>
       <c r="B342" t="s">
         <v>862</v>
       </c>
@@ -8293,7 +8706,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>226</v>
+      </c>
       <c r="B343" t="s">
         <v>863</v>
       </c>
@@ -8301,7 +8717,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>226</v>
+      </c>
       <c r="B344" t="s">
         <v>864</v>
       </c>
@@ -8309,7 +8728,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>226</v>
+      </c>
       <c r="B345" t="s">
         <v>865</v>
       </c>
@@ -8317,7 +8739,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>226</v>
+      </c>
       <c r="B346" t="s">
         <v>866</v>
       </c>
@@ -8325,7 +8750,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>226</v>
+      </c>
       <c r="B347" t="s">
         <v>867</v>
       </c>
@@ -8333,7 +8761,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>226</v>
+      </c>
       <c r="B348" t="s">
         <v>868</v>
       </c>
@@ -8341,7 +8772,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>226</v>
+      </c>
       <c r="B349" t="s">
         <v>869</v>
       </c>
@@ -8349,7 +8783,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>226</v>
+      </c>
       <c r="B350" t="s">
         <v>870</v>
       </c>
@@ -8357,7 +8794,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>226</v>
+      </c>
       <c r="B351" t="s">
         <v>871</v>
       </c>
@@ -8365,7 +8805,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>226</v>
+      </c>
       <c r="B352" t="s">
         <v>872</v>
       </c>
@@ -8373,7 +8816,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>226</v>
+      </c>
       <c r="B353" t="s">
         <v>873</v>
       </c>
@@ -8381,7 +8827,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>226</v>
+      </c>
       <c r="B354" t="s">
         <v>874</v>
       </c>
@@ -8389,7 +8838,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>226</v>
+      </c>
       <c r="B355" t="s">
         <v>875</v>
       </c>
@@ -8397,7 +8849,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>226</v>
+      </c>
       <c r="B356" t="s">
         <v>876</v>
       </c>
@@ -8405,7 +8860,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>226</v>
+      </c>
       <c r="B357" t="s">
         <v>877</v>
       </c>
@@ -8413,7 +8871,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>226</v>
+      </c>
       <c r="B358" t="s">
         <v>878</v>
       </c>
@@ -8421,7 +8882,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>226</v>
+      </c>
       <c r="B359" t="s">
         <v>879</v>
       </c>
@@ -8429,7 +8893,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>226</v>
+      </c>
       <c r="B360" t="s">
         <v>880</v>
       </c>
@@ -8437,7 +8904,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>226</v>
+      </c>
       <c r="B361" t="s">
         <v>881</v>
       </c>
@@ -8445,7 +8915,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>226</v>
+      </c>
       <c r="B362" t="s">
         <v>882</v>
       </c>
@@ -8453,7 +8926,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>226</v>
+      </c>
       <c r="B363" t="s">
         <v>883</v>
       </c>
@@ -8461,7 +8937,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>226</v>
+      </c>
       <c r="B364" t="s">
         <v>884</v>
       </c>
@@ -8469,7 +8948,10 @@
         <v>856</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>226</v>
+      </c>
       <c r="B365" t="s">
         <v>885</v>
       </c>
@@ -8477,7 +8959,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>226</v>
+      </c>
       <c r="B366" t="s">
         <v>886</v>
       </c>
@@ -8485,7 +8970,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>226</v>
+      </c>
       <c r="B367" t="s">
         <v>887</v>
       </c>
@@ -8493,7 +8981,10 @@
         <v>803</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>226</v>
+      </c>
       <c r="B368" t="s">
         <v>888</v>
       </c>
@@ -8501,7 +8992,10 @@
         <v>803</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>226</v>
+      </c>
       <c r="B369" t="s">
         <v>889</v>
       </c>
@@ -8509,7 +9003,10 @@
         <v>803</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>226</v>
+      </c>
       <c r="B370" t="s">
         <v>890</v>
       </c>
@@ -8517,7 +9014,10 @@
         <v>891</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>226</v>
+      </c>
       <c r="B371" t="s">
         <v>892</v>
       </c>
@@ -8525,7 +9025,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>226</v>
+      </c>
       <c r="B372" t="s">
         <v>894</v>
       </c>
@@ -8533,7 +9036,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>226</v>
+      </c>
       <c r="B373" t="s">
         <v>895</v>
       </c>
@@ -8541,7 +9047,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>226</v>
+      </c>
       <c r="B374" t="s">
         <v>896</v>
       </c>
@@ -8549,7 +9058,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>226</v>
+      </c>
       <c r="B375" t="s">
         <v>897</v>
       </c>
@@ -8557,7 +9069,10 @@
         <v>898</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>226</v>
+      </c>
       <c r="B376" t="s">
         <v>899</v>
       </c>
@@ -8565,7 +9080,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>226</v>
+      </c>
       <c r="B377" t="s">
         <v>900</v>
       </c>
@@ -8573,7 +9091,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>226</v>
+      </c>
       <c r="B378" t="s">
         <v>901</v>
       </c>
@@ -8581,7 +9102,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>226</v>
+      </c>
       <c r="B379" t="s">
         <v>902</v>
       </c>
@@ -8589,7 +9113,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>226</v>
+      </c>
       <c r="B380" t="s">
         <v>903</v>
       </c>
@@ -8597,7 +9124,10 @@
         <v>893</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>226</v>
+      </c>
       <c r="B381" t="s">
         <v>904</v>
       </c>
@@ -8619,108 +9149,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>590</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8729,9 +9165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -8752,18 +9186,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
@@ -9271,7 +9693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFA137"/>
   <sheetViews>
@@ -44766,7 +45188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -44897,7 +45319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>

--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="Foret_neige" sheetId="7" r:id="rId4"/>
     <sheet name="Foret_sol" sheetId="3" r:id="rId5"/>
     <sheet name="Reservoir" sheetId="2" r:id="rId6"/>
-    <sheet name="Thermistors" sheetId="8" r:id="rId7"/>
-    <sheet name="Notations and abbreviations" sheetId="4" r:id="rId8"/>
+    <sheet name="Riviere" sheetId="9" r:id="rId7"/>
+    <sheet name="Thermistors" sheetId="8" r:id="rId8"/>
+    <sheet name="Notations and abbreviations" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1086">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3179,6 +3180,111 @@
   </si>
   <si>
     <t>pumpOn_LI7700</t>
+  </si>
+  <si>
+    <t>Acquisition frequency: 1 min</t>
+  </si>
+  <si>
+    <t>BattV_Min</t>
+  </si>
+  <si>
+    <t>PTemp_C_Avg</t>
+  </si>
+  <si>
+    <t>CNR4TC_Avg</t>
+  </si>
+  <si>
+    <t>RsNet_Avg</t>
+  </si>
+  <si>
+    <t>RlNet_Avg</t>
+  </si>
+  <si>
+    <t>AirTC_Avg</t>
+  </si>
+  <si>
+    <t>AirTC_Min</t>
+  </si>
+  <si>
+    <t>AirTC_Max</t>
+  </si>
+  <si>
+    <t>WS_ms_Avg</t>
+  </si>
+  <si>
+    <t>WS_ms_S_WVT</t>
+  </si>
+  <si>
+    <t>WindDir_D1_WVT</t>
+  </si>
+  <si>
+    <t>WindDir_SD1_WVT</t>
+  </si>
+  <si>
+    <t>T107_C_Avg</t>
+  </si>
+  <si>
+    <t>T107_C_Min</t>
+  </si>
+  <si>
+    <t>T107_C_Max</t>
+  </si>
+  <si>
+    <t>Rain_mm_Tot</t>
+  </si>
+  <si>
+    <t>BattV</t>
+  </si>
+  <si>
+    <t>PTemp_C</t>
+  </si>
+  <si>
+    <t>Long wave net radiation</t>
+  </si>
+  <si>
+    <t>Short wave net radiation</t>
+  </si>
+  <si>
+    <t>CR5000</t>
+  </si>
+  <si>
+    <t>Minimum water temperature</t>
+  </si>
+  <si>
+    <t>Maximum water temperature</t>
+  </si>
+  <si>
+    <t>precip_TB3</t>
+  </si>
+  <si>
+    <t>TB3</t>
+  </si>
+  <si>
+    <t>water_temp_avg_T107C</t>
+  </si>
+  <si>
+    <t>water_temp_min_T107C</t>
+  </si>
+  <si>
+    <t>water_temp_max_T107C</t>
+  </si>
+  <si>
+    <t>T107C</t>
+  </si>
+  <si>
+    <t>Thermistor</t>
+  </si>
+  <si>
+    <t>CNR4: 2 m</t>
+  </si>
+  <si>
+    <t>HMP45C: 2 m</t>
+  </si>
+  <si>
+    <t>TB3: 1 m</t>
+  </si>
+  <si>
+    <t>05103: 2 m</t>
   </si>
 </sst>
 </file>
@@ -3624,8 +3730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="B30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45566,6 +45672,737 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="B1" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B14" t="s">
+        <v>739</v>
+      </c>
+      <c r="C14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="F14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="F16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="F17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>455</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="F18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C20" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C21" t="s">
+        <v>512</v>
+      </c>
+      <c r="D21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>938</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>516</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>939</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>517</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>940</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>955</v>
+      </c>
+      <c r="B26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C26" t="s">
+        <v>550</v>
+      </c>
+      <c r="D26" t="s">
+        <v>534</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>955</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C27" t="s">
+        <v>550</v>
+      </c>
+      <c r="D27" t="s">
+        <v>534</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F27" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>956</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C28" t="s">
+        <v>552</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F28" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>956</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C29" t="s">
+        <v>552</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C30" t="s">
+        <v>678</v>
+      </c>
+      <c r="D30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F33" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>517</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>516</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C40" t="s">
+        <v>509</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C41" t="s">
+        <v>509</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C43" t="s">
+        <v>550</v>
+      </c>
+      <c r="D43" t="s">
+        <v>534</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F43" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E26 E27:E29 E43" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45695,7 +46532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>

--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Berge" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1104">
   <si>
     <t>LI-7700</t>
   </si>
@@ -2963,15 +2963,6 @@
     <t>CH4_strg</t>
   </si>
   <si>
-    <t>qc_CO2_flux</t>
-  </si>
-  <si>
-    <t>rand_err_CO2_flux</t>
-  </si>
-  <si>
-    <t>CO2_v-adv</t>
-  </si>
-  <si>
     <t>CO2_molar_density</t>
   </si>
   <si>
@@ -2981,36 +2972,9 @@
     <t>CO2_mixing_ratio</t>
   </si>
   <si>
-    <t>CO2_time_lag</t>
-  </si>
-  <si>
-    <t>CO2_def_timelag</t>
-  </si>
-  <si>
-    <t>un_CO2_flux</t>
-  </si>
-  <si>
-    <t>CO2_scf</t>
-  </si>
-  <si>
     <t>CO2_spikes</t>
   </si>
   <si>
-    <t>CO2_var</t>
-  </si>
-  <si>
-    <t>w/CO2_cov</t>
-  </si>
-  <si>
-    <t>qc_H2O_flux</t>
-  </si>
-  <si>
-    <t>rand_err_H2O_flux</t>
-  </si>
-  <si>
-    <t>H2O_v-adv</t>
-  </si>
-  <si>
     <t>H2O_molar_density</t>
   </si>
   <si>
@@ -3020,36 +2984,9 @@
     <t>H2O_mixing_ratio</t>
   </si>
   <si>
-    <t>H2O_time_lag</t>
-  </si>
-  <si>
-    <t>H2O_def_timelag</t>
-  </si>
-  <si>
-    <t>un_H2O_flux</t>
-  </si>
-  <si>
-    <t>H2O_scf</t>
-  </si>
-  <si>
     <t>H2O_spikes</t>
   </si>
   <si>
-    <t>H2O_var</t>
-  </si>
-  <si>
-    <t>w/H2O_cov</t>
-  </si>
-  <si>
-    <t>qc_CH4_flux</t>
-  </si>
-  <si>
-    <t>rand_err_CH4_flux</t>
-  </si>
-  <si>
-    <t>CH4_v-adv</t>
-  </si>
-  <si>
     <t>CH4_molar_density</t>
   </si>
   <si>
@@ -3059,18 +2996,6 @@
     <t>CH4_mixing_ratio</t>
   </si>
   <si>
-    <t>CH4_time_lag</t>
-  </si>
-  <si>
-    <t>CH4_def_timelag</t>
-  </si>
-  <si>
-    <t>un_CH4_flux</t>
-  </si>
-  <si>
-    <t>CH4_scf</t>
-  </si>
-  <si>
     <t>8u/v/w/ts/CO2/H2O/CH4/none</t>
   </si>
   <si>
@@ -3080,12 +3005,6 @@
     <t>CH4_spikes</t>
   </si>
   <si>
-    <t>CH4_var</t>
-  </si>
-  <si>
-    <t>w/CH4_cov</t>
-  </si>
-  <si>
     <t>air_temp</t>
   </si>
   <si>
@@ -3285,6 +3204,141 @@
   </si>
   <si>
     <t>05103: 2 m</t>
+  </si>
+  <si>
+    <t>qc_ch4_flux</t>
+  </si>
+  <si>
+    <t>ch4_flux</t>
+  </si>
+  <si>
+    <t>rand_err_ch4_flux</t>
+  </si>
+  <si>
+    <t>ch4_mixing_ratio</t>
+  </si>
+  <si>
+    <t>ch4_molar_density</t>
+  </si>
+  <si>
+    <t>ch4_mole_fraction</t>
+  </si>
+  <si>
+    <t>ch4_spikes</t>
+  </si>
+  <si>
+    <t>ch4_strg</t>
+  </si>
+  <si>
+    <t>ch4_v-adv</t>
+  </si>
+  <si>
+    <t>ch4_time_lag</t>
+  </si>
+  <si>
+    <t>ch4_def_timelag</t>
+  </si>
+  <si>
+    <t>un_ch4_flux</t>
+  </si>
+  <si>
+    <t>ch4_scf</t>
+  </si>
+  <si>
+    <t>ch4_var</t>
+  </si>
+  <si>
+    <t>w/ch4_cov</t>
+  </si>
+  <si>
+    <t>co2_flux</t>
+  </si>
+  <si>
+    <t>qc_co2_flux</t>
+  </si>
+  <si>
+    <t>rand_err_co2_flux</t>
+  </si>
+  <si>
+    <t>co2_mixing_ratio</t>
+  </si>
+  <si>
+    <t>co2_molar_density</t>
+  </si>
+  <si>
+    <t>co2_mole_fraction</t>
+  </si>
+  <si>
+    <t>co2_spikes</t>
+  </si>
+  <si>
+    <t>co2_strg</t>
+  </si>
+  <si>
+    <t>co2_v-adv</t>
+  </si>
+  <si>
+    <t>co2_time_lag</t>
+  </si>
+  <si>
+    <t>co2_def_timelag</t>
+  </si>
+  <si>
+    <t>un_co2_flux</t>
+  </si>
+  <si>
+    <t>co2_scf</t>
+  </si>
+  <si>
+    <t>co2_var</t>
+  </si>
+  <si>
+    <t>w/co2_cov</t>
+  </si>
+  <si>
+    <t>h2o_flux</t>
+  </si>
+  <si>
+    <t>qc_h2o_flux</t>
+  </si>
+  <si>
+    <t>rand_err_h2o_flux</t>
+  </si>
+  <si>
+    <t>h2o_mixing_ratio</t>
+  </si>
+  <si>
+    <t>h2o_molar_density</t>
+  </si>
+  <si>
+    <t>h2o_mole_fraction</t>
+  </si>
+  <si>
+    <t>h2o_spikes</t>
+  </si>
+  <si>
+    <t>h2o_strg</t>
+  </si>
+  <si>
+    <t>h2o_v-adv</t>
+  </si>
+  <si>
+    <t>h2o_time_lag</t>
+  </si>
+  <si>
+    <t>h2o_def_timelag</t>
+  </si>
+  <si>
+    <t>un_h2o_flux</t>
+  </si>
+  <si>
+    <t>h2o_scf</t>
+  </si>
+  <si>
+    <t>h2o_var</t>
+  </si>
+  <si>
+    <t>w/h2o_cov</t>
   </si>
 </sst>
 </file>
@@ -3730,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G381"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7316,7 +7370,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1020</v>
+        <v>993</v>
       </c>
       <c r="B207" t="s">
         <v>725</v>
@@ -7330,7 +7384,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="31" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
       <c r="B208" t="s">
         <v>739</v>
@@ -7344,7 +7398,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="31" t="s">
-        <v>1046</v>
+        <v>1019</v>
       </c>
       <c r="B209" t="s">
         <v>737</v>
@@ -7358,7 +7412,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1019</v>
+        <v>992</v>
       </c>
       <c r="B210" t="s">
         <v>724</v>
@@ -7372,7 +7426,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="31" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="B211" t="s">
         <v>741</v>
@@ -7386,7 +7440,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1032</v>
+        <v>1005</v>
       </c>
       <c r="B212" t="s">
         <v>794</v>
@@ -7397,7 +7451,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="31" t="s">
-        <v>1045</v>
+        <v>1018</v>
       </c>
       <c r="B213" t="s">
         <v>80</v>
@@ -7434,7 +7488,7 @@
         <v>173</v>
       </c>
       <c r="B215" t="s">
-        <v>173</v>
+        <v>1060</v>
       </c>
       <c r="C215" t="s">
         <v>856</v>
@@ -7448,7 +7502,7 @@
         <v>973</v>
       </c>
       <c r="B216" t="s">
-        <v>1004</v>
+        <v>1059</v>
       </c>
       <c r="C216" t="s">
         <v>859</v>
@@ -7466,7 +7520,7 @@
         <v>974</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1005</v>
+        <v>1061</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>867</v>
@@ -7480,10 +7534,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="B218" t="s">
-        <v>1009</v>
+        <v>1062</v>
       </c>
       <c r="C218" t="s">
         <v>888</v>
@@ -7494,10 +7548,10 @@
     </row>
     <row r="219" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="B219" t="s">
-        <v>1007</v>
+        <v>1063</v>
       </c>
       <c r="C219" t="s">
         <v>886</v>
@@ -7512,10 +7566,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="B220" t="s">
-        <v>1008</v>
+        <v>1064</v>
       </c>
       <c r="C220" t="s">
         <v>887</v>
@@ -7529,10 +7583,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1016</v>
+        <v>991</v>
       </c>
       <c r="B221" t="s">
-        <v>1016</v>
+        <v>1065</v>
       </c>
       <c r="D221" t="s">
         <v>693</v>
@@ -7543,7 +7597,7 @@
         <v>977</v>
       </c>
       <c r="B222" t="s">
-        <v>977</v>
+        <v>1066</v>
       </c>
       <c r="C222" t="s">
         <v>873</v>
@@ -7561,7 +7615,7 @@
         <v>968</v>
       </c>
       <c r="B223" t="s">
-        <v>968</v>
+        <v>1074</v>
       </c>
       <c r="C223" t="s">
         <v>854</v>
@@ -7575,7 +7629,7 @@
         <v>967</v>
       </c>
       <c r="B224" t="s">
-        <v>978</v>
+        <v>1075</v>
       </c>
       <c r="C224" t="s">
         <v>857</v>
@@ -7589,7 +7643,7 @@
         <v>969</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>979</v>
+        <v>1076</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>865</v>
@@ -7604,10 +7658,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B226" t="s">
-        <v>983</v>
+        <v>1077</v>
       </c>
       <c r="C226" t="s">
         <v>880</v>
@@ -7618,10 +7672,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B227" t="s">
-        <v>981</v>
+        <v>1078</v>
       </c>
       <c r="C227" t="s">
         <v>877</v>
@@ -7632,10 +7686,10 @@
     </row>
     <row r="228" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B228" t="s">
-        <v>982</v>
+        <v>1079</v>
       </c>
       <c r="C228" t="s">
         <v>879</v>
@@ -7650,10 +7704,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="B229" t="s">
-        <v>988</v>
+        <v>1080</v>
       </c>
       <c r="D229" t="s">
         <v>693</v>
@@ -7664,7 +7718,7 @@
         <v>976</v>
       </c>
       <c r="B230" t="s">
-        <v>976</v>
+        <v>1081</v>
       </c>
       <c r="C230" t="s">
         <v>871</v>
@@ -7717,7 +7771,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1033</v>
+        <v>1006</v>
       </c>
       <c r="B234" t="s">
         <v>754</v>
@@ -7787,7 +7841,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
       <c r="B239" t="s">
         <v>733</v>
@@ -7804,7 +7858,7 @@
         <v>971</v>
       </c>
       <c r="B240" t="s">
-        <v>971</v>
+        <v>1089</v>
       </c>
       <c r="C240" t="s">
         <v>855</v>
@@ -7818,7 +7872,7 @@
         <v>970</v>
       </c>
       <c r="B241" t="s">
-        <v>991</v>
+        <v>1090</v>
       </c>
       <c r="C241" t="s">
         <v>858</v>
@@ -7832,7 +7886,7 @@
         <v>972</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>992</v>
+        <v>1091</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>866</v>
@@ -7843,10 +7897,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="B243" t="s">
-        <v>996</v>
+        <v>1092</v>
       </c>
       <c r="C243" t="s">
         <v>884</v>
@@ -7857,10 +7911,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="B244" t="s">
-        <v>994</v>
+        <v>1093</v>
       </c>
       <c r="C244" t="s">
         <v>882</v>
@@ -7871,10 +7925,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="B245" t="s">
-        <v>995</v>
+        <v>1094</v>
       </c>
       <c r="C245" t="s">
         <v>883</v>
@@ -7885,10 +7939,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="B246" t="s">
-        <v>1001</v>
+        <v>1095</v>
       </c>
       <c r="D246" t="s">
         <v>693</v>
@@ -7899,7 +7953,7 @@
         <v>975</v>
       </c>
       <c r="B247" t="s">
-        <v>975</v>
+        <v>1096</v>
       </c>
       <c r="C247" t="s">
         <v>872</v>
@@ -7910,7 +7964,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>1022</v>
+        <v>995</v>
       </c>
       <c r="B248" t="s">
         <v>735</v>
@@ -7980,13 +8034,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>1035</v>
+        <v>1008</v>
       </c>
       <c r="B253" t="s">
         <v>756</v>
       </c>
       <c r="C253" t="s">
-        <v>1036</v>
+        <v>1009</v>
       </c>
       <c r="D253" t="s">
         <v>757</v>
@@ -7994,7 +8048,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>1037</v>
+        <v>1010</v>
       </c>
       <c r="B254" t="s">
         <v>758</v>
@@ -8008,13 +8062,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="31" t="s">
-        <v>1050</v>
+        <v>1023</v>
       </c>
       <c r="B255" t="s">
         <v>817</v>
       </c>
       <c r="C255" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
       <c r="D255" t="s">
         <v>797</v>
@@ -8022,7 +8076,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>1038</v>
+        <v>1011</v>
       </c>
       <c r="B256" t="s">
         <v>760</v>
@@ -8078,7 +8132,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>1034</v>
+        <v>1007</v>
       </c>
       <c r="B260" t="s">
         <v>63</v>
@@ -8106,7 +8160,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="31" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
       <c r="B262" t="s">
         <v>751</v>
@@ -8120,7 +8174,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="31" t="s">
-        <v>1041</v>
+        <v>1014</v>
       </c>
       <c r="B263" t="s">
         <v>750</v>
@@ -8134,7 +8188,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="31" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="B264" t="s">
         <v>749</v>
@@ -8148,7 +8202,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>1026</v>
+        <v>999</v>
       </c>
       <c r="B265" t="s">
         <v>746</v>
@@ -8162,7 +8216,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
       <c r="B266" t="s">
         <v>742</v>
@@ -8176,13 +8230,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>1029</v>
+        <v>1002</v>
       </c>
       <c r="B267" t="s">
         <v>791</v>
       </c>
       <c r="C267" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
       <c r="D267" t="s">
         <v>693</v>
@@ -8190,7 +8244,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>1027</v>
+        <v>1000</v>
       </c>
       <c r="B268" t="s">
         <v>747</v>
@@ -8204,7 +8258,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
       <c r="B269" t="s">
         <v>744</v>
@@ -8218,13 +8272,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1030</v>
+        <v>1003</v>
       </c>
       <c r="B270" t="s">
         <v>792</v>
       </c>
       <c r="C270" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="D270" t="s">
         <v>693</v>
@@ -8232,7 +8286,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>1028</v>
+        <v>1001</v>
       </c>
       <c r="B271" t="s">
         <v>748</v>
@@ -8246,7 +8300,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>1025</v>
+        <v>998</v>
       </c>
       <c r="B272" t="s">
         <v>745</v>
@@ -8260,13 +8314,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>1031</v>
+        <v>1004</v>
       </c>
       <c r="B273" t="s">
         <v>793</v>
       </c>
       <c r="C273" t="s">
-        <v>1044</v>
+        <v>1017</v>
       </c>
       <c r="D273" t="s">
         <v>693</v>
@@ -8400,7 +8454,7 @@
         <v>226</v>
       </c>
       <c r="B283" t="s">
-        <v>980</v>
+        <v>1082</v>
       </c>
       <c r="C283" t="s">
         <v>874</v>
@@ -8414,7 +8468,7 @@
         <v>226</v>
       </c>
       <c r="B284" t="s">
-        <v>993</v>
+        <v>1097</v>
       </c>
       <c r="C284" t="s">
         <v>875</v>
@@ -8428,7 +8482,7 @@
         <v>226</v>
       </c>
       <c r="B285" t="s">
-        <v>1006</v>
+        <v>1067</v>
       </c>
       <c r="C285" t="s">
         <v>876</v>
@@ -8456,7 +8510,7 @@
         <v>226</v>
       </c>
       <c r="B287" t="s">
-        <v>984</v>
+        <v>1083</v>
       </c>
       <c r="C287" t="s">
         <v>881</v>
@@ -8470,7 +8524,7 @@
         <v>226</v>
       </c>
       <c r="B288" t="s">
-        <v>985</v>
+        <v>1084</v>
       </c>
       <c r="C288" t="s">
         <v>878</v>
@@ -8484,7 +8538,7 @@
         <v>226</v>
       </c>
       <c r="B289" t="s">
-        <v>997</v>
+        <v>1098</v>
       </c>
       <c r="C289" t="s">
         <v>885</v>
@@ -8498,7 +8552,7 @@
         <v>226</v>
       </c>
       <c r="B290" t="s">
-        <v>998</v>
+        <v>1099</v>
       </c>
       <c r="C290" t="s">
         <v>878</v>
@@ -8512,7 +8566,7 @@
         <v>226</v>
       </c>
       <c r="B291" t="s">
-        <v>1010</v>
+        <v>1068</v>
       </c>
       <c r="C291" t="s">
         <v>889</v>
@@ -8526,7 +8580,7 @@
         <v>226</v>
       </c>
       <c r="B292" t="s">
-        <v>1011</v>
+        <v>1069</v>
       </c>
       <c r="C292" t="s">
         <v>878</v>
@@ -8862,7 +8916,7 @@
         <v>226</v>
       </c>
       <c r="B316" t="s">
-        <v>986</v>
+        <v>1085</v>
       </c>
       <c r="C316" t="s">
         <v>933</v>
@@ -8876,7 +8930,7 @@
         <v>226</v>
       </c>
       <c r="B317" t="s">
-        <v>987</v>
+        <v>1086</v>
       </c>
       <c r="C317" t="s">
         <v>934</v>
@@ -8890,7 +8944,7 @@
         <v>226</v>
       </c>
       <c r="B318" t="s">
-        <v>999</v>
+        <v>1100</v>
       </c>
       <c r="C318" t="s">
         <v>933</v>
@@ -8904,7 +8958,7 @@
         <v>226</v>
       </c>
       <c r="B319" t="s">
-        <v>1000</v>
+        <v>1101</v>
       </c>
       <c r="C319" t="s">
         <v>934</v>
@@ -8918,7 +8972,7 @@
         <v>226</v>
       </c>
       <c r="B320" t="s">
-        <v>1012</v>
+        <v>1070</v>
       </c>
       <c r="C320" t="s">
         <v>933</v>
@@ -8932,7 +8986,7 @@
         <v>226</v>
       </c>
       <c r="B321" t="s">
-        <v>1013</v>
+        <v>1071</v>
       </c>
       <c r="C321" t="s">
         <v>934</v>
@@ -8978,7 +9032,7 @@
       </c>
       <c r="C324" s="3"/>
       <c r="D324" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -8990,7 +9044,7 @@
       </c>
       <c r="C325" s="3"/>
       <c r="D325" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -9002,7 +9056,7 @@
       </c>
       <c r="C326" s="3"/>
       <c r="D326" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -9014,7 +9068,7 @@
       </c>
       <c r="C327" s="3"/>
       <c r="D327" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -9026,7 +9080,7 @@
       </c>
       <c r="C328" s="3"/>
       <c r="D328" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -9038,7 +9092,7 @@
       </c>
       <c r="C329" s="3"/>
       <c r="D329" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -9050,7 +9104,7 @@
       </c>
       <c r="C330" s="3"/>
       <c r="D330" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -9062,7 +9116,7 @@
       </c>
       <c r="C331" s="3"/>
       <c r="D331" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -9074,7 +9128,7 @@
       </c>
       <c r="C332" s="3"/>
       <c r="D332" t="s">
-        <v>1015</v>
+        <v>990</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -9086,7 +9140,7 @@
       </c>
       <c r="C333" s="3"/>
       <c r="D333" t="s">
-        <v>1015</v>
+        <v>990</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -9504,7 +9558,7 @@
         <v>226</v>
       </c>
       <c r="B371" t="s">
-        <v>989</v>
+        <v>1087</v>
       </c>
       <c r="D371" t="s">
         <v>833</v>
@@ -9515,7 +9569,7 @@
         <v>226</v>
       </c>
       <c r="B372" t="s">
-        <v>1002</v>
+        <v>1102</v>
       </c>
       <c r="D372" t="s">
         <v>833</v>
@@ -9526,7 +9580,7 @@
         <v>226</v>
       </c>
       <c r="B373" t="s">
-        <v>1017</v>
+        <v>1072</v>
       </c>
       <c r="D373" t="s">
         <v>833</v>
@@ -9559,7 +9613,7 @@
         <v>226</v>
       </c>
       <c r="B376" t="s">
-        <v>990</v>
+        <v>1088</v>
       </c>
       <c r="D376" t="s">
         <v>833</v>
@@ -9570,7 +9624,7 @@
         <v>226</v>
       </c>
       <c r="B377" t="s">
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="D377" t="s">
         <v>833</v>
@@ -9581,7 +9635,7 @@
         <v>226</v>
       </c>
       <c r="B378" t="s">
-        <v>1018</v>
+        <v>1073</v>
       </c>
       <c r="D378" t="s">
         <v>833</v>
@@ -45674,7 +45728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -45709,7 +45763,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>1051</v>
+        <v>1024</v>
       </c>
       <c r="E4" s="18"/>
     </row>
@@ -45721,25 +45775,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>1082</v>
+        <v>1055</v>
       </c>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>1083</v>
+        <v>1056</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>1084</v>
+        <v>1057</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
-        <v>1085</v>
+        <v>1058</v>
       </c>
       <c r="E9" s="18"/>
     </row>
@@ -45787,7 +45841,7 @@
         <v>203</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
       <c r="F13" t="s">
         <v>376</v>
@@ -45818,7 +45872,7 @@
         <v>945</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1054</v>
+        <v>1027</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>554</v>
@@ -45838,7 +45892,7 @@
         <v>454</v>
       </c>
       <c r="B16" t="s">
-        <v>1057</v>
+        <v>1030</v>
       </c>
       <c r="C16" t="s">
         <v>208</v>
@@ -45858,7 +45912,7 @@
         <v>456</v>
       </c>
       <c r="B17" t="s">
-        <v>1058</v>
+        <v>1031</v>
       </c>
       <c r="C17" t="s">
         <v>208</v>
@@ -45878,7 +45932,7 @@
         <v>455</v>
       </c>
       <c r="B18" t="s">
-        <v>1059</v>
+        <v>1032</v>
       </c>
       <c r="C18" t="s">
         <v>208</v>
@@ -45898,7 +45952,7 @@
         <v>408</v>
       </c>
       <c r="B19" t="s">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="C19" t="s">
         <v>394</v>
@@ -45907,7 +45961,7 @@
         <v>117</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
       <c r="F19" t="s">
         <v>376</v>
@@ -45918,7 +45972,7 @@
         <v>408</v>
       </c>
       <c r="B20" t="s">
-        <v>1068</v>
+        <v>1041</v>
       </c>
       <c r="C20" t="s">
         <v>394</v>
@@ -45927,7 +45981,7 @@
         <v>117</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
       <c r="F20" t="s">
         <v>376</v>
@@ -45935,10 +45989,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1075</v>
+        <v>1048</v>
       </c>
       <c r="B21" t="s">
-        <v>1067</v>
+        <v>1040</v>
       </c>
       <c r="C21" t="s">
         <v>512</v>
@@ -45947,7 +46001,7 @@
         <v>364</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>1076</v>
+        <v>1049</v>
       </c>
       <c r="F21" t="s">
         <v>511</v>
@@ -46058,7 +46112,7 @@
         <v>955</v>
       </c>
       <c r="B27" t="s">
-        <v>1062</v>
+        <v>1035</v>
       </c>
       <c r="C27" t="s">
         <v>550</v>
@@ -46078,7 +46132,7 @@
         <v>956</v>
       </c>
       <c r="B28" t="s">
-        <v>1060</v>
+        <v>1033</v>
       </c>
       <c r="C28" t="s">
         <v>552</v>
@@ -46098,7 +46152,7 @@
         <v>956</v>
       </c>
       <c r="B29" t="s">
-        <v>1061</v>
+        <v>1034</v>
       </c>
       <c r="C29" t="s">
         <v>552</v>
@@ -46115,10 +46169,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1077</v>
+        <v>1050</v>
       </c>
       <c r="B30" t="s">
-        <v>1064</v>
+        <v>1037</v>
       </c>
       <c r="C30" t="s">
         <v>678</v>
@@ -46127,50 +46181,50 @@
         <v>142</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>1080</v>
+        <v>1053</v>
       </c>
       <c r="F30" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1078</v>
+        <v>1051</v>
       </c>
       <c r="B31" t="s">
-        <v>1065</v>
+        <v>1038</v>
       </c>
       <c r="C31" t="s">
-        <v>1073</v>
+        <v>1046</v>
       </c>
       <c r="D31" t="s">
         <v>142</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>1080</v>
+        <v>1053</v>
       </c>
       <c r="F31" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1079</v>
+        <v>1052</v>
       </c>
       <c r="B32" t="s">
-        <v>1066</v>
+        <v>1039</v>
       </c>
       <c r="C32" t="s">
-        <v>1074</v>
+        <v>1047</v>
       </c>
       <c r="D32" t="s">
         <v>142</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>1080</v>
+        <v>1053</v>
       </c>
       <c r="F32" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -46187,7 +46241,7 @@
         <v>203</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
       <c r="F33" t="s">
         <v>376</v>
@@ -46218,10 +46272,10 @@
         <v>226</v>
       </c>
       <c r="B35" t="s">
-        <v>1055</v>
+        <v>1028</v>
       </c>
       <c r="C35" t="s">
-        <v>1071</v>
+        <v>1044</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
@@ -46238,10 +46292,10 @@
         <v>226</v>
       </c>
       <c r="B36" t="s">
-        <v>1056</v>
+        <v>1029</v>
       </c>
       <c r="C36" t="s">
-        <v>1070</v>
+        <v>1043</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
@@ -46318,7 +46372,7 @@
         <v>226</v>
       </c>
       <c r="B40" t="s">
-        <v>1053</v>
+        <v>1026</v>
       </c>
       <c r="C40" t="s">
         <v>509</v>
@@ -46327,7 +46381,7 @@
         <v>142</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
       <c r="F40" t="s">
         <v>376</v>
@@ -46338,7 +46392,7 @@
         <v>226</v>
       </c>
       <c r="B41" t="s">
-        <v>1069</v>
+        <v>1042</v>
       </c>
       <c r="C41" t="s">
         <v>509</v>
@@ -46347,7 +46401,7 @@
         <v>142</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
       <c r="F41" t="s">
         <v>376</v>
@@ -46378,7 +46432,7 @@
         <v>226</v>
       </c>
       <c r="B43" t="s">
-        <v>1063</v>
+        <v>1036</v>
       </c>
       <c r="C43" t="s">
         <v>550</v>

--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="1100">
   <si>
     <t>LI-7700</t>
   </si>
@@ -2084,18 +2084,9 @@
     <t>filename</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>[yyyy-mm-dd]</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>[HH:MM]</t>
-  </si>
-  <si>
     <t>DOY</t>
   </si>
   <si>
@@ -2552,12 +2543,6 @@
     <t>Name of the raw file (or the first of a set) from which the dataset for the current averaging interval was extracted</t>
   </si>
   <si>
-    <t>Date of the end of the averaging period</t>
-  </si>
-  <si>
-    <t>Time of the end of the averaging period</t>
-  </si>
-  <si>
     <t xml:space="preserve"> if selected</t>
   </si>
   <si>
@@ -3339,6 +3324,9 @@
   </si>
   <si>
     <t>w/h2o_cov</t>
+  </si>
+  <si>
+    <t>CH4_flux_LI7700</t>
   </si>
 </sst>
 </file>
@@ -3782,10 +3770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G381"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4283,7 +4271,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42" s="21" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -4334,7 +4322,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B47" t="s">
         <v>284</v>
@@ -4414,7 +4402,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
@@ -4437,7 +4425,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B52" t="s">
         <v>115</v>
@@ -4497,7 +4485,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B55" t="s">
         <v>281</v>
@@ -4677,7 +4665,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>1099</v>
       </c>
       <c r="B64" t="s">
         <v>330</v>
@@ -4757,7 +4745,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B68" t="s">
         <v>335</v>
@@ -4917,7 +4905,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="30" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B76" t="s">
         <v>292</v>
@@ -4937,7 +4925,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>265</v>
@@ -5018,13 +5006,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>264</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D81" s="28" t="s">
         <v>39</v>
@@ -5039,7 +5027,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B82" t="s">
         <v>363</v>
@@ -5059,7 +5047,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B83" t="s">
         <v>359</v>
@@ -5079,7 +5067,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B84" t="s">
         <v>360</v>
@@ -5119,7 +5107,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B86" t="s">
         <v>358</v>
@@ -5139,7 +5127,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B87" t="s">
         <v>371</v>
@@ -5159,7 +5147,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B88" t="s">
         <v>366</v>
@@ -5179,7 +5167,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B89" t="s">
         <v>244</v>
@@ -5199,7 +5187,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>367</v>
@@ -5219,7 +5207,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>245</v>
@@ -5239,7 +5227,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B92" t="s">
         <v>365</v>
@@ -5259,7 +5247,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B93" t="s">
         <v>247</v>
@@ -5279,7 +5267,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B94" t="s">
         <v>248</v>
@@ -5299,7 +5287,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B95" t="s">
         <v>249</v>
@@ -5974,7 +5962,7 @@
         <v>287</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="D128" s="28" t="s">
         <v>39</v>
@@ -7241,7 +7229,7 @@
         <v>246</v>
       </c>
       <c r="C191" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D191" t="s">
         <v>534</v>
@@ -7326,161 +7314,166 @@
         <v>172</v>
       </c>
     </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D203" t="s">
+        <v>685</v>
+      </c>
+    </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B204" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C204" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="D204" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B205" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C205" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D205" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B206" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C206" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="D206" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B207" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C207" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="D207" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="31" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B208" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C208" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D208" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="31" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B209" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C209" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="D209" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B210" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C210" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="D210" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="31" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B211" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C211" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="D211" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B212" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D212" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="31" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B213" t="s">
         <v>80</v>
       </c>
       <c r="C213" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D213" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G213" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B214" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C214" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D214" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G214" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -7488,243 +7481,243 @@
         <v>173</v>
       </c>
       <c r="B215" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C215" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D215" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="216" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B216" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C216" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="D216" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E216" s="20"/>
       <c r="G216" s="3" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G217" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B218" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C218" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D218" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="219" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B219" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C219" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D219" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E219" s="20"/>
       <c r="G219" s="3" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B220" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C220" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D220" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G220" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B221" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="D221" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="222" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B222" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C222" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="D222" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E222" s="20"/>
       <c r="G222" s="3" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B223" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C223" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D223" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B224" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C224" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D224" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E225" s="20"/>
       <c r="G225" s="3" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B226" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C226" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="D226" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B227" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C227" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="D227" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B228" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C228" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="D228" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E228" s="20"/>
       <c r="G228" s="3" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B229" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D229" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B230" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C230" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="D230" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -7735,10 +7728,10 @@
         <v>102</v>
       </c>
       <c r="C231" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D231" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
@@ -7749,38 +7742,38 @@
         <v>71</v>
       </c>
       <c r="C232" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D232" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="31" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B233" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C233" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D233" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B234" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C234" t="s">
         <v>379</v>
       </c>
       <c r="D234" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -7791,189 +7784,189 @@
         <v>55</v>
       </c>
       <c r="C235" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D235" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B236" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C236" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D236" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B238" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C238" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="D238" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B239" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C239" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="D239" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B240" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C240" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D240" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B241" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="C241" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D241" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B243" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C243" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="D243" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B244" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C244" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D244" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B245" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="C245" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D245" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B246" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="D246" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B247" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="C247" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D247" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B248" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C248" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D248" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -7984,346 +7977,346 @@
         <v>52</v>
       </c>
       <c r="C249" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D249" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="B250" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C250" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D250" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B252" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C252" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D252" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B253" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C253" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D253" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B254" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C254" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D254" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="31" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B255" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C255" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D255" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B256" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C256" t="s">
         <v>575</v>
       </c>
       <c r="D256" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B257" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C257" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D257" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B258" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C258" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D258" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B259" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C259" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D259" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B260" t="s">
         <v>63</v>
       </c>
       <c r="C260" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D260" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B261" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C261" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D261" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="31" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B262" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C262" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D262" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="31" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B263" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C263" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D263" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="31" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B264" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C264" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D264" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B265" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C265" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="D265" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B266" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C266" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="D266" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B267" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C267" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D267" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B268" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C268" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="D268" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B269" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C269" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D269" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B270" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C270" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D270" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="B271" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C271" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D271" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B272" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C272" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D272" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B273" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C273" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D273" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -8334,7 +8327,7 @@
         <v>684</v>
       </c>
       <c r="C274" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -8342,13 +8335,13 @@
         <v>226</v>
       </c>
       <c r="B275" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C275" t="s">
-        <v>841</v>
+        <v>858</v>
       </c>
       <c r="D275" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -8356,13 +8349,13 @@
         <v>226</v>
       </c>
       <c r="B276" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C276" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D276" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -8370,13 +8363,13 @@
         <v>226</v>
       </c>
       <c r="B277" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="C277" t="s">
         <v>863</v>
       </c>
       <c r="D277" t="s">
-        <v>690</v>
+        <v>855</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -8384,13 +8377,13 @@
         <v>226</v>
       </c>
       <c r="B278" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="C278" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="D278" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -8398,13 +8391,13 @@
         <v>226</v>
       </c>
       <c r="B279" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C279" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D279" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -8412,13 +8405,13 @@
         <v>226</v>
       </c>
       <c r="B280" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C280" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D280" t="s">
-        <v>693</v>
+        <v>855</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -8426,13 +8419,13 @@
         <v>226</v>
       </c>
       <c r="B281" t="s">
-        <v>707</v>
+        <v>1077</v>
       </c>
       <c r="C281" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D281" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -8440,13 +8433,13 @@
         <v>226</v>
       </c>
       <c r="B282" t="s">
-        <v>710</v>
+        <v>1092</v>
       </c>
       <c r="C282" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D282" t="s">
-        <v>860</v>
+        <v>701</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -8454,13 +8447,13 @@
         <v>226</v>
       </c>
       <c r="B283" t="s">
-        <v>1082</v>
+        <v>1062</v>
       </c>
       <c r="C283" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D283" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -8468,13 +8461,13 @@
         <v>226</v>
       </c>
       <c r="B284" t="s">
-        <v>1097</v>
+        <v>708</v>
       </c>
       <c r="C284" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="D284" t="s">
-        <v>704</v>
+        <v>855</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -8482,13 +8475,13 @@
         <v>226</v>
       </c>
       <c r="B285" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
       <c r="C285" t="s">
         <v>876</v>
       </c>
       <c r="D285" t="s">
-        <v>860</v>
+        <v>710</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -8496,13 +8489,13 @@
         <v>226</v>
       </c>
       <c r="B286" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C286" t="s">
+        <v>873</v>
+      </c>
+      <c r="D286" t="s">
         <v>711</v>
-      </c>
-      <c r="C286" t="s">
-        <v>868</v>
-      </c>
-      <c r="D286" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -8510,13 +8503,13 @@
         <v>226</v>
       </c>
       <c r="B287" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="C287" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D287" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -8524,13 +8517,13 @@
         <v>226</v>
       </c>
       <c r="B288" t="s">
-        <v>1084</v>
+        <v>1094</v>
       </c>
       <c r="C288" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="D288" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -8538,13 +8531,13 @@
         <v>226</v>
       </c>
       <c r="B289" t="s">
-        <v>1098</v>
+        <v>1063</v>
       </c>
       <c r="C289" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D289" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -8552,13 +8545,13 @@
         <v>226</v>
       </c>
       <c r="B290" t="s">
-        <v>1099</v>
+        <v>1064</v>
       </c>
       <c r="C290" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="D290" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -8566,13 +8559,13 @@
         <v>226</v>
       </c>
       <c r="B291" t="s">
-        <v>1068</v>
+        <v>714</v>
       </c>
       <c r="C291" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="D291" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -8580,13 +8573,13 @@
         <v>226</v>
       </c>
       <c r="B292" t="s">
-        <v>1069</v>
+        <v>715</v>
       </c>
       <c r="C292" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="D292" t="s">
-        <v>714</v>
+        <v>856</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -8594,13 +8587,13 @@
         <v>226</v>
       </c>
       <c r="B293" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C293" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D293" t="s">
-        <v>712</v>
+        <v>857</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -8608,13 +8601,13 @@
         <v>226</v>
       </c>
       <c r="B294" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C294" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D294" t="s">
-        <v>861</v>
+        <v>710</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -8622,13 +8615,13 @@
         <v>226</v>
       </c>
       <c r="B295" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C295" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="D295" t="s">
-        <v>862</v>
+        <v>711</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -8636,13 +8629,13 @@
         <v>226</v>
       </c>
       <c r="B296" t="s">
+        <v>719</v>
+      </c>
+      <c r="C296" t="s">
+        <v>885</v>
+      </c>
+      <c r="D296" t="s">
         <v>720</v>
-      </c>
-      <c r="C296" t="s">
-        <v>868</v>
-      </c>
-      <c r="D296" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -8650,13 +8643,13 @@
         <v>226</v>
       </c>
       <c r="B297" t="s">
-        <v>721</v>
+        <v>32</v>
       </c>
       <c r="C297" t="s">
-        <v>868</v>
+        <v>907</v>
       </c>
       <c r="D297" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -8664,13 +8657,13 @@
         <v>226</v>
       </c>
       <c r="B298" t="s">
-        <v>722</v>
+        <v>31</v>
       </c>
       <c r="C298" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="D298" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -8678,13 +8671,13 @@
         <v>226</v>
       </c>
       <c r="B299" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C299" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D299" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -8692,13 +8685,13 @@
         <v>226</v>
       </c>
       <c r="B300" t="s">
-        <v>31</v>
+        <v>758</v>
       </c>
       <c r="C300" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D300" t="s">
-        <v>753</v>
+        <v>690</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -8706,13 +8699,13 @@
         <v>226</v>
       </c>
       <c r="B301" t="s">
-        <v>30</v>
+        <v>759</v>
       </c>
       <c r="C301" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D301" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -8720,13 +8713,13 @@
         <v>226</v>
       </c>
       <c r="B302" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C302" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D302" t="s">
-        <v>693</v>
+        <v>754</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -8734,13 +8727,13 @@
         <v>226</v>
       </c>
       <c r="B303" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C303" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D303" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -8748,13 +8741,13 @@
         <v>226</v>
       </c>
       <c r="B304" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C304" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D304" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -8762,13 +8755,13 @@
         <v>226</v>
       </c>
       <c r="B305" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C305" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D305" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -8776,13 +8769,13 @@
         <v>226</v>
       </c>
       <c r="B306" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C306" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D306" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -8790,13 +8783,13 @@
         <v>226</v>
       </c>
       <c r="B307" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C307" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D307" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -8804,13 +8797,13 @@
         <v>226</v>
       </c>
       <c r="B308" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C308" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D308" t="s">
-        <v>757</v>
+        <v>693</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -8818,13 +8811,13 @@
         <v>226</v>
       </c>
       <c r="B309" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C309" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D309" t="s">
-        <v>757</v>
+        <v>690</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -8832,10 +8825,10 @@
         <v>226</v>
       </c>
       <c r="B310" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C310" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D310" t="s">
         <v>696</v>
@@ -8846,13 +8839,13 @@
         <v>226</v>
       </c>
       <c r="B311" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C311" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D311" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -8860,13 +8853,13 @@
         <v>226</v>
       </c>
       <c r="B312" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C312" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D312" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -8874,13 +8867,13 @@
         <v>226</v>
       </c>
       <c r="B313" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C313" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D313" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -8888,13 +8881,13 @@
         <v>226</v>
       </c>
       <c r="B314" t="s">
-        <v>773</v>
+        <v>1080</v>
       </c>
       <c r="C314" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D314" t="s">
-        <v>699</v>
+        <v>855</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -8902,13 +8895,13 @@
         <v>226</v>
       </c>
       <c r="B315" t="s">
-        <v>774</v>
+        <v>1081</v>
       </c>
       <c r="C315" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D315" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -8916,13 +8909,13 @@
         <v>226</v>
       </c>
       <c r="B316" t="s">
-        <v>1085</v>
+        <v>1095</v>
       </c>
       <c r="C316" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D316" t="s">
-        <v>860</v>
+        <v>701</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -8930,13 +8923,13 @@
         <v>226</v>
       </c>
       <c r="B317" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="C317" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D317" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -8944,13 +8937,13 @@
         <v>226</v>
       </c>
       <c r="B318" t="s">
-        <v>1100</v>
+        <v>1065</v>
       </c>
       <c r="C318" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D318" t="s">
-        <v>704</v>
+        <v>855</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -8958,13 +8951,13 @@
         <v>226</v>
       </c>
       <c r="B319" t="s">
-        <v>1101</v>
+        <v>1066</v>
       </c>
       <c r="C319" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D319" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -8972,13 +8965,13 @@
         <v>226</v>
       </c>
       <c r="B320" t="s">
-        <v>1070</v>
+        <v>772</v>
       </c>
       <c r="C320" t="s">
-        <v>933</v>
+        <v>863</v>
       </c>
       <c r="D320" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -8986,13 +8979,13 @@
         <v>226</v>
       </c>
       <c r="B321" t="s">
-        <v>1071</v>
+        <v>773</v>
       </c>
       <c r="C321" t="s">
-        <v>934</v>
+        <v>863</v>
       </c>
       <c r="D321" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -9000,13 +8993,11 @@
         <v>226</v>
       </c>
       <c r="B322" t="s">
-        <v>775</v>
-      </c>
-      <c r="C322" t="s">
-        <v>868</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="C322" s="3"/>
       <c r="D322" t="s">
-        <v>860</v>
+        <v>984</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -9014,13 +9005,11 @@
         <v>226</v>
       </c>
       <c r="B323" t="s">
-        <v>776</v>
-      </c>
-      <c r="C323" t="s">
-        <v>868</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="C323" s="3"/>
       <c r="D323" t="s">
-        <v>693</v>
+        <v>984</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -9028,11 +9017,11 @@
         <v>226</v>
       </c>
       <c r="B324" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -9040,11 +9029,11 @@
         <v>226</v>
       </c>
       <c r="B325" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -9052,11 +9041,11 @@
         <v>226</v>
       </c>
       <c r="B326" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -9064,11 +9053,11 @@
         <v>226</v>
       </c>
       <c r="B327" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -9076,11 +9065,11 @@
         <v>226</v>
       </c>
       <c r="B328" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -9088,11 +9077,11 @@
         <v>226</v>
       </c>
       <c r="B329" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -9100,11 +9089,11 @@
         <v>226</v>
       </c>
       <c r="B330" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -9112,11 +9101,11 @@
         <v>226</v>
       </c>
       <c r="B331" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -9124,11 +9113,11 @@
         <v>226</v>
       </c>
       <c r="B332" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" t="s">
-        <v>990</v>
+        <v>785</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -9140,7 +9129,7 @@
       </c>
       <c r="C333" s="3"/>
       <c r="D333" t="s">
-        <v>990</v>
+        <v>787</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -9148,11 +9137,11 @@
         <v>226</v>
       </c>
       <c r="B334" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" t="s">
-        <v>788</v>
+        <v>690</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -9160,11 +9149,10 @@
         <v>226</v>
       </c>
       <c r="B335" t="s">
-        <v>789</v>
-      </c>
-      <c r="C335" s="3"/>
+        <v>793</v>
+      </c>
       <c r="D335" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -9174,9 +9162,8 @@
       <c r="B336" t="s">
         <v>795</v>
       </c>
-      <c r="C336" s="3"/>
       <c r="D336" t="s">
-        <v>693</v>
+        <v>794</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -9187,7 +9174,7 @@
         <v>796</v>
       </c>
       <c r="D337" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -9195,10 +9182,10 @@
         <v>226</v>
       </c>
       <c r="B338" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D338" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -9206,10 +9193,10 @@
         <v>226</v>
       </c>
       <c r="B339" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D339" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -9217,10 +9204,10 @@
         <v>226</v>
       </c>
       <c r="B340" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D340" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -9228,10 +9215,10 @@
         <v>226</v>
       </c>
       <c r="B341" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D341" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -9239,10 +9226,10 @@
         <v>226</v>
       </c>
       <c r="B342" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D342" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -9250,10 +9237,10 @@
         <v>226</v>
       </c>
       <c r="B343" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D343" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -9261,10 +9248,10 @@
         <v>226</v>
       </c>
       <c r="B344" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D344" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -9272,10 +9259,10 @@
         <v>226</v>
       </c>
       <c r="B345" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D345" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -9283,10 +9270,10 @@
         <v>226</v>
       </c>
       <c r="B346" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D346" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -9294,10 +9281,10 @@
         <v>226</v>
       </c>
       <c r="B347" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D347" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -9305,10 +9292,10 @@
         <v>226</v>
       </c>
       <c r="B348" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D348" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -9316,10 +9303,10 @@
         <v>226</v>
       </c>
       <c r="B349" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D349" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -9327,10 +9314,10 @@
         <v>226</v>
       </c>
       <c r="B350" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D350" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -9338,10 +9325,10 @@
         <v>226</v>
       </c>
       <c r="B351" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D351" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -9349,10 +9336,10 @@
         <v>226</v>
       </c>
       <c r="B352" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D352" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -9360,10 +9347,10 @@
         <v>226</v>
       </c>
       <c r="B353" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D353" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -9371,10 +9358,10 @@
         <v>226</v>
       </c>
       <c r="B354" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D354" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -9385,7 +9372,7 @@
         <v>815</v>
       </c>
       <c r="D355" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -9396,7 +9383,7 @@
         <v>816</v>
       </c>
       <c r="D356" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -9404,10 +9391,10 @@
         <v>226</v>
       </c>
       <c r="B357" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D357" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -9415,10 +9402,10 @@
         <v>226</v>
       </c>
       <c r="B358" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D358" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -9426,10 +9413,10 @@
         <v>226</v>
       </c>
       <c r="B359" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D359" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -9437,10 +9424,10 @@
         <v>226</v>
       </c>
       <c r="B360" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D360" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -9448,10 +9435,10 @@
         <v>226</v>
       </c>
       <c r="B361" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D361" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -9459,10 +9446,10 @@
         <v>226</v>
       </c>
       <c r="B362" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D362" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -9470,10 +9457,10 @@
         <v>226</v>
       </c>
       <c r="B363" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D363" t="s">
-        <v>797</v>
+        <v>690</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -9481,10 +9468,10 @@
         <v>226</v>
       </c>
       <c r="B364" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D364" t="s">
-        <v>797</v>
+        <v>690</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -9492,10 +9479,10 @@
         <v>226</v>
       </c>
       <c r="B365" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D365" t="s">
-        <v>693</v>
+        <v>752</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -9503,10 +9490,10 @@
         <v>226</v>
       </c>
       <c r="B366" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D366" t="s">
-        <v>693</v>
+        <v>752</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -9514,10 +9501,10 @@
         <v>226</v>
       </c>
       <c r="B367" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D367" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -9525,10 +9512,10 @@
         <v>226</v>
       </c>
       <c r="B368" t="s">
+        <v>828</v>
+      </c>
+      <c r="D368" t="s">
         <v>829</v>
-      </c>
-      <c r="D368" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -9536,10 +9523,10 @@
         <v>226</v>
       </c>
       <c r="B369" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D369" t="s">
         <v>830</v>
-      </c>
-      <c r="D369" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -9547,10 +9534,10 @@
         <v>226</v>
       </c>
       <c r="B370" t="s">
-        <v>831</v>
+        <v>1097</v>
       </c>
       <c r="D370" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -9558,10 +9545,10 @@
         <v>226</v>
       </c>
       <c r="B371" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
       <c r="D371" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -9569,10 +9556,10 @@
         <v>226</v>
       </c>
       <c r="B372" t="s">
-        <v>1102</v>
+        <v>831</v>
       </c>
       <c r="D372" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -9580,7 +9567,7 @@
         <v>226</v>
       </c>
       <c r="B373" t="s">
-        <v>1072</v>
+        <v>832</v>
       </c>
       <c r="D373" t="s">
         <v>833</v>
@@ -9591,10 +9578,10 @@
         <v>226</v>
       </c>
       <c r="B374" t="s">
-        <v>834</v>
+        <v>1083</v>
       </c>
       <c r="D374" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -9602,10 +9589,10 @@
         <v>226</v>
       </c>
       <c r="B375" t="s">
-        <v>835</v>
+        <v>1098</v>
       </c>
       <c r="D375" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -9613,10 +9600,10 @@
         <v>226</v>
       </c>
       <c r="B376" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
       <c r="D376" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -9624,10 +9611,10 @@
         <v>226</v>
       </c>
       <c r="B377" t="s">
-        <v>1103</v>
+        <v>834</v>
       </c>
       <c r="D377" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -9635,10 +9622,10 @@
         <v>226</v>
       </c>
       <c r="B378" t="s">
-        <v>1073</v>
+        <v>835</v>
       </c>
       <c r="D378" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -9646,32 +9633,10 @@
         <v>226</v>
       </c>
       <c r="B379" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D379" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>226</v>
-      </c>
-      <c r="B380" t="s">
-        <v>838</v>
-      </c>
-      <c r="D380" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>226</v>
-      </c>
-      <c r="B381" t="s">
-        <v>839</v>
-      </c>
-      <c r="D381" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -45763,7 +45728,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E4" s="18"/>
     </row>
@@ -45775,25 +45740,25 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="21" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="E9" s="18"/>
     </row>
@@ -45841,7 +45806,7 @@
         <v>203</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F13" t="s">
         <v>376</v>
@@ -45852,7 +45817,7 @@
         <v>453</v>
       </c>
       <c r="B14" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C14" t="s">
         <v>457</v>
@@ -45869,10 +45834,10 @@
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>554</v>
@@ -45892,7 +45857,7 @@
         <v>454</v>
       </c>
       <c r="B16" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C16" t="s">
         <v>208</v>
@@ -45912,7 +45877,7 @@
         <v>456</v>
       </c>
       <c r="B17" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C17" t="s">
         <v>208</v>
@@ -45932,7 +45897,7 @@
         <v>455</v>
       </c>
       <c r="B18" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C18" t="s">
         <v>208</v>
@@ -45952,7 +45917,7 @@
         <v>408</v>
       </c>
       <c r="B19" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C19" t="s">
         <v>394</v>
@@ -45961,7 +45926,7 @@
         <v>117</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F19" t="s">
         <v>376</v>
@@ -45972,7 +45937,7 @@
         <v>408</v>
       </c>
       <c r="B20" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C20" t="s">
         <v>394</v>
@@ -45981,7 +45946,7 @@
         <v>117</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F20" t="s">
         <v>376</v>
@@ -45989,10 +45954,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B21" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C21" t="s">
         <v>512</v>
@@ -46001,7 +45966,7 @@
         <v>364</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F21" t="s">
         <v>511</v>
@@ -46009,7 +45974,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
@@ -46029,7 +45994,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -46069,7 +46034,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -46089,7 +46054,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B26" t="s">
         <v>366</v>
@@ -46109,10 +46074,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="B27" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C27" t="s">
         <v>550</v>
@@ -46129,10 +46094,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B28" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C28" t="s">
         <v>552</v>
@@ -46149,10 +46114,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B29" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C29" t="s">
         <v>552</v>
@@ -46169,10 +46134,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B30" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C30" t="s">
         <v>678</v>
@@ -46181,50 +46146,50 @@
         <v>142</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F30" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B31" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C31" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="D31" t="s">
         <v>142</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F31" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B32" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C32" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="D32" t="s">
         <v>142</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="F32" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -46241,7 +46206,7 @@
         <v>203</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F33" t="s">
         <v>376</v>
@@ -46272,10 +46237,10 @@
         <v>226</v>
       </c>
       <c r="B35" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C35" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
@@ -46292,10 +46257,10 @@
         <v>226</v>
       </c>
       <c r="B36" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C36" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
@@ -46372,7 +46337,7 @@
         <v>226</v>
       </c>
       <c r="B40" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C40" t="s">
         <v>509</v>
@@ -46381,7 +46346,7 @@
         <v>142</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F40" t="s">
         <v>376</v>
@@ -46392,7 +46357,7 @@
         <v>226</v>
       </c>
       <c r="B41" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C41" t="s">
         <v>509</v>
@@ -46401,7 +46366,7 @@
         <v>142</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="F41" t="s">
         <v>376</v>
@@ -46432,7 +46397,7 @@
         <v>226</v>
       </c>
       <c r="B43" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C43" t="s">
         <v>550</v>

--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -3772,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Foret_ouest_eddypro" sheetId="12" r:id="rId6"/>
     <sheet name="Foret_est_cs" sheetId="6" r:id="rId7"/>
     <sheet name="Foret_est_eddypro" sheetId="13" r:id="rId8"/>
-    <sheet name="Foret_sol" sheetId="3" r:id="rId9"/>
-    <sheet name="Riviere" sheetId="9" r:id="rId10"/>
+    <sheet name="Foret_sol_cs" sheetId="3" r:id="rId9"/>
+    <sheet name="Riviere_cs" sheetId="9" r:id="rId10"/>
     <sheet name="Thermistors" sheetId="8" r:id="rId11"/>
     <sheet name="Notations and abbreviations" sheetId="4" r:id="rId12"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5680" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5672" uniqueCount="1160">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3492,6 +3492,24 @@
   </si>
   <si>
     <t>sig_error_li_Tot</t>
+  </si>
+  <si>
+    <t>HMP45C: 25 m</t>
+  </si>
+  <si>
+    <t>TB4: 25 m</t>
+  </si>
+  <si>
+    <t>LI-7500: 25 m</t>
+  </si>
+  <si>
+    <t>CSAT3: 25 m</t>
+  </si>
+  <si>
+    <t>05103: 25 m</t>
+  </si>
+  <si>
+    <t>CNR1: 25 m</t>
   </si>
 </sst>
 </file>
@@ -3938,7 +3956,7 @@
   <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7423,7 +7441,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10761,8 +10779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFA317"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46609,7 +46627,7 @@
   <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48654,10 +48672,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48698,12 +48716,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>656</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>660</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -48974,111 +48992,123 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
-        <v>656</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
-        <v>660</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="21" t="s">
-        <v>661</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="21" t="s">
-        <v>662</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
-        <v>663</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="21" t="s">
-        <v>664</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="21" t="s">
-        <v>951</v>
-      </c>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>397</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F38" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>397</v>
+        <v>931</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>189</v>
+        <v>1143</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>515</v>
       </c>
       <c r="D39" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F39" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>931</v>
+        <v>1122</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1143</v>
+        <v>1123</v>
       </c>
       <c r="C40" t="s">
-        <v>515</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F40" t="s">
-        <v>214</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C41" t="s">
         <v>217</v>
@@ -49087,141 +49117,144 @@
         <v>19</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>1124</v>
+        <v>1120</v>
+      </c>
+      <c r="F41" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1121</v>
+        <v>453</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1119</v>
+        <v>354</v>
       </c>
       <c r="C42" t="s">
-        <v>217</v>
+        <v>457</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>1120</v>
+        <v>460</v>
       </c>
       <c r="F42" t="s">
-        <v>223</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>453</v>
+      <c r="A43" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C43" t="s">
-        <v>457</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="F43" t="s">
-        <v>462</v>
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>939</v>
+      <c r="A44" t="s">
+        <v>929</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>1099</v>
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>509</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F44" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>929</v>
+        <v>454</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>115</v>
+        <v>351</v>
       </c>
       <c r="C45" t="s">
-        <v>509</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s">
         <v>142</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>454</v>
+      <c r="A46" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C46" t="s">
-        <v>208</v>
+        <v>1142</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="D46" t="s">
         <v>142</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="F46" t="s">
-        <v>461</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>407</v>
+      <c r="A47" t="s">
+        <v>455</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>541</v>
+        <v>352</v>
+      </c>
+      <c r="C47" t="s">
+        <v>458</v>
       </c>
       <c r="D47" t="s">
         <v>142</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C48" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D48" t="s">
         <v>142</v>
@@ -49235,73 +49268,73 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C49" t="s">
-        <v>459</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>460</v>
+        <v>125</v>
       </c>
       <c r="F49" t="s">
-        <v>461</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>356</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>394</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="F50" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>394</v>
+        <v>1140</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F51" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D52" t="s">
         <v>200</v>
@@ -49315,33 +49348,33 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1128</v>
+        <v>1147</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D54" t="s">
         <v>263</v>
@@ -49355,13 +49388,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D55" t="s">
         <v>263</v>
@@ -49375,13 +49408,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D56" t="s">
         <v>263</v>
@@ -49394,17 +49427,17 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>434</v>
+      <c r="A57" s="30" t="s">
+        <v>948</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>432</v>
+        <v>1150</v>
+      </c>
+      <c r="C57" t="s">
+        <v>496</v>
       </c>
       <c r="D57" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>423</v>
@@ -49414,55 +49447,55 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
-        <v>948</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C58" t="s">
-        <v>496</v>
-      </c>
-      <c r="D58" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" s="18" t="s">
+      <c r="A58" s="25" t="s">
+        <v>944</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="26" t="s">
         <v>214</v>
       </c>
+      <c r="G58" s="25"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
-        <v>944</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="27" t="s">
+      <c r="A59" t="s">
+        <v>445</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="F59" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="G59" s="25"/>
+      <c r="F59" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>445</v>
+      <c r="A60" s="15" t="s">
+        <v>444</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D60" t="s">
         <v>79</v>
@@ -49471,79 +49504,79 @@
         <v>423</v>
       </c>
       <c r="F60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="18" t="s">
+      <c r="A61" s="28" t="s">
+        <v>945</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>947</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="28" t="s">
         <v>214</v>
       </c>
+      <c r="G61" s="28"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
-        <v>945</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>947</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="G62" s="28"/>
+      <c r="A62" t="s">
+        <v>930</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C62" t="s">
+        <v>512</v>
+      </c>
+      <c r="D62" t="s">
+        <v>364</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="F62" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C63" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D63" t="s">
-        <v>364</v>
+        <v>39</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>510</v>
+        <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C64" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D64" t="s">
         <v>39</v>
@@ -49556,14 +49589,14 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>933</v>
+      <c r="A65" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C65" t="s">
-        <v>517</v>
+        <v>357</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="D65" t="s">
         <v>39</v>
@@ -49572,18 +49605,18 @@
         <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>409</v>
+      <c r="A66" t="s">
+        <v>934</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>520</v>
+        <v>358</v>
+      </c>
+      <c r="C66" t="s">
+        <v>521</v>
       </c>
       <c r="D66" t="s">
         <v>39</v>
@@ -49597,30 +49630,30 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C67" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>125</v>
+        <v>534</v>
+      </c>
+      <c r="E67" s="18">
+        <v>5103</v>
       </c>
       <c r="F67" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>366</v>
+        <v>244</v>
       </c>
       <c r="C68" t="s">
         <v>550</v>
@@ -49628,39 +49661,39 @@
       <c r="D68" t="s">
         <v>534</v>
       </c>
-      <c r="E68" s="18">
-        <v>5103</v>
+      <c r="E68" s="18" t="s">
+        <v>423</v>
       </c>
       <c r="F68" t="s">
-        <v>537</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>953</v>
+      <c r="A69" s="3" t="s">
+        <v>937</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" t="s">
-        <v>550</v>
+        <v>367</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="D69" t="s">
         <v>534</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>423</v>
+        <v>551</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>537</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>367</v>
+        <v>245</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>536</v>
@@ -49669,61 +49702,61 @@
         <v>534</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>551</v>
+        <v>423</v>
       </c>
       <c r="F70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>950</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C71" t="s">
+        <v>552</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="18">
+        <v>5103</v>
+      </c>
+      <c r="F71" t="s">
         <v>537</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D71" t="s">
-        <v>534</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F71" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="18">
-        <v>5103</v>
+      <c r="E72" s="18" t="s">
+        <v>423</v>
       </c>
       <c r="F72" t="s">
-        <v>537</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -49737,13 +49770,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C74" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -49757,22 +49790,22 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>943</v>
+        <v>226</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>549</v>
+        <v>395</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>396</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F75" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -49780,19 +49813,19 @@
         <v>226</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" t="s">
-        <v>395</v>
+        <v>1129</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="D76" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F76" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -49800,10 +49833,10 @@
         <v>226</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D77" t="s">
         <v>263</v>
@@ -49820,10 +49853,10 @@
         <v>226</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D78" t="s">
         <v>263</v>
@@ -49840,19 +49873,19 @@
         <v>226</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1131</v>
+        <v>334</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D79" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -49860,7 +49893,7 @@
         <v>226</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>334</v>
+        <v>1151</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>429</v>
@@ -49869,10 +49902,10 @@
         <v>203</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="F80" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -49880,10 +49913,10 @@
         <v>226</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1151</v>
+        <v>252</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D81" t="s">
         <v>203</v>
@@ -49892,7 +49925,7 @@
         <v>423</v>
       </c>
       <c r="F81" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -49900,19 +49933,19 @@
         <v>226</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>252</v>
+        <v>1132</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D82" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="E82" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F82" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -49920,10 +49953,10 @@
         <v>226</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D83" t="s">
         <v>272</v>
@@ -49940,10 +49973,10 @@
         <v>226</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D84" t="s">
         <v>272</v>
@@ -49956,34 +49989,35 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D85" t="s">
-        <v>272</v>
-      </c>
-      <c r="E85" s="18" t="s">
+      <c r="A85" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="26" t="s">
         <v>214</v>
       </c>
+      <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B86" s="25" t="s">
-        <v>1148</v>
+      <c r="B86" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="D86" s="26" t="s">
         <v>39</v>
@@ -49992,40 +50026,40 @@
         <v>423</v>
       </c>
       <c r="F86" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="G86" s="25"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="F87" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="G86" s="26"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="G87" s="25"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
         <v>226</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>443</v>
+        <v>946</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>39</v>
@@ -50039,35 +50073,34 @@
       <c r="G88" s="28"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>946</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E89" s="29" t="s">
+      <c r="A89" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C89" t="s">
+        <v>506</v>
+      </c>
+      <c r="D89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="F89" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="G89" s="28"/>
+      <c r="F89" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>226</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1152</v>
+        <v>255</v>
       </c>
       <c r="C90" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D90" t="s">
         <v>51</v>
@@ -50076,7 +50109,7 @@
         <v>423</v>
       </c>
       <c r="F90" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -50084,19 +50117,19 @@
         <v>226</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>255</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D91" t="s">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F91" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -50104,10 +50137,10 @@
         <v>226</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D92" t="s">
         <v>372</v>
@@ -50124,13 +50157,13 @@
         <v>226</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>513</v>
+        <v>204</v>
       </c>
       <c r="D93" t="s">
-        <v>372</v>
+        <v>203</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>375</v>
@@ -50144,19 +50177,19 @@
         <v>226</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>190</v>
+        <v>361</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>518</v>
       </c>
       <c r="D94" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="F94" t="s">
-        <v>376</v>
+        <v>522</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -50164,10 +50197,10 @@
         <v>226</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C95" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D95" t="s">
         <v>39</v>
@@ -50184,19 +50217,19 @@
         <v>226</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>362</v>
+        <v>1153</v>
       </c>
       <c r="C96" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>125</v>
+        <v>1120</v>
       </c>
       <c r="F96" t="s">
-        <v>522</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -50204,19 +50237,19 @@
         <v>226</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1153</v>
+        <v>124</v>
       </c>
       <c r="C97" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D97" t="s">
         <v>51</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>1120</v>
+        <v>375</v>
       </c>
       <c r="F97" t="s">
-        <v>449</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -50224,19 +50257,22 @@
         <v>226</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" t="s">
-        <v>527</v>
-      </c>
-      <c r="D98" t="s">
-        <v>51</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="F98" t="s">
-        <v>376</v>
+        <v>257</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -50244,10 +50280,10 @@
         <v>226</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>203</v>
@@ -50267,22 +50303,19 @@
         <v>226</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>647</v>
+        <v>86</v>
+      </c>
+      <c r="C100" t="s">
+        <v>652</v>
+      </c>
+      <c r="D100" t="s">
+        <v>534</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F100" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -50290,19 +50323,19 @@
         <v>226</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s">
-        <v>652</v>
+        <v>532</v>
       </c>
       <c r="D101" t="s">
-        <v>534</v>
+        <v>253</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F101" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -50310,13 +50343,13 @@
         <v>226</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D102" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>423</v>
@@ -50330,10 +50363,10 @@
         <v>226</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D103" t="s">
         <v>203</v>
@@ -50350,19 +50383,19 @@
         <v>226</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C104" t="s">
-        <v>535</v>
+        <v>378</v>
       </c>
       <c r="D104" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F104" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -50370,19 +50403,19 @@
         <v>226</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>228</v>
+        <v>1136</v>
       </c>
       <c r="C105" t="s">
-        <v>378</v>
+        <v>542</v>
       </c>
       <c r="D105" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="E105" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F105" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -50390,13 +50423,13 @@
         <v>226</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C106" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D106" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="E106" s="18" t="s">
         <v>423</v>
@@ -50410,10 +50443,10 @@
         <v>226</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C107" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D107" t="s">
         <v>385</v>
@@ -50430,10 +50463,10 @@
         <v>226</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C108" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D108" t="s">
         <v>385</v>
@@ -50450,13 +50483,13 @@
         <v>226</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1139</v>
+        <v>250</v>
       </c>
       <c r="C109" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D109" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E109" s="18" t="s">
         <v>423</v>
@@ -50470,10 +50503,10 @@
         <v>226</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C110" t="s">
-        <v>546</v>
+        <v>381</v>
       </c>
       <c r="D110" t="s">
         <v>142</v>
@@ -50482,7 +50515,7 @@
         <v>423</v>
       </c>
       <c r="F110" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -50490,13 +50523,13 @@
         <v>226</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C111" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D111" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>423</v>
@@ -50510,10 +50543,10 @@
         <v>226</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C112" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D112" t="s">
         <v>385</v>
@@ -50530,10 +50563,10 @@
         <v>226</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C113" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D113" t="s">
         <v>385</v>
@@ -50550,13 +50583,13 @@
         <v>226</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D114" t="s">
-        <v>385</v>
+        <v>5</v>
       </c>
       <c r="E114" s="18" t="s">
         <v>423</v>
@@ -50570,10 +50603,10 @@
         <v>226</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C115" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
@@ -50582,7 +50615,7 @@
         <v>423</v>
       </c>
       <c r="F115" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -50590,13 +50623,13 @@
         <v>226</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C116" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>423</v>
@@ -50610,10 +50643,10 @@
         <v>226</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C117" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D117" t="s">
         <v>237</v>
@@ -50630,13 +50663,13 @@
         <v>226</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C118" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D118" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="E118" s="18" t="s">
         <v>423</v>
@@ -50650,13 +50683,13 @@
         <v>226</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="E119" s="18" t="s">
         <v>423</v>
@@ -50670,13 +50703,13 @@
         <v>226</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D120" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="E120" s="18" t="s">
         <v>423</v>
@@ -50690,13 +50723,13 @@
         <v>226</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C121" t="s">
-        <v>388</v>
+        <v>952</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>534</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>423</v>
@@ -50704,69 +50737,49 @@
       <c r="F121" t="s">
         <v>188</v>
       </c>
+      <c r="G121" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C122" t="s">
-        <v>952</v>
-      </c>
-      <c r="D122" t="s">
-        <v>534</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F122" t="s">
-        <v>188</v>
-      </c>
-      <c r="G122" t="s">
-        <v>553</v>
+        <v>242</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="20"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" s="20"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="2" t="s">
-        <v>1099</v>
+      <c r="B123" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
-        <v>243</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B126" s="2" t="s">
-        <v>1117</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B128" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -50777,10 +50790,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50817,802 +50830,811 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>657</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
-        <v>659</v>
+      <c r="B6" s="21" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
       <c r="D10" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="F10" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>723</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>723</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>887</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="F11" t="s">
-        <v>376</v>
-      </c>
-      <c r="G11"/>
+        <v>724</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B12" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C12" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D12" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B13" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C13" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D13" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>727</v>
+        <v>987</v>
       </c>
       <c r="B14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C14" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D14" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>987</v>
+      <c r="A15" s="31" t="s">
+        <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="C15" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="D15" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C16" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>1013</v>
+      <c r="A17" t="s">
+        <v>986</v>
       </c>
       <c r="B17" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C17" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="D17" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>986</v>
+      <c r="A18" s="31" t="s">
+        <v>1015</v>
       </c>
       <c r="B18" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="C18" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="D18" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>1015</v>
+      <c r="A19" t="s">
+        <v>999</v>
       </c>
       <c r="B19" t="s">
-        <v>737</v>
-      </c>
-      <c r="C19" t="s">
-        <v>897</v>
+        <v>790</v>
       </c>
       <c r="D19" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>999</v>
+      <c r="A20" s="31" t="s">
+        <v>1012</v>
       </c>
       <c r="B20" t="s">
-        <v>790</v>
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>896</v>
       </c>
       <c r="D20" t="s">
+        <v>722</v>
+      </c>
+      <c r="E20" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>755</v>
+      </c>
+      <c r="B21" t="s">
+        <v>755</v>
+      </c>
+      <c r="C21" t="s">
+        <v>910</v>
+      </c>
+      <c r="D21" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>896</v>
-      </c>
-      <c r="D21" t="s">
-        <v>722</v>
-      </c>
       <c r="E21" t="s">
-        <v>955</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>755</v>
+        <v>962</v>
       </c>
       <c r="B22" t="s">
-        <v>755</v>
+        <v>1068</v>
       </c>
       <c r="C22" t="s">
-        <v>910</v>
+        <v>848</v>
       </c>
       <c r="D22" t="s">
-        <v>689</v>
-      </c>
-      <c r="E22" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B23" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C23" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D23" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>961</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C24" t="s">
-        <v>851</v>
-      </c>
-      <c r="D24" t="s">
-        <v>689</v>
-      </c>
+      <c r="E24" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="A25" t="s">
+        <v>974</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C25" t="s">
+        <v>874</v>
+      </c>
+      <c r="D25" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B26" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C26" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D26" t="s">
-        <v>856</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B27" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C27" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D27" t="s">
-        <v>708</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B28" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C28" t="s">
-        <v>873</v>
+        <v>1074</v>
       </c>
       <c r="D28" t="s">
-        <v>855</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+        <v>689</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B29" t="s">
-        <v>1074</v>
+        <v>1075</v>
+      </c>
+      <c r="C29" t="s">
+        <v>865</v>
       </c>
       <c r="D29" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>970</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>1075</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D30" t="s">
-        <v>854</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>102</v>
+      <c r="A31" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>858</v>
+        <v>892</v>
       </c>
       <c r="D31" t="s">
-        <v>687</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>71</v>
+        <v>732</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>732</v>
       </c>
       <c r="C32" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D32" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
-        <v>732</v>
+      <c r="A33" t="s">
+        <v>1000</v>
       </c>
       <c r="B33" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="C33" t="s">
-        <v>893</v>
+        <v>379</v>
       </c>
       <c r="D33" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>750</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>379</v>
+        <v>842</v>
       </c>
       <c r="D34" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>957</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>696</v>
       </c>
       <c r="C35" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D35" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>957</v>
-      </c>
-      <c r="B36" t="s">
-        <v>696</v>
-      </c>
-      <c r="C36" t="s">
-        <v>843</v>
-      </c>
-      <c r="D36" t="s">
-        <v>689</v>
-      </c>
-    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="A37" t="s">
+        <v>704</v>
+      </c>
+      <c r="B37" t="s">
+        <v>704</v>
+      </c>
+      <c r="C37" t="s">
+        <v>863</v>
+      </c>
+      <c r="D37" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>704</v>
+        <v>988</v>
       </c>
       <c r="B38" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="C38" t="s">
-        <v>863</v>
+        <v>890</v>
       </c>
       <c r="D38" t="s">
-        <v>695</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="B39" t="s">
-        <v>729</v>
+        <v>1083</v>
       </c>
       <c r="C39" t="s">
-        <v>890</v>
+        <v>849</v>
       </c>
       <c r="D39" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B40" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C40" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>964</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C41" t="s">
-        <v>852</v>
-      </c>
-      <c r="D41" t="s">
-        <v>689</v>
-      </c>
-    </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>700</v>
+      <c r="A42" t="s">
+        <v>978</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C42" t="s">
+        <v>878</v>
+      </c>
+      <c r="D42" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B43" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C43" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D43" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B44" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C44" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D44" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B45" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C45" t="s">
-        <v>877</v>
+        <v>1089</v>
       </c>
       <c r="D45" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="B46" t="s">
-        <v>1089</v>
+        <v>1090</v>
+      </c>
+      <c r="C46" t="s">
+        <v>866</v>
       </c>
       <c r="D46" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>969</v>
+        <v>989</v>
       </c>
       <c r="B47" t="s">
-        <v>1090</v>
+        <v>731</v>
       </c>
       <c r="C47" t="s">
-        <v>866</v>
+        <v>891</v>
       </c>
       <c r="D47" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>989</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>731</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>891</v>
+        <v>844</v>
       </c>
       <c r="D48" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>959</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>698</v>
       </c>
       <c r="C49" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D49" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>959</v>
-      </c>
-      <c r="B50" t="s">
-        <v>698</v>
-      </c>
-      <c r="C50" t="s">
-        <v>845</v>
-      </c>
-      <c r="D50" t="s">
-        <v>689</v>
-      </c>
-    </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="A51" t="s">
+        <v>705</v>
+      </c>
+      <c r="B51" t="s">
+        <v>705</v>
+      </c>
+      <c r="C51" t="s">
+        <v>864</v>
+      </c>
+      <c r="D51" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>705</v>
+        <v>1002</v>
       </c>
       <c r="B52" t="s">
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="C52" t="s">
-        <v>864</v>
+        <v>1003</v>
       </c>
       <c r="D52" t="s">
-        <v>695</v>
+        <v>753</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B53" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C53" t="s">
-        <v>1003</v>
+        <v>909</v>
       </c>
       <c r="D53" t="s">
-        <v>753</v>
+        <v>689</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B54" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C54" t="s">
-        <v>909</v>
+        <v>574</v>
       </c>
       <c r="D54" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1005</v>
+        <v>691</v>
       </c>
       <c r="B55" t="s">
-        <v>756</v>
+        <v>691</v>
       </c>
       <c r="C55" t="s">
-        <v>574</v>
+        <v>839</v>
       </c>
       <c r="D55" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>691</v>
+        <v>954</v>
       </c>
       <c r="B56" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C56" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D56" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B57" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C57" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D57" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>956</v>
+        <v>1001</v>
       </c>
       <c r="B58" t="s">
-        <v>694</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>841</v>
+        <v>908</v>
       </c>
       <c r="D58" t="s">
-        <v>692</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1001</v>
+        <v>690</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>690</v>
       </c>
       <c r="C59" t="s">
-        <v>908</v>
+        <v>838</v>
       </c>
       <c r="D59" t="s">
-        <v>751</v>
+        <v>689</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>690</v>
+      <c r="A60" s="31" t="s">
+        <v>1007</v>
       </c>
       <c r="B60" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="C60" t="s">
-        <v>838</v>
+        <v>911</v>
       </c>
       <c r="D60" t="s">
-        <v>689</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B61" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C61" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D61" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B62" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C62" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D62" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="31" t="s">
-        <v>1006</v>
+      <c r="A63" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="B63" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C63" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D63" t="s">
         <v>739</v>
@@ -51620,128 +51642,125 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B64" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C64" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D64" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>990</v>
+      <c r="A65" t="s">
+        <v>996</v>
       </c>
       <c r="B65" t="s">
-        <v>738</v>
+        <v>787</v>
       </c>
       <c r="C65" t="s">
-        <v>898</v>
+        <v>1010</v>
       </c>
       <c r="D65" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B66" t="s">
+        <v>743</v>
+      </c>
+      <c r="C66" t="s">
+        <v>902</v>
+      </c>
+      <c r="D66" t="s">
         <v>739</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>996</v>
-      </c>
-      <c r="B66" t="s">
-        <v>787</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D66" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B67" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C67" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D67" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>991</v>
+      <c r="A68" t="s">
+        <v>997</v>
       </c>
       <c r="B68" t="s">
-        <v>740</v>
+        <v>788</v>
       </c>
       <c r="C68" t="s">
-        <v>899</v>
+        <v>1009</v>
       </c>
       <c r="D68" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B69" t="s">
+        <v>744</v>
+      </c>
+      <c r="C69" t="s">
+        <v>903</v>
+      </c>
+      <c r="D69" t="s">
         <v>739</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>997</v>
-      </c>
-      <c r="B69" t="s">
-        <v>788</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D69" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B70" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C70" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D70" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>992</v>
+      <c r="A71" t="s">
+        <v>998</v>
       </c>
       <c r="B71" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="C71" t="s">
-        <v>900</v>
+        <v>1011</v>
       </c>
       <c r="D71" t="s">
-        <v>739</v>
+        <v>689</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>998</v>
+        <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>789</v>
+        <v>683</v>
       </c>
       <c r="C72" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D72" t="s">
-        <v>689</v>
+        <v>836</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -51749,10 +51768,13 @@
         <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C73" t="s">
-        <v>836</v>
+        <v>857</v>
+      </c>
+      <c r="D73" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -51760,13 +51782,13 @@
         <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C74" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="D74" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -51774,13 +51796,13 @@
         <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="C75" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="D75" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -51788,13 +51810,13 @@
         <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C76" t="s">
         <v>862</v>
       </c>
       <c r="D76" t="s">
-        <v>854</v>
+        <v>689</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -51802,13 +51824,13 @@
         <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C77" t="s">
         <v>862</v>
       </c>
       <c r="D77" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -51816,7 +51838,7 @@
         <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C78" t="s">
         <v>862</v>
@@ -51830,10 +51852,10 @@
         <v>226</v>
       </c>
       <c r="B79" t="s">
-        <v>706</v>
+        <v>1076</v>
       </c>
       <c r="C79" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D79" t="s">
         <v>854</v>
@@ -51844,13 +51866,13 @@
         <v>226</v>
       </c>
       <c r="B80" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="C80" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D80" t="s">
-        <v>854</v>
+        <v>700</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -51858,13 +51880,13 @@
         <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>1091</v>
+        <v>707</v>
       </c>
       <c r="C81" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="D81" t="s">
-        <v>700</v>
+        <v>854</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -51872,13 +51894,13 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>707</v>
+        <v>1077</v>
       </c>
       <c r="C82" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="D82" t="s">
-        <v>854</v>
+        <v>709</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -51886,13 +51908,13 @@
         <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C83" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D83" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -51900,13 +51922,13 @@
         <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>1078</v>
+        <v>1092</v>
       </c>
       <c r="C84" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="D84" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -51914,13 +51936,13 @@
         <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C85" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="D85" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -51928,13 +51950,13 @@
         <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>1093</v>
+        <v>713</v>
       </c>
       <c r="C86" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D86" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -51942,13 +51964,13 @@
         <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C87" t="s">
         <v>862</v>
       </c>
       <c r="D87" t="s">
-        <v>708</v>
+        <v>855</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -51956,13 +51978,13 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C88" t="s">
         <v>862</v>
       </c>
       <c r="D88" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -51970,13 +51992,13 @@
         <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C89" t="s">
         <v>862</v>
       </c>
       <c r="D89" t="s">
-        <v>856</v>
+        <v>709</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -51984,13 +52006,13 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C90" t="s">
         <v>862</v>
       </c>
       <c r="D90" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -51998,13 +52020,13 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C91" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="D91" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -52012,13 +52034,13 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>718</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D92" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -52026,10 +52048,10 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D93" t="s">
         <v>749</v>
@@ -52040,10 +52062,10 @@
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="D94" t="s">
         <v>749</v>
@@ -52054,13 +52076,13 @@
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>757</v>
       </c>
       <c r="C95" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D95" t="s">
-        <v>749</v>
+        <v>689</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -52068,13 +52090,13 @@
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C96" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D96" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -52082,10 +52104,10 @@
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C97" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D97" t="s">
         <v>753</v>
@@ -52096,10 +52118,10 @@
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C98" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D98" t="s">
         <v>753</v>
@@ -52110,10 +52132,10 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C99" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D99" t="s">
         <v>753</v>
@@ -52124,10 +52146,10 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C100" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D100" t="s">
         <v>753</v>
@@ -52138,10 +52160,10 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C101" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D101" t="s">
         <v>753</v>
@@ -52152,10 +52174,10 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C102" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D102" t="s">
         <v>753</v>
@@ -52166,13 +52188,13 @@
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C103" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D103" t="s">
-        <v>753</v>
+        <v>692</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -52180,13 +52202,13 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C104" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D104" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -52194,13 +52216,13 @@
         <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C105" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D105" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -52208,13 +52230,13 @@
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C106" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D106" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -52222,13 +52244,13 @@
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C107" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D107" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -52236,13 +52258,13 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C108" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D108" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -52250,13 +52272,13 @@
         <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>770</v>
+        <v>1079</v>
       </c>
       <c r="C109" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D109" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -52264,13 +52286,13 @@
         <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C110" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D110" t="s">
-        <v>854</v>
+        <v>689</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -52278,13 +52300,13 @@
         <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="C111" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D111" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -52292,13 +52314,13 @@
         <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C112" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D112" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -52306,13 +52328,13 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>1095</v>
+        <v>771</v>
       </c>
       <c r="C113" t="s">
-        <v>928</v>
+        <v>862</v>
       </c>
       <c r="D113" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -52320,13 +52342,13 @@
         <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C114" t="s">
         <v>862</v>
       </c>
       <c r="D114" t="s">
-        <v>854</v>
+        <v>689</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -52334,13 +52356,11 @@
         <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>772</v>
-      </c>
-      <c r="C115" t="s">
-        <v>862</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="C115" s="3"/>
       <c r="D115" t="s">
-        <v>689</v>
+        <v>983</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -52348,7 +52368,7 @@
         <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" t="s">
@@ -52360,7 +52380,7 @@
         <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" t="s">
@@ -52372,7 +52392,7 @@
         <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" t="s">
@@ -52384,7 +52404,7 @@
         <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" t="s">
@@ -52396,7 +52416,7 @@
         <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" t="s">
@@ -52408,7 +52428,7 @@
         <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" t="s">
@@ -52420,7 +52440,7 @@
         <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" t="s">
@@ -52432,11 +52452,11 @@
         <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -52444,7 +52464,7 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" t="s">
@@ -52456,11 +52476,11 @@
         <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" t="s">
-        <v>984</v>
+        <v>784</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -52468,11 +52488,11 @@
         <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -52480,11 +52500,11 @@
         <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" t="s">
-        <v>786</v>
+        <v>689</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -52492,11 +52512,10 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>791</v>
-      </c>
-      <c r="C128" s="3"/>
+        <v>792</v>
+      </c>
       <c r="D128" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -52504,7 +52523,7 @@
         <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D129" t="s">
         <v>793</v>
@@ -52515,7 +52534,7 @@
         <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D130" t="s">
         <v>793</v>
@@ -52526,7 +52545,7 @@
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D131" t="s">
         <v>793</v>
@@ -52537,7 +52556,7 @@
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D132" t="s">
         <v>793</v>
@@ -52548,7 +52567,7 @@
         <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D133" t="s">
         <v>793</v>
@@ -52559,7 +52578,7 @@
         <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D134" t="s">
         <v>793</v>
@@ -52570,7 +52589,7 @@
         <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D135" t="s">
         <v>793</v>
@@ -52581,7 +52600,7 @@
         <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D136" t="s">
         <v>793</v>
@@ -52592,7 +52611,7 @@
         <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D137" t="s">
         <v>793</v>
@@ -52603,7 +52622,7 @@
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D138" t="s">
         <v>793</v>
@@ -52614,7 +52633,7 @@
         <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D139" t="s">
         <v>793</v>
@@ -52625,7 +52644,7 @@
         <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D140" t="s">
         <v>793</v>
@@ -52636,10 +52655,10 @@
         <v>226</v>
       </c>
       <c r="B141" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="D141" t="s">
-        <v>793</v>
+        <v>689</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -52647,7 +52666,7 @@
         <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D142" t="s">
         <v>689</v>
@@ -52658,10 +52677,10 @@
         <v>226</v>
       </c>
       <c r="B143" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D143" t="s">
-        <v>689</v>
+        <v>751</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -52669,7 +52688,7 @@
         <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D144" t="s">
         <v>751</v>
@@ -52680,7 +52699,7 @@
         <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D145" t="s">
         <v>751</v>
@@ -52691,10 +52710,10 @@
         <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D146" t="s">
-        <v>751</v>
+        <v>828</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -52702,10 +52721,10 @@
         <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>827</v>
+        <v>1081</v>
       </c>
       <c r="D147" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -52713,7 +52732,7 @@
         <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>1081</v>
+        <v>1096</v>
       </c>
       <c r="D148" t="s">
         <v>829</v>
@@ -52724,7 +52743,7 @@
         <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>1096</v>
+        <v>1066</v>
       </c>
       <c r="D149" t="s">
         <v>829</v>
@@ -52735,7 +52754,7 @@
         <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>1066</v>
+        <v>830</v>
       </c>
       <c r="D150" t="s">
         <v>829</v>
@@ -52746,10 +52765,10 @@
         <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D151" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -52757,10 +52776,10 @@
         <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>831</v>
+        <v>1082</v>
       </c>
       <c r="D152" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -52768,7 +52787,7 @@
         <v>226</v>
       </c>
       <c r="B153" t="s">
-        <v>1082</v>
+        <v>1097</v>
       </c>
       <c r="D153" t="s">
         <v>829</v>
@@ -52779,7 +52798,7 @@
         <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>1097</v>
+        <v>833</v>
       </c>
       <c r="D154" t="s">
         <v>829</v>
@@ -52790,7 +52809,7 @@
         <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D155" t="s">
         <v>829</v>
@@ -52801,20 +52820,9 @@
         <v>226</v>
       </c>
       <c r="B156" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D156" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>226</v>
-      </c>
-      <c r="B157" t="s">
-        <v>835</v>
-      </c>
-      <c r="D157" t="s">
         <v>829</v>
       </c>
     </row>
@@ -52825,10 +52833,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52869,12 +52877,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="21" t="s">
-        <v>656</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>660</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -53145,417 +53153,493 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
-        <v>656</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="21" t="s">
-        <v>660</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
-        <v>661</v>
-      </c>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
-        <v>663</v>
+      <c r="A32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
-        <v>664</v>
+      <c r="A34" t="s">
+        <v>397</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F34" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="21" t="s">
-        <v>951</v>
+      <c r="A35" t="s">
+        <v>931</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>515</v>
+      </c>
+      <c r="D35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="F35" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>172</v>
+      <c r="A37" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C38" t="s">
+        <v>457</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="F38" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>397</v>
+      <c r="A39" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="F39" t="s">
-        <v>376</v>
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1143</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D40" t="s">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F40" t="s">
-        <v>214</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1122</v>
+        <v>454</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1123</v>
+        <v>351</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>1124</v>
+        <v>460</v>
+      </c>
+      <c r="F41" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1121</v>
+      <c r="A42" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C42" t="s">
-        <v>217</v>
+        <v>1142</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>1120</v>
+        <v>423</v>
       </c>
       <c r="F42" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C43" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>460</v>
       </c>
       <c r="F43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>939</v>
+      <c r="A44" t="s">
+        <v>456</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>1099</v>
+        <v>353</v>
+      </c>
+      <c r="C44" t="s">
+        <v>459</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="F44" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>929</v>
+        <v>403</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>115</v>
+        <v>356</v>
       </c>
       <c r="C45" t="s">
-        <v>509</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>351</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>394</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>460</v>
+        <v>375</v>
       </c>
       <c r="F46" t="s">
-        <v>461</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>407</v>
+      <c r="A47" t="s">
+        <v>410</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>455</v>
+        <v>412</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C48" t="s">
-        <v>458</v>
+        <v>1128</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="F48" t="s">
-        <v>461</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>456</v>
+        <v>413</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C49" t="s">
-        <v>459</v>
+        <v>1147</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="F49" t="s">
-        <v>461</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
+        <v>1144</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F50" t="s">
-        <v>392</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>394</v>
+        <v>1146</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F51" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>412</v>
+      <c r="A53" s="30" t="s">
+        <v>948</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>417</v>
+        <v>1150</v>
+      </c>
+      <c r="C53" t="s">
+        <v>496</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>413</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D54" t="s">
-        <v>263</v>
-      </c>
-      <c r="E54" s="18" t="s">
+      <c r="A54" s="25" t="s">
+        <v>944</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="26" t="s">
         <v>214</v>
       </c>
+      <c r="G54" s="25"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>414</v>
+      <c r="A56" s="15" t="s">
+        <v>444</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>423</v>
@@ -53565,259 +53649,258 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>434</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="D57" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" s="18" t="s">
+      <c r="A57" s="28" t="s">
+        <v>945</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>947</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="28" t="s">
         <v>214</v>
       </c>
+      <c r="G57" s="28"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
-        <v>948</v>
+      <c r="A58" t="s">
+        <v>930</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1150</v>
+        <v>363</v>
       </c>
       <c r="C58" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>364</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>423</v>
+        <v>510</v>
       </c>
       <c r="F58" t="s">
-        <v>214</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
-        <v>944</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="D59" s="26" t="s">
+      <c r="A59" t="s">
+        <v>932</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C59" t="s">
+        <v>516</v>
+      </c>
+      <c r="D59" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="G59" s="25"/>
+      <c r="E59" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>445</v>
+        <v>933</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>437</v>
+        <v>360</v>
+      </c>
+      <c r="C60" t="s">
+        <v>517</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F60" t="s">
-        <v>215</v>
+        <v>522</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>444</v>
+      <c r="A61" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1135</v>
+        <v>357</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>214</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
-        <v>945</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>947</v>
-      </c>
-      <c r="D62" s="28" t="s">
+      <c r="A62" t="s">
+        <v>934</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C62" t="s">
+        <v>521</v>
+      </c>
+      <c r="D62" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="G62" s="28"/>
+      <c r="E62" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C63" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="D63" t="s">
-        <v>364</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>510</v>
+        <v>534</v>
+      </c>
+      <c r="E63" s="18">
+        <v>5103</v>
       </c>
       <c r="F63" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>359</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>534</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F64" t="s">
-        <v>522</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>933</v>
+      <c r="A65" s="3" t="s">
+        <v>937</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C65" t="s">
-        <v>517</v>
+        <v>367</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>534</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>125</v>
+        <v>551</v>
       </c>
       <c r="F65" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>409</v>
+        <v>938</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>357</v>
+        <v>245</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>534</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F66" t="s">
-        <v>523</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C67" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>125</v>
+        <v>5</v>
+      </c>
+      <c r="E67" s="18">
+        <v>5103</v>
       </c>
       <c r="F67" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>366</v>
+        <v>247</v>
       </c>
       <c r="C68" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D68" t="s">
-        <v>534</v>
-      </c>
-      <c r="E68" s="18">
-        <v>5103</v>
+        <v>5</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>423</v>
       </c>
       <c r="F68" t="s">
-        <v>537</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D69" t="s">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>423</v>
@@ -53827,123 +53910,123 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>937</v>
+      <c r="A70" t="s">
+        <v>943</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>536</v>
+        <v>249</v>
+      </c>
+      <c r="C70" t="s">
+        <v>549</v>
       </c>
       <c r="D70" t="s">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>551</v>
+        <v>423</v>
       </c>
       <c r="F70" t="s">
-        <v>537</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>938</v>
+      <c r="A71" t="s">
+        <v>226</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>536</v>
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>395</v>
       </c>
       <c r="D71" t="s">
-        <v>534</v>
+        <v>396</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F71" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>950</v>
+        <v>226</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C72" t="s">
-        <v>552</v>
+        <v>1129</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="18">
-        <v>5103</v>
+        <v>263</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>423</v>
       </c>
       <c r="F72" t="s">
-        <v>537</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>941</v>
+        <v>226</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C73" t="s">
-        <v>547</v>
+        <v>1130</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F73" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>942</v>
+        <v>226</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C74" t="s">
-        <v>548</v>
+        <v>1131</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F74" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>943</v>
+        <v>226</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C75" t="s">
-        <v>549</v>
+        <v>334</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -53951,19 +54034,19 @@
         <v>226</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" t="s">
-        <v>395</v>
+        <v>1151</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="D76" t="s">
-        <v>396</v>
+        <v>203</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F76" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -53971,19 +54054,19 @@
         <v>226</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1129</v>
+        <v>252</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F77" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -53991,13 +54074,13 @@
         <v>226</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="D78" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>423</v>
@@ -54011,13 +54094,13 @@
         <v>226</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="D79" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>423</v>
@@ -54031,223 +54114,223 @@
         <v>226</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>334</v>
+        <v>1134</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="F80" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>226</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D81" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="18" t="s">
+      <c r="A81" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F81" t="s">
-        <v>215</v>
-      </c>
+      <c r="F81" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>226</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D82" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="18" t="s">
+      <c r="A82" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F82" t="s">
-        <v>188</v>
-      </c>
+      <c r="F82" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="G82" s="25"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D83" t="s">
-        <v>272</v>
-      </c>
-      <c r="E83" s="18" t="s">
+      <c r="A83" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="28" t="s">
         <v>214</v>
       </c>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>226</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D84" t="s">
-        <v>272</v>
-      </c>
-      <c r="E84" s="18" t="s">
+      <c r="A84" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>946</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="28" t="s">
         <v>214</v>
       </c>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>226</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>441</v>
+        <v>1152</v>
+      </c>
+      <c r="C85" t="s">
+        <v>506</v>
       </c>
       <c r="D85" t="s">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B86" s="25" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E86" s="27" t="s">
+      <c r="A86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" t="s">
+        <v>508</v>
+      </c>
+      <c r="D86" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="F86" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="G86" s="26"/>
+      <c r="F86" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="G87" s="25"/>
+      <c r="A87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" t="s">
+        <v>514</v>
+      </c>
+      <c r="D87" t="s">
+        <v>372</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F87" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="G88" s="28"/>
+      <c r="A88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>513</v>
+      </c>
+      <c r="D88" t="s">
+        <v>372</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F88" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>946</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E89" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="G89" s="28"/>
+      <c r="A89" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F89" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>226</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1152</v>
+        <v>361</v>
       </c>
       <c r="C90" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="D90" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F90" t="s">
-        <v>215</v>
+        <v>522</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -54255,19 +54338,19 @@
         <v>226</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>255</v>
+        <v>362</v>
       </c>
       <c r="C91" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D91" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F91" t="s">
-        <v>188</v>
+        <v>522</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -54275,19 +54358,19 @@
         <v>226</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>118</v>
+        <v>1153</v>
       </c>
       <c r="C92" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="D92" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>375</v>
+        <v>1120</v>
       </c>
       <c r="F92" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -54295,13 +54378,13 @@
         <v>226</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="D93" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>375</v>
@@ -54315,19 +54398,22 @@
         <v>226</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" t="s">
-        <v>204</v>
-      </c>
-      <c r="D94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E94" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="F94" t="s">
-        <v>376</v>
+      <c r="E94" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -54335,19 +54421,22 @@
         <v>226</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C95" t="s">
-        <v>518</v>
-      </c>
-      <c r="D95" t="s">
-        <v>39</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F95" t="s">
-        <v>522</v>
+        <v>256</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -54355,139 +54444,133 @@
         <v>226</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>362</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>519</v>
+        <v>652</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>534</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="F96" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>226</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1153</v>
+        <v>259</v>
       </c>
       <c r="C97" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D97" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>1120</v>
+        <v>423</v>
       </c>
       <c r="F97" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>226</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D98" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F98" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>226</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D99" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" t="s">
+        <v>535</v>
+      </c>
+      <c r="D99" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" t="s">
         <v>188</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E100" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C100" t="s">
+        <v>378</v>
+      </c>
+      <c r="D100" t="s">
+        <v>229</v>
+      </c>
+      <c r="E100" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C101" t="s">
+        <v>542</v>
+      </c>
+      <c r="D101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="F101" t="s">
         <v>188</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>226</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C101" t="s">
-        <v>652</v>
-      </c>
-      <c r="D101" t="s">
-        <v>534</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="F101" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>226</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>259</v>
+        <v>1137</v>
       </c>
       <c r="C102" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="D102" t="s">
-        <v>253</v>
+        <v>385</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>423</v>
@@ -54496,18 +54579,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>226</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>251</v>
+        <v>1138</v>
       </c>
       <c r="C103" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="D103" t="s">
-        <v>203</v>
+        <v>385</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>423</v>
@@ -54516,18 +54599,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>226</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>258</v>
+        <v>1139</v>
       </c>
       <c r="C104" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D104" t="s">
-        <v>203</v>
+        <v>385</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>423</v>
@@ -54536,35 +54619,35 @@
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>226</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>378</v>
+        <v>546</v>
       </c>
       <c r="D105" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="E105" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F105" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>226</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1136</v>
+        <v>231</v>
       </c>
       <c r="C106" t="s">
-        <v>542</v>
+        <v>381</v>
       </c>
       <c r="D106" t="s">
         <v>142</v>
@@ -54573,18 +54656,18 @@
         <v>423</v>
       </c>
       <c r="F106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>226</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1137</v>
+        <v>232</v>
       </c>
       <c r="C107" t="s">
-        <v>543</v>
+        <v>382</v>
       </c>
       <c r="D107" t="s">
         <v>385</v>
@@ -54593,18 +54676,18 @@
         <v>423</v>
       </c>
       <c r="F107" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>226</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1138</v>
+        <v>233</v>
       </c>
       <c r="C108" t="s">
-        <v>544</v>
+        <v>383</v>
       </c>
       <c r="D108" t="s">
         <v>385</v>
@@ -54613,18 +54696,18 @@
         <v>423</v>
       </c>
       <c r="F108" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>226</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1139</v>
+        <v>234</v>
       </c>
       <c r="C109" t="s">
-        <v>545</v>
+        <v>384</v>
       </c>
       <c r="D109" t="s">
         <v>385</v>
@@ -54633,67 +54716,67 @@
         <v>423</v>
       </c>
       <c r="F109" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>226</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="C110" t="s">
-        <v>546</v>
+        <v>379</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="E110" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F110" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>226</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C111" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D111" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F111" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>226</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C112" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D112" t="s">
-        <v>385</v>
+        <v>237</v>
       </c>
       <c r="E112" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F112" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -54701,19 +54784,19 @@
         <v>226</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C113" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D113" t="s">
-        <v>385</v>
+        <v>237</v>
       </c>
       <c r="E113" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F113" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -54721,19 +54804,19 @@
         <v>226</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C114" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D114" t="s">
-        <v>385</v>
+        <v>5</v>
       </c>
       <c r="E114" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F114" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -54741,19 +54824,19 @@
         <v>226</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C115" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="E115" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F115" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -54761,10 +54844,10 @@
         <v>226</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C116" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
@@ -54781,13 +54864,13 @@
         <v>226</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>389</v>
+        <v>952</v>
       </c>
       <c r="D117" t="s">
-        <v>237</v>
+        <v>534</v>
       </c>
       <c r="E117" s="18" t="s">
         <v>423</v>
@@ -54795,149 +54878,49 @@
       <c r="F117" t="s">
         <v>188</v>
       </c>
+      <c r="G117" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C118" t="s">
-        <v>390</v>
-      </c>
-      <c r="D118" t="s">
-        <v>237</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F118" t="s">
-        <v>188</v>
+        <v>242</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="20"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>226</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C119" t="s">
-        <v>387</v>
-      </c>
-      <c r="D119" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F119" t="s">
-        <v>188</v>
+      <c r="B119" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>226</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C120" t="s">
-        <v>391</v>
-      </c>
-      <c r="D120" t="s">
-        <v>237</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F120" t="s">
-        <v>188</v>
+      <c r="B120" s="2" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>226</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C121" t="s">
-        <v>388</v>
-      </c>
-      <c r="D121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F121" t="s">
-        <v>188</v>
+      <c r="B121" s="2" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>226</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C122" t="s">
-        <v>952</v>
-      </c>
-      <c r="D122" t="s">
-        <v>534</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F122" t="s">
-        <v>188</v>
-      </c>
-      <c r="G122" t="s">
-        <v>553</v>
+      <c r="B122" s="2" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" s="20"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="2" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B124" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B125" s="2" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B126" s="2" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B127" s="2" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B128" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -54948,10 +54931,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54988,802 +54971,811 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="21" t="s">
-        <v>657</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
-        <v>659</v>
+      <c r="B6" s="21" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
       <c r="D10" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="F10" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>723</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>723</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>887</v>
       </c>
       <c r="D11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="F11" t="s">
-        <v>376</v>
-      </c>
-      <c r="G11"/>
+        <v>724</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B12" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C12" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D12" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B13" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C13" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D13" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>727</v>
+        <v>987</v>
       </c>
       <c r="B14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C14" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D14" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>987</v>
+      <c r="A15" s="31" t="s">
+        <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="C15" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="D15" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C16" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>1013</v>
+      <c r="A17" t="s">
+        <v>986</v>
       </c>
       <c r="B17" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C17" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="D17" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>986</v>
+      <c r="A18" s="31" t="s">
+        <v>1015</v>
       </c>
       <c r="B18" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="C18" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="D18" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>1015</v>
+      <c r="A19" t="s">
+        <v>999</v>
       </c>
       <c r="B19" t="s">
-        <v>737</v>
-      </c>
-      <c r="C19" t="s">
-        <v>897</v>
+        <v>790</v>
       </c>
       <c r="D19" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>999</v>
+      <c r="A20" s="31" t="s">
+        <v>1012</v>
       </c>
       <c r="B20" t="s">
-        <v>790</v>
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>896</v>
       </c>
       <c r="D20" t="s">
+        <v>722</v>
+      </c>
+      <c r="E20" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>755</v>
+      </c>
+      <c r="B21" t="s">
+        <v>755</v>
+      </c>
+      <c r="C21" t="s">
+        <v>910</v>
+      </c>
+      <c r="D21" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>896</v>
-      </c>
-      <c r="D21" t="s">
-        <v>722</v>
-      </c>
       <c r="E21" t="s">
-        <v>955</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>755</v>
+        <v>962</v>
       </c>
       <c r="B22" t="s">
-        <v>755</v>
+        <v>1068</v>
       </c>
       <c r="C22" t="s">
-        <v>910</v>
+        <v>848</v>
       </c>
       <c r="D22" t="s">
-        <v>689</v>
-      </c>
-      <c r="E22" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B23" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C23" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D23" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>961</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C24" t="s">
-        <v>851</v>
-      </c>
-      <c r="D24" t="s">
-        <v>689</v>
-      </c>
+      <c r="E24" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="A25" t="s">
+        <v>974</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C25" t="s">
+        <v>874</v>
+      </c>
+      <c r="D25" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B26" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C26" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D26" t="s">
-        <v>856</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B27" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C27" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D27" t="s">
-        <v>708</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B28" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C28" t="s">
-        <v>873</v>
+        <v>1074</v>
       </c>
       <c r="D28" t="s">
-        <v>855</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+        <v>689</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B29" t="s">
-        <v>1074</v>
+        <v>1075</v>
+      </c>
+      <c r="C29" t="s">
+        <v>865</v>
       </c>
       <c r="D29" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>970</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>1075</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D30" t="s">
-        <v>854</v>
+        <v>687</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>102</v>
+      <c r="A31" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>858</v>
+        <v>892</v>
       </c>
       <c r="D31" t="s">
-        <v>687</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>71</v>
+        <v>732</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>732</v>
       </c>
       <c r="C32" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D32" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
-        <v>732</v>
+      <c r="A33" t="s">
+        <v>1000</v>
       </c>
       <c r="B33" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="C33" t="s">
-        <v>893</v>
+        <v>379</v>
       </c>
       <c r="D33" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>750</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>379</v>
+        <v>842</v>
       </c>
       <c r="D34" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>957</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>696</v>
       </c>
       <c r="C35" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D35" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>957</v>
-      </c>
-      <c r="B36" t="s">
-        <v>696</v>
-      </c>
-      <c r="C36" t="s">
-        <v>843</v>
-      </c>
-      <c r="D36" t="s">
-        <v>689</v>
-      </c>
-    </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="A37" t="s">
+        <v>704</v>
+      </c>
+      <c r="B37" t="s">
+        <v>704</v>
+      </c>
+      <c r="C37" t="s">
+        <v>863</v>
+      </c>
+      <c r="D37" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>704</v>
+        <v>988</v>
       </c>
       <c r="B38" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="C38" t="s">
-        <v>863</v>
+        <v>890</v>
       </c>
       <c r="D38" t="s">
-        <v>695</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="B39" t="s">
-        <v>729</v>
+        <v>1083</v>
       </c>
       <c r="C39" t="s">
-        <v>890</v>
+        <v>849</v>
       </c>
       <c r="D39" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B40" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C40" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>964</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C41" t="s">
-        <v>852</v>
-      </c>
-      <c r="D41" t="s">
-        <v>689</v>
-      </c>
-    </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>700</v>
+      <c r="A42" t="s">
+        <v>978</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C42" t="s">
+        <v>878</v>
+      </c>
+      <c r="D42" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B43" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C43" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D43" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B44" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C44" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D44" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B45" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C45" t="s">
-        <v>877</v>
+        <v>1089</v>
       </c>
       <c r="D45" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="B46" t="s">
-        <v>1089</v>
+        <v>1090</v>
+      </c>
+      <c r="C46" t="s">
+        <v>866</v>
       </c>
       <c r="D46" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>969</v>
+        <v>989</v>
       </c>
       <c r="B47" t="s">
-        <v>1090</v>
+        <v>731</v>
       </c>
       <c r="C47" t="s">
-        <v>866</v>
+        <v>891</v>
       </c>
       <c r="D47" t="s">
-        <v>700</v>
+        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>989</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>731</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>891</v>
+        <v>844</v>
       </c>
       <c r="D48" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>959</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>698</v>
       </c>
       <c r="C49" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D49" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>959</v>
-      </c>
-      <c r="B50" t="s">
-        <v>698</v>
-      </c>
-      <c r="C50" t="s">
-        <v>845</v>
-      </c>
-      <c r="D50" t="s">
-        <v>689</v>
-      </c>
-    </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="A51" t="s">
+        <v>705</v>
+      </c>
+      <c r="B51" t="s">
+        <v>705</v>
+      </c>
+      <c r="C51" t="s">
+        <v>864</v>
+      </c>
+      <c r="D51" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>705</v>
+        <v>1002</v>
       </c>
       <c r="B52" t="s">
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="C52" t="s">
-        <v>864</v>
+        <v>1003</v>
       </c>
       <c r="D52" t="s">
-        <v>695</v>
+        <v>753</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B53" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C53" t="s">
-        <v>1003</v>
+        <v>909</v>
       </c>
       <c r="D53" t="s">
-        <v>753</v>
+        <v>689</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B54" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C54" t="s">
-        <v>909</v>
+        <v>574</v>
       </c>
       <c r="D54" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1005</v>
+        <v>691</v>
       </c>
       <c r="B55" t="s">
-        <v>756</v>
+        <v>691</v>
       </c>
       <c r="C55" t="s">
-        <v>574</v>
+        <v>839</v>
       </c>
       <c r="D55" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>691</v>
+        <v>954</v>
       </c>
       <c r="B56" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C56" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D56" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B57" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C57" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D57" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>956</v>
+        <v>1001</v>
       </c>
       <c r="B58" t="s">
-        <v>694</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>841</v>
+        <v>908</v>
       </c>
       <c r="D58" t="s">
-        <v>692</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1001</v>
+        <v>690</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>690</v>
       </c>
       <c r="C59" t="s">
-        <v>908</v>
+        <v>838</v>
       </c>
       <c r="D59" t="s">
-        <v>751</v>
+        <v>689</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>690</v>
+      <c r="A60" s="31" t="s">
+        <v>1007</v>
       </c>
       <c r="B60" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="C60" t="s">
-        <v>838</v>
+        <v>911</v>
       </c>
       <c r="D60" t="s">
-        <v>689</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B61" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C61" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D61" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B62" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C62" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D62" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="31" t="s">
-        <v>1006</v>
+      <c r="A63" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="B63" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C63" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D63" t="s">
         <v>739</v>
@@ -55791,128 +55783,125 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B64" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C64" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D64" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>990</v>
+      <c r="A65" t="s">
+        <v>996</v>
       </c>
       <c r="B65" t="s">
-        <v>738</v>
+        <v>787</v>
       </c>
       <c r="C65" t="s">
-        <v>898</v>
+        <v>1010</v>
       </c>
       <c r="D65" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B66" t="s">
+        <v>743</v>
+      </c>
+      <c r="C66" t="s">
+        <v>902</v>
+      </c>
+      <c r="D66" t="s">
         <v>739</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>996</v>
-      </c>
-      <c r="B66" t="s">
-        <v>787</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D66" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B67" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C67" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D67" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>991</v>
+      <c r="A68" t="s">
+        <v>997</v>
       </c>
       <c r="B68" t="s">
-        <v>740</v>
+        <v>788</v>
       </c>
       <c r="C68" t="s">
-        <v>899</v>
+        <v>1009</v>
       </c>
       <c r="D68" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B69" t="s">
+        <v>744</v>
+      </c>
+      <c r="C69" t="s">
+        <v>903</v>
+      </c>
+      <c r="D69" t="s">
         <v>739</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>997</v>
-      </c>
-      <c r="B69" t="s">
-        <v>788</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D69" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B70" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C70" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D70" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>992</v>
+      <c r="A71" t="s">
+        <v>998</v>
       </c>
       <c r="B71" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="C71" t="s">
-        <v>900</v>
+        <v>1011</v>
       </c>
       <c r="D71" t="s">
-        <v>739</v>
+        <v>689</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>998</v>
+        <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>789</v>
+        <v>683</v>
       </c>
       <c r="C72" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D72" t="s">
-        <v>689</v>
+        <v>836</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -55920,10 +55909,13 @@
         <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C73" t="s">
-        <v>836</v>
+        <v>857</v>
+      </c>
+      <c r="D73" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -55931,13 +55923,13 @@
         <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C74" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="D74" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -55945,13 +55937,13 @@
         <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="C75" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="D75" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -55959,13 +55951,13 @@
         <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C76" t="s">
         <v>862</v>
       </c>
       <c r="D76" t="s">
-        <v>854</v>
+        <v>689</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -55973,13 +55965,13 @@
         <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C77" t="s">
         <v>862</v>
       </c>
       <c r="D77" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -55987,7 +55979,7 @@
         <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C78" t="s">
         <v>862</v>
@@ -56001,10 +55993,10 @@
         <v>226</v>
       </c>
       <c r="B79" t="s">
-        <v>706</v>
+        <v>1076</v>
       </c>
       <c r="C79" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D79" t="s">
         <v>854</v>
@@ -56015,13 +56007,13 @@
         <v>226</v>
       </c>
       <c r="B80" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="C80" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D80" t="s">
-        <v>854</v>
+        <v>700</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -56029,13 +56021,13 @@
         <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>1091</v>
+        <v>707</v>
       </c>
       <c r="C81" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="D81" t="s">
-        <v>700</v>
+        <v>854</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -56043,13 +56035,13 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>707</v>
+        <v>1077</v>
       </c>
       <c r="C82" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="D82" t="s">
-        <v>854</v>
+        <v>709</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -56057,13 +56049,13 @@
         <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C83" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D83" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -56071,13 +56063,13 @@
         <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>1078</v>
+        <v>1092</v>
       </c>
       <c r="C84" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="D84" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -56085,13 +56077,13 @@
         <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C85" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="D85" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -56099,13 +56091,13 @@
         <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>1093</v>
+        <v>713</v>
       </c>
       <c r="C86" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D86" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -56113,13 +56105,13 @@
         <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C87" t="s">
         <v>862</v>
       </c>
       <c r="D87" t="s">
-        <v>708</v>
+        <v>855</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -56127,13 +56119,13 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C88" t="s">
         <v>862</v>
       </c>
       <c r="D88" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -56141,13 +56133,13 @@
         <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C89" t="s">
         <v>862</v>
       </c>
       <c r="D89" t="s">
-        <v>856</v>
+        <v>709</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -56155,13 +56147,13 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C90" t="s">
         <v>862</v>
       </c>
       <c r="D90" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -56169,13 +56161,13 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C91" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="D91" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -56183,13 +56175,13 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>718</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D92" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -56197,10 +56189,10 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D93" t="s">
         <v>749</v>
@@ -56211,10 +56203,10 @@
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="D94" t="s">
         <v>749</v>
@@ -56225,13 +56217,13 @@
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>757</v>
       </c>
       <c r="C95" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D95" t="s">
-        <v>749</v>
+        <v>689</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -56239,13 +56231,13 @@
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C96" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D96" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -56253,10 +56245,10 @@
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C97" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D97" t="s">
         <v>753</v>
@@ -56267,10 +56259,10 @@
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C98" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D98" t="s">
         <v>753</v>
@@ -56281,10 +56273,10 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C99" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D99" t="s">
         <v>753</v>
@@ -56295,10 +56287,10 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C100" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D100" t="s">
         <v>753</v>
@@ -56309,10 +56301,10 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C101" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D101" t="s">
         <v>753</v>
@@ -56323,10 +56315,10 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C102" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D102" t="s">
         <v>753</v>
@@ -56337,13 +56329,13 @@
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C103" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D103" t="s">
-        <v>753</v>
+        <v>692</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -56351,13 +56343,13 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C104" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D104" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -56365,13 +56357,13 @@
         <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C105" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D105" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -56379,13 +56371,13 @@
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C106" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D106" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -56393,13 +56385,13 @@
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C107" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D107" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -56407,13 +56399,13 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C108" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D108" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -56421,13 +56413,13 @@
         <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>770</v>
+        <v>1079</v>
       </c>
       <c r="C109" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D109" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -56435,13 +56427,13 @@
         <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C110" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D110" t="s">
-        <v>854</v>
+        <v>689</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -56449,13 +56441,13 @@
         <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="C111" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D111" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -56463,13 +56455,13 @@
         <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C112" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D112" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -56477,13 +56469,13 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>1095</v>
+        <v>771</v>
       </c>
       <c r="C113" t="s">
-        <v>928</v>
+        <v>862</v>
       </c>
       <c r="D113" t="s">
-        <v>689</v>
+        <v>854</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -56491,13 +56483,13 @@
         <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C114" t="s">
         <v>862</v>
       </c>
       <c r="D114" t="s">
-        <v>854</v>
+        <v>689</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -56505,13 +56497,11 @@
         <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>772</v>
-      </c>
-      <c r="C115" t="s">
-        <v>862</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="C115" s="3"/>
       <c r="D115" t="s">
-        <v>689</v>
+        <v>983</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -56519,7 +56509,7 @@
         <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" t="s">
@@ -56531,7 +56521,7 @@
         <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" t="s">
@@ -56543,7 +56533,7 @@
         <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" t="s">
@@ -56555,7 +56545,7 @@
         <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" t="s">
@@ -56567,7 +56557,7 @@
         <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" t="s">
@@ -56579,7 +56569,7 @@
         <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" t="s">
@@ -56591,7 +56581,7 @@
         <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" t="s">
@@ -56603,11 +56593,11 @@
         <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -56615,7 +56605,7 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" t="s">
@@ -56627,11 +56617,11 @@
         <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" t="s">
-        <v>984</v>
+        <v>784</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -56639,11 +56629,11 @@
         <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -56651,11 +56641,11 @@
         <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" t="s">
-        <v>786</v>
+        <v>689</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -56663,11 +56653,10 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>791</v>
-      </c>
-      <c r="C128" s="3"/>
+        <v>792</v>
+      </c>
       <c r="D128" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -56675,7 +56664,7 @@
         <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D129" t="s">
         <v>793</v>
@@ -56686,7 +56675,7 @@
         <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D130" t="s">
         <v>793</v>
@@ -56697,7 +56686,7 @@
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D131" t="s">
         <v>793</v>
@@ -56708,7 +56697,7 @@
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D132" t="s">
         <v>793</v>
@@ -56719,7 +56708,7 @@
         <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D133" t="s">
         <v>793</v>
@@ -56730,7 +56719,7 @@
         <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D134" t="s">
         <v>793</v>
@@ -56741,7 +56730,7 @@
         <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D135" t="s">
         <v>793</v>
@@ -56752,7 +56741,7 @@
         <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D136" t="s">
         <v>793</v>
@@ -56763,7 +56752,7 @@
         <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D137" t="s">
         <v>793</v>
@@ -56774,7 +56763,7 @@
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D138" t="s">
         <v>793</v>
@@ -56785,7 +56774,7 @@
         <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D139" t="s">
         <v>793</v>
@@ -56796,7 +56785,7 @@
         <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D140" t="s">
         <v>793</v>
@@ -56807,10 +56796,10 @@
         <v>226</v>
       </c>
       <c r="B141" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="D141" t="s">
-        <v>793</v>
+        <v>689</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -56818,7 +56807,7 @@
         <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D142" t="s">
         <v>689</v>
@@ -56829,10 +56818,10 @@
         <v>226</v>
       </c>
       <c r="B143" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D143" t="s">
-        <v>689</v>
+        <v>751</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -56840,7 +56829,7 @@
         <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D144" t="s">
         <v>751</v>
@@ -56851,7 +56840,7 @@
         <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D145" t="s">
         <v>751</v>
@@ -56862,10 +56851,10 @@
         <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D146" t="s">
-        <v>751</v>
+        <v>828</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -56873,10 +56862,10 @@
         <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>827</v>
+        <v>1081</v>
       </c>
       <c r="D147" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -56884,7 +56873,7 @@
         <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>1081</v>
+        <v>1096</v>
       </c>
       <c r="D148" t="s">
         <v>829</v>
@@ -56895,7 +56884,7 @@
         <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>1096</v>
+        <v>1066</v>
       </c>
       <c r="D149" t="s">
         <v>829</v>
@@ -56906,7 +56895,7 @@
         <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>1066</v>
+        <v>830</v>
       </c>
       <c r="D150" t="s">
         <v>829</v>
@@ -56917,10 +56906,10 @@
         <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D151" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -56928,10 +56917,10 @@
         <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>831</v>
+        <v>1082</v>
       </c>
       <c r="D152" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -56939,7 +56928,7 @@
         <v>226</v>
       </c>
       <c r="B153" t="s">
-        <v>1082</v>
+        <v>1097</v>
       </c>
       <c r="D153" t="s">
         <v>829</v>
@@ -56950,7 +56939,7 @@
         <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>1097</v>
+        <v>833</v>
       </c>
       <c r="D154" t="s">
         <v>829</v>
@@ -56961,7 +56950,7 @@
         <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D155" t="s">
         <v>829</v>
@@ -56972,20 +56961,9 @@
         <v>226</v>
       </c>
       <c r="B156" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D156" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>226</v>
-      </c>
-      <c r="B157" t="s">
-        <v>835</v>
-      </c>
-      <c r="D157" t="s">
         <v>829</v>
       </c>
     </row>
@@ -56998,8 +56976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57015,22 +56993,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="23" t="s">
+      <c r="B1" s="23" t="s">
         <v>646</v>
       </c>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>666</v>
       </c>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" s="18"/>
@@ -57038,31 +57015,31 @@
       <c r="G3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>645</v>
       </c>
       <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>655</v>
       </c>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="B6" s="21" t="s">
         <v>667</v>
       </c>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="B7" s="22" t="s">
         <v>668</v>
       </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="B8" s="24" t="s">
         <v>669</v>
       </c>
       <c r="E8" s="18"/>

--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5672" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="1171">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3510,6 +3510,39 @@
   </si>
   <si>
     <t>CNR1: 25 m</t>
+  </si>
+  <si>
+    <t>soil_temp_TCAV_1</t>
+  </si>
+  <si>
+    <t>soil_temp_TCAV_2</t>
+  </si>
+  <si>
+    <t>soil_watercontent_CS650_1</t>
+  </si>
+  <si>
+    <t>soil_watercontent_CS650_2</t>
+  </si>
+  <si>
+    <t>soil_eletricconductivity_CS650_1</t>
+  </si>
+  <si>
+    <t>soil_eletricconductivity_CS650_2</t>
+  </si>
+  <si>
+    <t>soil_temp_CS650_1</t>
+  </si>
+  <si>
+    <t>soil_temp_CS650_2</t>
+  </si>
+  <si>
+    <t>soil_heatflux_HFP01SC_1</t>
+  </si>
+  <si>
+    <t>soil_heatflux_HFP01SC_2</t>
+  </si>
+  <si>
+    <t>air_temp_CR1000</t>
   </si>
 </sst>
 </file>
@@ -3619,7 +3652,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3648,7 +3681,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3955,8 +3987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3965,13 +3997,13 @@
     <col min="2" max="2" width="35.21875" customWidth="1"/>
     <col min="3" max="3" width="143.21875" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>640</v>
       </c>
     </row>
@@ -3996,12 +4028,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>660</v>
       </c>
     </row>
@@ -4018,7 +4050,7 @@
       <c r="D9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -4041,7 +4073,7 @@
       <c r="D11" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F11" t="s">
@@ -4061,7 +4093,7 @@
       <c r="D12" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F12" t="s">
@@ -4081,7 +4113,7 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F13" t="s">
@@ -4101,7 +4133,7 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F14" t="s">
@@ -4121,7 +4153,7 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F15" t="s">
@@ -4141,7 +4173,7 @@
       <c r="D16" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F16" t="s">
@@ -4164,7 +4196,7 @@
       <c r="D17" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F17" t="s">
@@ -4187,7 +4219,7 @@
       <c r="D18" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F18" t="s">
@@ -4207,7 +4239,7 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F19" t="s">
@@ -4227,7 +4259,7 @@
       <c r="D20" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F20" t="s">
@@ -4250,7 +4282,7 @@
       <c r="D21" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F21" t="s">
@@ -4270,7 +4302,7 @@
       <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F22" t="s">
@@ -4290,7 +4322,7 @@
       <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F23" t="s">
@@ -4310,7 +4342,7 @@
       <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F24" t="s">
@@ -4330,7 +4362,7 @@
       <c r="D25" t="s">
         <v>201</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F25" t="s">
@@ -4350,7 +4382,7 @@
       <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F26" t="s">
@@ -4370,7 +4402,7 @@
       <c r="D27" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F27" t="s">
@@ -4390,7 +4422,7 @@
       <c r="D28" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F28" t="s">
@@ -4398,7 +4430,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>646</v>
       </c>
     </row>
@@ -4423,37 +4455,37 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="20" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="20" t="s">
         <v>951</v>
       </c>
     </row>
@@ -4473,7 +4505,7 @@
       <c r="D44" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4496,7 +4528,7 @@
       <c r="D46" t="s">
         <v>203</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F46" t="s">
@@ -4516,7 +4548,7 @@
       <c r="D47" t="s">
         <v>285</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F47" t="s">
@@ -4536,7 +4568,7 @@
       <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F48" t="s">
@@ -4556,7 +4588,7 @@
       <c r="D49" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F49" t="s">
@@ -4576,7 +4608,7 @@
       <c r="D50" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F50" t="s">
@@ -4596,7 +4628,7 @@
       <c r="D51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="19" t="s">
         <v>125</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -4619,7 +4651,7 @@
       <c r="D52" t="s">
         <v>142</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F52" t="s">
@@ -4639,7 +4671,7 @@
       <c r="D53" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F53" t="s">
@@ -4659,7 +4691,7 @@
       <c r="D54" t="s">
         <v>142</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F54" t="s">
@@ -4679,7 +4711,7 @@
       <c r="D55" t="s">
         <v>142</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F55" t="s">
@@ -4699,7 +4731,7 @@
       <c r="D56" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F56" t="s">
@@ -4719,7 +4751,7 @@
       <c r="D57" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F57" t="s">
@@ -4739,7 +4771,7 @@
       <c r="D58" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F58" t="s">
@@ -4759,7 +4791,7 @@
       <c r="D59" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F59" t="s">
@@ -4779,7 +4811,7 @@
       <c r="D60" t="s">
         <v>117</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F60" t="s">
@@ -4799,7 +4831,7 @@
       <c r="D61" t="s">
         <v>201</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F61" t="s">
@@ -4819,7 +4851,7 @@
       <c r="D62" t="s">
         <v>201</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F62" t="s">
@@ -4839,7 +4871,7 @@
       <c r="D63" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F63" t="s">
@@ -4859,7 +4891,7 @@
       <c r="D64" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>425</v>
       </c>
       <c r="F64" t="s">
@@ -4879,7 +4911,7 @@
       <c r="D65" t="s">
         <v>127</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>425</v>
       </c>
       <c r="F65" t="s">
@@ -4899,7 +4931,7 @@
       <c r="D66" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="17" t="s">
         <v>425</v>
       </c>
       <c r="F66" t="s">
@@ -4919,7 +4951,7 @@
       <c r="D67" t="s">
         <v>127</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="17" t="s">
         <v>425</v>
       </c>
       <c r="F67" t="s">
@@ -4939,7 +4971,7 @@
       <c r="D68" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F68" t="s">
@@ -4959,7 +4991,7 @@
       <c r="D69" t="s">
         <v>200</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F69" t="s">
@@ -4979,7 +5011,7 @@
       <c r="D70" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F70" t="s">
@@ -4999,7 +5031,7 @@
       <c r="D71" t="s">
         <v>263</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F71" t="s">
@@ -5019,7 +5051,7 @@
       <c r="D72" t="s">
         <v>263</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F72" t="s">
@@ -5039,7 +5071,7 @@
       <c r="D73" t="s">
         <v>263</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F73" t="s">
@@ -5059,7 +5091,7 @@
       <c r="D74" t="s">
         <v>263</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F74" t="s">
@@ -5079,7 +5111,7 @@
       <c r="D75" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F75" t="s">
@@ -5087,7 +5119,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="29" t="s">
         <v>948</v>
       </c>
       <c r="B76" t="s">
@@ -5099,7 +5131,7 @@
       <c r="D76" t="s">
         <v>203</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F76" t="s">
@@ -5107,25 +5139,25 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="24" t="s">
         <v>944</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="G77" s="25"/>
+      <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -5140,7 +5172,7 @@
       <c r="D78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F78" t="s">
@@ -5160,7 +5192,7 @@
       <c r="D79" t="s">
         <v>79</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F79" t="s">
@@ -5180,7 +5212,7 @@
       <c r="D80" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F80" t="s">
@@ -5188,25 +5220,25 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="27" t="s">
         <v>945</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G81" s="28"/>
+      <c r="G81" s="27"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -5221,7 +5253,7 @@
       <c r="D82" t="s">
         <v>364</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="17" t="s">
         <v>510</v>
       </c>
       <c r="F82" t="s">
@@ -5241,7 +5273,7 @@
       <c r="D83" t="s">
         <v>39</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F83" t="s">
@@ -5261,7 +5293,7 @@
       <c r="D84" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F84" t="s">
@@ -5281,7 +5313,7 @@
       <c r="D85" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F85" t="s">
@@ -5301,7 +5333,7 @@
       <c r="D86" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F86" t="s">
@@ -5321,7 +5353,7 @@
       <c r="D87" t="s">
         <v>142</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="17" t="s">
         <v>427</v>
       </c>
       <c r="F87" t="s">
@@ -5341,7 +5373,7 @@
       <c r="D88" t="s">
         <v>534</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="17">
         <v>5103</v>
       </c>
       <c r="F88" t="s">
@@ -5361,7 +5393,7 @@
       <c r="D89" t="s">
         <v>534</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F89" t="s">
@@ -5381,7 +5413,7 @@
       <c r="D90" t="s">
         <v>534</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="17" t="s">
         <v>551</v>
       </c>
       <c r="F90" t="s">
@@ -5401,7 +5433,7 @@
       <c r="D91" t="s">
         <v>534</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F91" t="s">
@@ -5421,7 +5453,7 @@
       <c r="D92" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="17">
         <v>5103</v>
       </c>
       <c r="F92" t="s">
@@ -5441,7 +5473,7 @@
       <c r="D93" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F93" t="s">
@@ -5461,7 +5493,7 @@
       <c r="D94" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F94" t="s">
@@ -5481,7 +5513,7 @@
       <c r="D95" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F95" t="s">
@@ -5501,7 +5533,7 @@
       <c r="D96" t="s">
         <v>39</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F96" t="s">
@@ -5521,7 +5553,7 @@
       <c r="D97" t="s">
         <v>396</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F97" t="s">
@@ -5541,7 +5573,7 @@
       <c r="D98" t="s">
         <v>127</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="17" t="s">
         <v>425</v>
       </c>
       <c r="F98" t="s">
@@ -5561,7 +5593,7 @@
       <c r="D99" t="s">
         <v>127</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="17" t="s">
         <v>425</v>
       </c>
       <c r="F99" t="s">
@@ -5581,7 +5613,7 @@
       <c r="D100" t="s">
         <v>127</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="17" t="s">
         <v>425</v>
       </c>
       <c r="F100" t="s">
@@ -5601,7 +5633,7 @@
       <c r="D101" t="s">
         <v>51</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F101" t="s">
@@ -5621,7 +5653,7 @@
       <c r="D102" t="s">
         <v>263</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F102" t="s">
@@ -5641,7 +5673,7 @@
       <c r="D103" t="s">
         <v>263</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F103" t="s">
@@ -5661,7 +5693,7 @@
       <c r="D104" t="s">
         <v>263</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F104" t="s">
@@ -5681,7 +5713,7 @@
       <c r="D105" t="s">
         <v>142</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="17" t="s">
         <v>427</v>
       </c>
       <c r="F105" t="s">
@@ -5701,7 +5733,7 @@
       <c r="D106" t="s">
         <v>203</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F106" t="s">
@@ -5721,7 +5753,7 @@
       <c r="D107" t="s">
         <v>203</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E107" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F107" t="s">
@@ -5741,7 +5773,7 @@
       <c r="D108" t="s">
         <v>203</v>
       </c>
-      <c r="E108" s="18" t="s">
+      <c r="E108" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F108" t="s">
@@ -5761,7 +5793,7 @@
       <c r="D109" t="s">
         <v>203</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F109" t="s">
@@ -5781,7 +5813,7 @@
       <c r="D110" t="s">
         <v>203</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="E110" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F110" t="s">
@@ -5801,7 +5833,7 @@
       <c r="D111" t="s">
         <v>203</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F111" t="s">
@@ -5821,7 +5853,7 @@
       <c r="D112" t="s">
         <v>203</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F112" t="s">
@@ -5841,7 +5873,7 @@
       <c r="D113" t="s">
         <v>203</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F113" t="s">
@@ -5862,7 +5894,7 @@
       <c r="D114" t="s">
         <v>203</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E114" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F114" t="s">
@@ -5883,7 +5915,7 @@
       <c r="D115" t="s">
         <v>203</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F115" t="s">
@@ -5904,7 +5936,7 @@
       <c r="D116" t="s">
         <v>203</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F116" t="s">
@@ -5925,7 +5957,7 @@
       <c r="D117" t="s">
         <v>203</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F117" t="s">
@@ -5946,7 +5978,7 @@
       <c r="D118" t="s">
         <v>203</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F118" t="s">
@@ -5967,7 +5999,7 @@
       <c r="D119" t="s">
         <v>203</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E119" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F119" t="s">
@@ -5987,7 +6019,7 @@
       <c r="D120" t="s">
         <v>203</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="E120" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F120" t="s">
@@ -6007,7 +6039,7 @@
       <c r="D121" t="s">
         <v>51</v>
       </c>
-      <c r="E121" s="18" t="s">
+      <c r="E121" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F121" t="s">
@@ -6027,7 +6059,7 @@
       <c r="D122" t="s">
         <v>272</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E122" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F122" t="s">
@@ -6047,7 +6079,7 @@
       <c r="D123" t="s">
         <v>272</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F123" t="s">
@@ -6067,7 +6099,7 @@
       <c r="D124" t="s">
         <v>272</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F124" t="s">
@@ -6075,88 +6107,88 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125" s="25" t="s">
+      <c r="A125" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C125" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E125" s="27" t="s">
+      <c r="E125" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F125" s="26" t="s">
+      <c r="F125" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="G125" s="26"/>
+      <c r="G125" s="25"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B126" s="26" t="s">
+      <c r="A126" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C126" s="26" t="s">
+      <c r="C126" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="D126" s="26" t="s">
+      <c r="D126" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E126" s="27" t="s">
+      <c r="E126" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F126" s="26" t="s">
+      <c r="F126" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="G126" s="25"/>
+      <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B127" s="28" t="s">
+      <c r="A127" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="C127" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="D127" s="28" t="s">
+      <c r="D127" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E127" s="29" t="s">
+      <c r="E127" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="F127" s="28" t="s">
+      <c r="F127" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G127" s="28"/>
+      <c r="G127" s="27"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B128" s="28" t="s">
+      <c r="A128" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="D128" s="28" t="s">
+      <c r="D128" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E128" s="29" t="s">
+      <c r="E128" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="F128" s="28" t="s">
+      <c r="F128" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G128" s="28"/>
+      <c r="G128" s="27"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
@@ -6171,7 +6203,7 @@
       <c r="D129" t="s">
         <v>203</v>
       </c>
-      <c r="E129" s="18" t="s">
+      <c r="E129" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F129" t="s">
@@ -6191,7 +6223,7 @@
       <c r="D130" t="s">
         <v>203</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F130" t="s">
@@ -6211,7 +6243,7 @@
       <c r="D131" t="s">
         <v>203</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F131" t="s">
@@ -6225,13 +6257,13 @@
       <c r="B132" t="s">
         <v>316</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="3" t="s">
         <v>483</v>
       </c>
       <c r="D132" t="s">
         <v>203</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F132" t="s">
@@ -6245,13 +6277,13 @@
       <c r="B133" t="s">
         <v>308</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C133" s="29" t="s">
         <v>484</v>
       </c>
       <c r="D133" t="s">
         <v>203</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E133" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F133" t="s">
@@ -6265,13 +6297,13 @@
       <c r="B134" t="s">
         <v>309</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="29" t="s">
         <v>484</v>
       </c>
       <c r="D134" t="s">
         <v>203</v>
       </c>
-      <c r="E134" s="18" t="s">
+      <c r="E134" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F134" t="s">
@@ -6285,13 +6317,13 @@
       <c r="B135" t="s">
         <v>312</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="29" t="s">
         <v>485</v>
       </c>
       <c r="D135" t="s">
         <v>203</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F135" t="s">
@@ -6305,13 +6337,13 @@
       <c r="B136" t="s">
         <v>314</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="12" t="s">
         <v>487</v>
       </c>
       <c r="D136" t="s">
         <v>203</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F136" t="s">
@@ -6325,13 +6357,13 @@
       <c r="B137" t="s">
         <v>297</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="12" t="s">
         <v>489</v>
       </c>
       <c r="D137" t="s">
         <v>203</v>
       </c>
-      <c r="E137" s="18" t="s">
+      <c r="E137" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F137" t="s">
@@ -6345,13 +6377,13 @@
       <c r="B138" t="s">
         <v>310</v>
       </c>
-      <c r="C138" s="16" t="s">
+      <c r="C138" s="29" t="s">
         <v>490</v>
       </c>
       <c r="D138" t="s">
         <v>203</v>
       </c>
-      <c r="E138" s="18" t="s">
+      <c r="E138" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F138" t="s">
@@ -6365,13 +6397,13 @@
       <c r="B139" t="s">
         <v>311</v>
       </c>
-      <c r="C139" s="16" t="s">
+      <c r="C139" s="29" t="s">
         <v>491</v>
       </c>
       <c r="D139" t="s">
         <v>203</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F139" t="s">
@@ -6385,13 +6417,13 @@
       <c r="B140" t="s">
         <v>313</v>
       </c>
-      <c r="C140" s="16" t="s">
+      <c r="C140" s="29" t="s">
         <v>492</v>
       </c>
       <c r="D140" t="s">
         <v>203</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F140" t="s">
@@ -6411,7 +6443,7 @@
       <c r="D141" t="s">
         <v>203</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F141" t="s">
@@ -6431,7 +6463,7 @@
       <c r="D142" t="s">
         <v>203</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E142" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F142" t="s">
@@ -6451,7 +6483,7 @@
       <c r="D143" t="s">
         <v>203</v>
       </c>
-      <c r="E143" s="18" t="s">
+      <c r="E143" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F143" t="s">
@@ -6471,7 +6503,7 @@
       <c r="D144" t="s">
         <v>203</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="E144" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F144" t="s">
@@ -6491,7 +6523,7 @@
       <c r="D145" t="s">
         <v>203</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F145" t="s">
@@ -6511,7 +6543,7 @@
       <c r="D146" t="s">
         <v>203</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F146" t="s">
@@ -6531,7 +6563,7 @@
       <c r="D147" t="s">
         <v>203</v>
       </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F147" t="s">
@@ -6551,7 +6583,7 @@
       <c r="D148" t="s">
         <v>203</v>
       </c>
-      <c r="E148" s="18" t="s">
+      <c r="E148" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F148" t="s">
@@ -6571,7 +6603,7 @@
       <c r="D149" t="s">
         <v>203</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F149" t="s">
@@ -6591,7 +6623,7 @@
       <c r="D150" t="s">
         <v>203</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E150" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F150" t="s">
@@ -6611,7 +6643,7 @@
       <c r="D151" t="s">
         <v>51</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F151" t="s">
@@ -6631,7 +6663,7 @@
       <c r="D152" t="s">
         <v>51</v>
       </c>
-      <c r="E152" s="18" t="s">
+      <c r="E152" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F152" t="s">
@@ -6651,7 +6683,7 @@
       <c r="D153" t="s">
         <v>51</v>
       </c>
-      <c r="E153" s="18" t="s">
+      <c r="E153" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F153" t="s">
@@ -6671,7 +6703,7 @@
       <c r="D154" t="s">
         <v>51</v>
       </c>
-      <c r="E154" s="18" t="s">
+      <c r="E154" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F154" t="s">
@@ -6691,7 +6723,7 @@
       <c r="D155" t="s">
         <v>51</v>
       </c>
-      <c r="E155" s="18" t="s">
+      <c r="E155" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F155" t="s">
@@ -6711,7 +6743,7 @@
       <c r="D156" t="s">
         <v>372</v>
       </c>
-      <c r="E156" s="18" t="s">
+      <c r="E156" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F156" t="s">
@@ -6731,7 +6763,7 @@
       <c r="D157" t="s">
         <v>372</v>
       </c>
-      <c r="E157" s="18" t="s">
+      <c r="E157" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F157" t="s">
@@ -6751,7 +6783,7 @@
       <c r="D158" t="s">
         <v>203</v>
       </c>
-      <c r="E158" s="18" t="s">
+      <c r="E158" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F158" t="s">
@@ -6771,7 +6803,7 @@
       <c r="D159" t="s">
         <v>39</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="E159" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F159" t="s">
@@ -6791,7 +6823,7 @@
       <c r="D160" t="s">
         <v>39</v>
       </c>
-      <c r="E160" s="18" t="s">
+      <c r="E160" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F160" t="s">
@@ -6811,7 +6843,7 @@
       <c r="D161" t="s">
         <v>51</v>
       </c>
-      <c r="E161" s="18" t="s">
+      <c r="E161" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F161" t="s">
@@ -6831,7 +6863,7 @@
       <c r="D162" t="s">
         <v>51</v>
       </c>
-      <c r="E162" s="18" t="s">
+      <c r="E162" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F162" t="s">
@@ -6851,7 +6883,7 @@
       <c r="D163" t="s">
         <v>51</v>
       </c>
-      <c r="E163" s="18" t="s">
+      <c r="E163" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F163" t="s">
@@ -6871,7 +6903,7 @@
       <c r="D164" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E164" s="20" t="s">
+      <c r="E164" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F164" s="3" t="s">
@@ -6894,7 +6926,7 @@
       <c r="D165" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E165" s="20" t="s">
+      <c r="E165" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F165" s="3" t="s">
@@ -6917,7 +6949,7 @@
       <c r="D166" t="s">
         <v>203</v>
       </c>
-      <c r="E166" s="18" t="s">
+      <c r="E166" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F166" t="s">
@@ -6937,7 +6969,7 @@
       <c r="D167" t="s">
         <v>534</v>
       </c>
-      <c r="E167" s="18" t="s">
+      <c r="E167" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F167" t="s">
@@ -6957,7 +6989,7 @@
       <c r="D168" t="s">
         <v>253</v>
       </c>
-      <c r="E168" s="18" t="s">
+      <c r="E168" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F168" t="s">
@@ -6977,7 +7009,7 @@
       <c r="D169" t="s">
         <v>253</v>
       </c>
-      <c r="E169" s="18" t="s">
+      <c r="E169" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F169" t="s">
@@ -6997,7 +7029,7 @@
       <c r="D170" t="s">
         <v>203</v>
       </c>
-      <c r="E170" s="18" t="s">
+      <c r="E170" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F170" t="s">
@@ -7017,7 +7049,7 @@
       <c r="D171" t="s">
         <v>203</v>
       </c>
-      <c r="E171" s="18" t="s">
+      <c r="E171" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F171" t="s">
@@ -7037,7 +7069,7 @@
       <c r="D172" t="s">
         <v>369</v>
       </c>
-      <c r="E172" s="18" t="s">
+      <c r="E172" s="17" t="s">
         <v>427</v>
       </c>
       <c r="F172" t="s">
@@ -7060,7 +7092,7 @@
       <c r="D173" t="s">
         <v>229</v>
       </c>
-      <c r="E173" s="18" t="s">
+      <c r="E173" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F173" t="s">
@@ -7080,7 +7112,7 @@
       <c r="D174" t="s">
         <v>142</v>
       </c>
-      <c r="E174" s="18" t="s">
+      <c r="E174" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F174" t="s">
@@ -7100,7 +7132,7 @@
       <c r="D175" t="s">
         <v>385</v>
       </c>
-      <c r="E175" s="18" t="s">
+      <c r="E175" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F175" t="s">
@@ -7120,7 +7152,7 @@
       <c r="D176" t="s">
         <v>385</v>
       </c>
-      <c r="E176" s="18" t="s">
+      <c r="E176" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F176" t="s">
@@ -7140,7 +7172,7 @@
       <c r="D177" t="s">
         <v>385</v>
       </c>
-      <c r="E177" s="18" t="s">
+      <c r="E177" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F177" t="s">
@@ -7160,7 +7192,7 @@
       <c r="D178" t="s">
         <v>142</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="E178" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F178" t="s">
@@ -7180,7 +7212,7 @@
       <c r="D179" t="s">
         <v>142</v>
       </c>
-      <c r="E179" s="18" t="s">
+      <c r="E179" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F179" t="s">
@@ -7200,7 +7232,7 @@
       <c r="D180" t="s">
         <v>385</v>
       </c>
-      <c r="E180" s="18" t="s">
+      <c r="E180" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F180" t="s">
@@ -7220,7 +7252,7 @@
       <c r="D181" t="s">
         <v>385</v>
       </c>
-      <c r="E181" s="18" t="s">
+      <c r="E181" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F181" t="s">
@@ -7240,7 +7272,7 @@
       <c r="D182" t="s">
         <v>385</v>
       </c>
-      <c r="E182" s="18" t="s">
+      <c r="E182" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F182" t="s">
@@ -7260,7 +7292,7 @@
       <c r="D183" t="s">
         <v>5</v>
       </c>
-      <c r="E183" s="18" t="s">
+      <c r="E183" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F183" t="s">
@@ -7280,7 +7312,7 @@
       <c r="D184" t="s">
         <v>5</v>
       </c>
-      <c r="E184" s="18" t="s">
+      <c r="E184" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F184" t="s">
@@ -7300,7 +7332,7 @@
       <c r="D185" t="s">
         <v>237</v>
       </c>
-      <c r="E185" s="18" t="s">
+      <c r="E185" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F185" t="s">
@@ -7320,7 +7352,7 @@
       <c r="D186" t="s">
         <v>237</v>
       </c>
-      <c r="E186" s="18" t="s">
+      <c r="E186" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F186" t="s">
@@ -7340,7 +7372,7 @@
       <c r="D187" t="s">
         <v>5</v>
       </c>
-      <c r="E187" s="18" t="s">
+      <c r="E187" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F187" t="s">
@@ -7360,7 +7392,7 @@
       <c r="D188" t="s">
         <v>237</v>
       </c>
-      <c r="E188" s="18" t="s">
+      <c r="E188" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F188" t="s">
@@ -7380,7 +7412,7 @@
       <c r="D189" t="s">
         <v>5</v>
       </c>
-      <c r="E189" s="18" t="s">
+      <c r="E189" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F189" t="s">
@@ -7400,7 +7432,7 @@
       <c r="D190" t="s">
         <v>534</v>
       </c>
-      <c r="E190" s="18" t="s">
+      <c r="E190" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F190" t="s">
@@ -7421,7 +7453,7 @@
       <c r="D191" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E191" s="20"/>
+      <c r="E191" s="19"/>
       <c r="F191" s="3"/>
       <c r="G191" s="2" t="s">
         <v>1099</v>
@@ -7440,7 +7472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -7456,62 +7488,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>1049</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>1050</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>1051</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>1052</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -7526,7 +7558,7 @@
       <c r="D11" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -7537,7 +7569,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="18"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7552,7 +7584,7 @@
       <c r="D13" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>1039</v>
       </c>
       <c r="F13" t="s">
@@ -7572,7 +7604,7 @@
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F14" t="s">
@@ -7592,7 +7624,7 @@
       <c r="D15" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>125</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -7612,7 +7644,7 @@
       <c r="D16" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F16" t="s">
@@ -7632,7 +7664,7 @@
       <c r="D17" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F17" t="s">
@@ -7652,7 +7684,7 @@
       <c r="D18" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F18" t="s">
@@ -7672,7 +7704,7 @@
       <c r="D19" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>1039</v>
       </c>
       <c r="F19" t="s">
@@ -7692,7 +7724,7 @@
       <c r="D20" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>1039</v>
       </c>
       <c r="F20" t="s">
@@ -7712,7 +7744,7 @@
       <c r="D21" t="s">
         <v>364</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>1043</v>
       </c>
       <c r="F21" t="s">
@@ -7732,7 +7764,7 @@
       <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F22" t="s">
@@ -7752,7 +7784,7 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F23" t="s">
@@ -7772,7 +7804,7 @@
       <c r="D24" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F24" t="s">
@@ -7792,7 +7824,7 @@
       <c r="D25" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F25" t="s">
@@ -7812,7 +7844,7 @@
       <c r="D26" t="s">
         <v>534</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>551</v>
       </c>
       <c r="F26" t="s">
@@ -7832,7 +7864,7 @@
       <c r="D27" t="s">
         <v>534</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>551</v>
       </c>
       <c r="F27" t="s">
@@ -7852,7 +7884,7 @@
       <c r="D28" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>551</v>
       </c>
       <c r="F28" t="s">
@@ -7872,7 +7904,7 @@
       <c r="D29" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>551</v>
       </c>
       <c r="F29" t="s">
@@ -7892,7 +7924,7 @@
       <c r="D30" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>1047</v>
       </c>
       <c r="F30" t="s">
@@ -7912,7 +7944,7 @@
       <c r="D31" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>1047</v>
       </c>
       <c r="F31" t="s">
@@ -7932,7 +7964,7 @@
       <c r="D32" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>1047</v>
       </c>
       <c r="F32" t="s">
@@ -7952,7 +7984,7 @@
       <c r="D33" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>1039</v>
       </c>
       <c r="F33" t="s">
@@ -7972,7 +8004,7 @@
       <c r="D34" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F34" t="s">
@@ -7992,7 +8024,7 @@
       <c r="D35" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F35" t="s">
@@ -8012,7 +8044,7 @@
       <c r="D36" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F36" t="s">
@@ -8032,7 +8064,7 @@
       <c r="D37" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F37" t="s">
@@ -8052,7 +8084,7 @@
       <c r="D38" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F38" t="s">
@@ -8072,7 +8104,7 @@
       <c r="D39" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F39" t="s">
@@ -8092,7 +8124,7 @@
       <c r="D40" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>1039</v>
       </c>
       <c r="F40" t="s">
@@ -8112,7 +8144,7 @@
       <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>1039</v>
       </c>
       <c r="F41" t="s">
@@ -8132,7 +8164,7 @@
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="19" t="s">
         <v>125</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -8152,7 +8184,7 @@
       <c r="D43" t="s">
         <v>534</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>551</v>
       </c>
       <c r="F43" t="s">
@@ -8172,7 +8204,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8186,38 +8218,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="E6" s="18"/>
+      <c r="A6" s="20"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -8232,7 +8264,7 @@
       <c r="D7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -8371,8 +8403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8384,7 +8416,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>681</v>
       </c>
     </row>
@@ -8404,12 +8436,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>660</v>
       </c>
     </row>
@@ -8448,7 +8480,7 @@
       <c r="D10" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F10" t="s">
@@ -8512,7 +8544,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
@@ -8526,7 +8558,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1013</v>
       </c>
       <c r="B16" t="s">
@@ -8554,7 +8586,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>1015</v>
       </c>
       <c r="B18" t="s">
@@ -8579,7 +8611,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>1012</v>
       </c>
       <c r="B20" t="s">
@@ -8866,7 +8898,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B39" t="s">
@@ -8880,7 +8912,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>732</v>
       </c>
       <c r="B40" t="s">
@@ -9185,7 +9217,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>1017</v>
       </c>
       <c r="B62" t="s">
@@ -9283,7 +9315,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="30" t="s">
         <v>1007</v>
       </c>
       <c r="B69" t="s">
@@ -9297,7 +9329,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="30" t="s">
         <v>1008</v>
       </c>
       <c r="B70" t="s">
@@ -9311,7 +9343,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="30" t="s">
         <v>1006</v>
       </c>
       <c r="B71" t="s">
@@ -10780,7 +10812,7 @@
   <dimension ref="A1:XFA317"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10795,50 +10827,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>658</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -10853,7 +10885,7 @@
       <c r="D9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -10868,7 +10900,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -10885,7 +10917,7 @@
       <c r="D11" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>556</v>
       </c>
       <c r="F11" t="s">
@@ -10906,7 +10938,7 @@
       <c r="D12" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>556</v>
       </c>
       <c r="F12" t="s">
@@ -11428,56 +11460,56 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:16381" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:16381" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:16381" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:16381" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:16381" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:16381" x14ac:dyDescent="0.3">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="E44" s="18"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:16381" x14ac:dyDescent="0.3">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>658</v>
       </c>
-      <c r="E45" s="18"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:16381" x14ac:dyDescent="0.3">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:16381" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="E47" s="18"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:16381" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -11492,7 +11524,7 @@
       <c r="D48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -44271,7 +44303,7 @@
       <c r="D50" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>556</v>
       </c>
       <c r="F50" t="s">
@@ -44292,7 +44324,7 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F51" t="s">
@@ -44313,7 +44345,7 @@
       <c r="D52" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -44334,7 +44366,7 @@
       <c r="D53" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -44396,7 +44428,7 @@
       <c r="D56" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -44417,7 +44449,7 @@
       <c r="D57" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -44438,7 +44470,7 @@
       <c r="D58" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -44467,7 +44499,7 @@
       <c r="D59" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -44544,7 +44576,7 @@
       <c r="D62" t="s">
         <v>200</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -44565,7 +44597,7 @@
       <c r="D63" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -44594,7 +44626,7 @@
       <c r="D64" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F64" t="s">
@@ -44614,7 +44646,7 @@
       <c r="D65" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -44635,7 +44667,7 @@
       <c r="D66" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -44664,7 +44696,7 @@
       <c r="D67" t="s">
         <v>203</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -44693,7 +44725,7 @@
       <c r="D68" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F68" t="s">
@@ -44827,7 +44859,7 @@
       <c r="D74" t="s">
         <v>534</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -44848,7 +44880,7 @@
       <c r="D75" t="s">
         <v>534</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -44869,7 +44901,7 @@
       <c r="D76" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F76" s="3" t="s">
@@ -44892,7 +44924,7 @@
       <c r="D77" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="20" t="s">
+      <c r="E77" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -44913,7 +44945,7 @@
       <c r="D78" t="s">
         <v>203</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="19" t="s">
         <v>556</v>
       </c>
       <c r="F78" s="3" t="s">
@@ -44942,7 +44974,7 @@
       <c r="D79" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="20" t="s">
+      <c r="E79" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -44971,7 +45003,7 @@
       <c r="D80" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -45000,7 +45032,7 @@
       <c r="D81" t="s">
         <v>203</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -45085,7 +45117,7 @@
       <c r="D84" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="20" t="s">
+      <c r="E84" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -45114,7 +45146,7 @@
       <c r="D85" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="19" t="s">
         <v>556</v>
       </c>
       <c r="F85" s="3" t="s">
@@ -45143,7 +45175,7 @@
       <c r="D86" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -45172,7 +45204,7 @@
       <c r="D87" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F87" s="3" t="s">
@@ -45201,7 +45233,7 @@
       <c r="D88" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="E88" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F88" s="3" t="s">
@@ -45230,7 +45262,7 @@
       <c r="D89" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="E89" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F89" s="3" t="s">
@@ -45259,7 +45291,7 @@
       <c r="D90" t="s">
         <v>558</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F90" t="s">
@@ -45288,7 +45320,7 @@
       <c r="D91" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F91" s="3" t="s">
@@ -45319,7 +45351,7 @@
       <c r="D92" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E92" s="20" t="s">
+      <c r="E92" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F92" s="3" t="s">
@@ -45348,7 +45380,7 @@
       <c r="D93" t="s">
         <v>104</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F93" s="3" t="s">
@@ -45377,7 +45409,7 @@
       <c r="D94" t="s">
         <v>104</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F94" s="3" t="s">
@@ -45406,7 +45438,7 @@
       <c r="D95" t="s">
         <v>104</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -45435,7 +45467,7 @@
       <c r="D96" t="s">
         <v>104</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F96" s="3" t="s">
@@ -45464,7 +45496,7 @@
       <c r="D97" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F97" s="3" t="s">
@@ -45493,7 +45525,7 @@
       <c r="D98" t="s">
         <v>111</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="19" t="s">
         <v>556</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -45522,7 +45554,7 @@
       <c r="D99" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F99" s="3" t="s">
@@ -45553,7 +45585,7 @@
       <c r="D100" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="E100" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F100" s="3" t="s">
@@ -45582,7 +45614,7 @@
       <c r="D101" t="s">
         <v>79</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F101" s="3" t="s">
@@ -45611,7 +45643,7 @@
       <c r="D102" t="s">
         <v>614</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="19" t="s">
         <v>556</v>
       </c>
       <c r="F102" s="3" t="s">
@@ -45719,7 +45751,7 @@
       <c r="D106" t="s">
         <v>203</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F106" t="s">
@@ -45750,7 +45782,7 @@
       <c r="D107" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F107" s="3" t="s">
@@ -45893,7 +45925,7 @@
       <c r="D112" t="s">
         <v>203</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="17" t="s">
         <v>556</v>
       </c>
       <c r="F112" t="s">
@@ -45921,7 +45953,7 @@
       <c r="D113" t="s">
         <v>2</v>
       </c>
-      <c r="E113" s="20" t="s">
+      <c r="E113" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F113" s="3" t="s">
@@ -45969,7 +46001,7 @@
       <c r="D115" t="s">
         <v>534</v>
       </c>
-      <c r="E115" s="20" t="s">
+      <c r="E115" s="19" t="s">
         <v>556</v>
       </c>
       <c r="F115" s="3" t="s">
@@ -45998,7 +46030,7 @@
       <c r="D116" t="s">
         <v>534</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E116" s="19" t="s">
         <v>556</v>
       </c>
       <c r="F116" s="3" t="s">
@@ -46027,7 +46059,7 @@
       <c r="D117" t="s">
         <v>534</v>
       </c>
-      <c r="E117" s="20" t="s">
+      <c r="E117" s="19" t="s">
         <v>556</v>
       </c>
       <c r="F117" s="3" t="s">
@@ -46056,7 +46088,7 @@
       <c r="D118" t="s">
         <v>534</v>
       </c>
-      <c r="E118" s="20" t="s">
+      <c r="E118" s="19" t="s">
         <v>556</v>
       </c>
       <c r="F118" s="3" t="s">
@@ -46085,7 +46117,7 @@
       <c r="D119" t="s">
         <v>142</v>
       </c>
-      <c r="E119" s="20" t="s">
+      <c r="E119" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F119" s="3" t="s">
@@ -46114,7 +46146,7 @@
       <c r="D120" t="s">
         <v>142</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F120" s="3" t="s">
@@ -46143,7 +46175,7 @@
       <c r="D121" t="s">
         <v>142</v>
       </c>
-      <c r="E121" s="20" t="s">
+      <c r="E121" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F121" s="3" t="s">
@@ -46172,7 +46204,7 @@
       <c r="D122" t="s">
         <v>142</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E122" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F122" s="3" t="s">
@@ -46201,7 +46233,7 @@
       <c r="D123" t="s">
         <v>142</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F123" s="3" t="s">
@@ -46222,7 +46254,7 @@
       <c r="D124" t="s">
         <v>571</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E124" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F124" s="3" t="s">
@@ -46251,7 +46283,7 @@
       <c r="D125" t="s">
         <v>203</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E125" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F125" s="3" t="s">
@@ -46282,7 +46314,7 @@
       <c r="D126" t="s">
         <v>576</v>
       </c>
-      <c r="E126" s="20" t="s">
+      <c r="E126" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -46311,7 +46343,7 @@
       <c r="D127" t="s">
         <v>142</v>
       </c>
-      <c r="E127" s="20" t="s">
+      <c r="E127" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F127" s="3" t="s">
@@ -46340,7 +46372,7 @@
       <c r="D128" t="s">
         <v>104</v>
       </c>
-      <c r="E128" s="20" t="s">
+      <c r="E128" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F128" s="3" t="s">
@@ -46369,7 +46401,7 @@
       <c r="D129" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="20" t="s">
+      <c r="E129" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F129" s="3" t="s">
@@ -46397,7 +46429,7 @@
       <c r="D130" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="20" t="s">
+      <c r="E130" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F130" s="3" t="s">
@@ -46426,7 +46458,7 @@
       <c r="D131" t="s">
         <v>5</v>
       </c>
-      <c r="E131" s="20" t="s">
+      <c r="E131" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F131" s="3" t="s">
@@ -46455,7 +46487,7 @@
       <c r="D132" t="s">
         <v>5</v>
       </c>
-      <c r="E132" s="20" t="s">
+      <c r="E132" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F132" s="3" t="s">
@@ -46484,7 +46516,7 @@
       <c r="D133" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="20" t="s">
+      <c r="E133" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -46513,7 +46545,7 @@
       <c r="D134" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="20" t="s">
+      <c r="E134" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F134" s="3" t="s">
@@ -46542,7 +46574,7 @@
       <c r="D135" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="20" t="s">
+      <c r="E135" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F135" s="3" t="s">
@@ -46563,7 +46595,7 @@
       <c r="D136" t="s">
         <v>534</v>
       </c>
-      <c r="E136" s="20" t="s">
+      <c r="E136" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F136" s="3" t="s">
@@ -46584,7 +46616,7 @@
       <c r="D137" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="20" t="s">
+      <c r="E137" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F137" s="3" t="s">
@@ -46593,25 +46625,25 @@
       <c r="G137" s="3"/>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E311" s="18"/>
+      <c r="E311" s="17"/>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E312" s="18"/>
+      <c r="E312" s="17"/>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E313" s="18"/>
+      <c r="E313" s="17"/>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E314" s="18"/>
+      <c r="E314" s="17"/>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E315" s="18"/>
+      <c r="E315" s="17"/>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E316" s="18"/>
+      <c r="E316" s="17"/>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E317" s="18"/>
+      <c r="E317" s="17"/>
     </row>
   </sheetData>
   <sortState ref="A82:G138">
@@ -46626,7 +46658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -46640,7 +46672,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>681</v>
       </c>
     </row>
@@ -46648,32 +46680,32 @@
       <c r="B2" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>659</v>
       </c>
     </row>
@@ -46712,7 +46744,7 @@
       <c r="D11" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>556</v>
       </c>
       <c r="F11" t="s">
@@ -46777,7 +46809,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1014</v>
       </c>
       <c r="B16" t="s">
@@ -46791,7 +46823,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
@@ -46819,7 +46851,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
@@ -46844,7 +46876,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>1012</v>
       </c>
       <c r="B21" t="s">
@@ -47021,7 +47053,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B32" t="s">
@@ -47035,7 +47067,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>732</v>
       </c>
       <c r="B33" t="s">
@@ -47424,7 +47456,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="30" t="s">
         <v>1007</v>
       </c>
       <c r="B61" t="s">
@@ -47438,7 +47470,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>1008</v>
       </c>
       <c r="B62" t="s">
@@ -47452,7 +47484,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="30" t="s">
         <v>1006</v>
       </c>
       <c r="B63" t="s">
@@ -48674,8 +48706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48684,13 +48716,13 @@
     <col min="2" max="2" width="35.21875" customWidth="1"/>
     <col min="3" max="3" width="68.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>640</v>
       </c>
     </row>
@@ -48715,12 +48747,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -48737,7 +48769,7 @@
       <c r="D9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -48760,7 +48792,7 @@
       <c r="D11" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F11" t="s">
@@ -48780,7 +48812,7 @@
       <c r="D12" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F12" t="s">
@@ -48800,7 +48832,7 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="F13" t="s">
@@ -48820,7 +48852,7 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="F14" t="s">
@@ -48840,7 +48872,7 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="F15" t="s">
@@ -48860,7 +48892,7 @@
       <c r="D16" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="F16" t="s">
@@ -48883,7 +48915,7 @@
       <c r="D17" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="F17" t="s">
@@ -48906,7 +48938,7 @@
       <c r="D18" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>1116</v>
       </c>
       <c r="F18" t="s">
@@ -48926,7 +48958,7 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>1116</v>
       </c>
       <c r="F19" t="s">
@@ -48946,7 +48978,7 @@
       <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>1116</v>
       </c>
       <c r="F20" t="s">
@@ -48962,11 +48994,11 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>646</v>
       </c>
     </row>
@@ -48991,32 +49023,32 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -49036,7 +49068,7 @@
       <c r="D36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -49059,7 +49091,7 @@
       <c r="D38" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F38" t="s">
@@ -49079,7 +49111,7 @@
       <c r="D39" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F39" t="s">
@@ -49099,7 +49131,7 @@
       <c r="D40" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -49116,7 +49148,7 @@
       <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>1120</v>
       </c>
       <c r="F41" t="s">
@@ -49136,7 +49168,7 @@
       <c r="D42" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F42" t="s">
@@ -49156,7 +49188,7 @@
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="19" t="s">
         <v>125</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -49179,7 +49211,7 @@
       <c r="D44" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F44" t="s">
@@ -49199,7 +49231,7 @@
       <c r="D45" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F45" t="s">
@@ -49219,7 +49251,7 @@
       <c r="D46" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F46" t="s">
@@ -49239,7 +49271,7 @@
       <c r="D47" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F47" t="s">
@@ -49259,7 +49291,7 @@
       <c r="D48" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F48" t="s">
@@ -49279,7 +49311,7 @@
       <c r="D49" t="s">
         <v>203</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F49" t="s">
@@ -49299,7 +49331,7 @@
       <c r="D50" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F50" t="s">
@@ -49319,7 +49351,7 @@
       <c r="D51" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F51" t="s">
@@ -49339,7 +49371,7 @@
       <c r="D52" t="s">
         <v>200</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F52" t="s">
@@ -49359,7 +49391,7 @@
       <c r="D53" t="s">
         <v>263</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F53" t="s">
@@ -49379,7 +49411,7 @@
       <c r="D54" t="s">
         <v>263</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F54" t="s">
@@ -49399,7 +49431,7 @@
       <c r="D55" t="s">
         <v>263</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F55" t="s">
@@ -49419,7 +49451,7 @@
       <c r="D56" t="s">
         <v>263</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F56" t="s">
@@ -49427,7 +49459,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>948</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -49439,7 +49471,7 @@
       <c r="D57" t="s">
         <v>203</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F57" t="s">
@@ -49447,25 +49479,25 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>944</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="24" t="s">
         <v>1127</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="G58" s="25"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -49480,7 +49512,7 @@
       <c r="D59" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F59" t="s">
@@ -49500,7 +49532,7 @@
       <c r="D60" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F60" t="s">
@@ -49508,25 +49540,25 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="27" t="s">
         <v>945</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="27" t="s">
         <v>1126</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F61" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G61" s="28"/>
+      <c r="G61" s="27"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -49541,7 +49573,7 @@
       <c r="D62" t="s">
         <v>364</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>510</v>
       </c>
       <c r="F62" t="s">
@@ -49561,7 +49593,7 @@
       <c r="D63" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F63" t="s">
@@ -49581,7 +49613,7 @@
       <c r="D64" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F64" t="s">
@@ -49601,7 +49633,7 @@
       <c r="D65" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F65" t="s">
@@ -49621,7 +49653,7 @@
       <c r="D66" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F66" t="s">
@@ -49641,7 +49673,7 @@
       <c r="D67" t="s">
         <v>534</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="17">
         <v>5103</v>
       </c>
       <c r="F67" t="s">
@@ -49661,7 +49693,7 @@
       <c r="D68" t="s">
         <v>534</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F68" t="s">
@@ -49681,7 +49713,7 @@
       <c r="D69" t="s">
         <v>534</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="17" t="s">
         <v>551</v>
       </c>
       <c r="F69" t="s">
@@ -49701,7 +49733,7 @@
       <c r="D70" t="s">
         <v>534</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F70" t="s">
@@ -49721,7 +49753,7 @@
       <c r="D71" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="17">
         <v>5103</v>
       </c>
       <c r="F71" t="s">
@@ -49741,7 +49773,7 @@
       <c r="D72" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F72" t="s">
@@ -49761,7 +49793,7 @@
       <c r="D73" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F73" t="s">
@@ -49781,7 +49813,7 @@
       <c r="D74" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F74" t="s">
@@ -49801,7 +49833,7 @@
       <c r="D75" t="s">
         <v>396</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F75" t="s">
@@ -49821,7 +49853,7 @@
       <c r="D76" t="s">
         <v>263</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F76" t="s">
@@ -49841,7 +49873,7 @@
       <c r="D77" t="s">
         <v>263</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F77" t="s">
@@ -49861,7 +49893,7 @@
       <c r="D78" t="s">
         <v>263</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F78" t="s">
@@ -49881,7 +49913,7 @@
       <c r="D79" t="s">
         <v>203</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F79" t="s">
@@ -49901,7 +49933,7 @@
       <c r="D80" t="s">
         <v>203</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F80" t="s">
@@ -49921,7 +49953,7 @@
       <c r="D81" t="s">
         <v>203</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F81" t="s">
@@ -49941,7 +49973,7 @@
       <c r="D82" t="s">
         <v>272</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F82" t="s">
@@ -49961,7 +49993,7 @@
       <c r="D83" t="s">
         <v>272</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F83" t="s">
@@ -49981,7 +50013,7 @@
       <c r="D84" t="s">
         <v>272</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F84" t="s">
@@ -49989,88 +50021,88 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" s="25" t="s">
+      <c r="A85" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" s="24" t="s">
         <v>1148</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="27" t="s">
+      <c r="E85" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="F85" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="G85" s="26"/>
+      <c r="G85" s="25"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B86" s="26" t="s">
+      <c r="A86" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="27" t="s">
+      <c r="E86" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F86" s="26" t="s">
+      <c r="F86" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="G86" s="25"/>
+      <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" s="28" t="s">
+      <c r="A87" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" s="27" t="s">
         <v>1149</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="D87" s="28" t="s">
+      <c r="D87" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="E87" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="F87" s="28" t="s">
+      <c r="F87" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G87" s="28"/>
+      <c r="G87" s="27"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B88" s="28" t="s">
+      <c r="A88" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="27" t="s">
         <v>1145</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="D88" s="28" t="s">
+      <c r="D88" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="F88" s="28" t="s">
+      <c r="F88" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G88" s="28"/>
+      <c r="G88" s="27"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -50085,7 +50117,7 @@
       <c r="D89" t="s">
         <v>51</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F89" t="s">
@@ -50105,7 +50137,7 @@
       <c r="D90" t="s">
         <v>51</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F90" t="s">
@@ -50125,7 +50157,7 @@
       <c r="D91" t="s">
         <v>372</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F91" t="s">
@@ -50145,7 +50177,7 @@
       <c r="D92" t="s">
         <v>372</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F92" t="s">
@@ -50165,7 +50197,7 @@
       <c r="D93" t="s">
         <v>203</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F93" t="s">
@@ -50185,7 +50217,7 @@
       <c r="D94" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F94" t="s">
@@ -50205,7 +50237,7 @@
       <c r="D95" t="s">
         <v>39</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F95" t="s">
@@ -50225,7 +50257,7 @@
       <c r="D96" t="s">
         <v>51</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="17" t="s">
         <v>1120</v>
       </c>
       <c r="F96" t="s">
@@ -50245,7 +50277,7 @@
       <c r="D97" t="s">
         <v>51</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F97" t="s">
@@ -50265,7 +50297,7 @@
       <c r="D98" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -50288,7 +50320,7 @@
       <c r="D99" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F99" s="3" t="s">
@@ -50311,7 +50343,7 @@
       <c r="D100" t="s">
         <v>534</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F100" t="s">
@@ -50331,7 +50363,7 @@
       <c r="D101" t="s">
         <v>253</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F101" t="s">
@@ -50351,7 +50383,7 @@
       <c r="D102" t="s">
         <v>203</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F102" t="s">
@@ -50371,7 +50403,7 @@
       <c r="D103" t="s">
         <v>203</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F103" t="s">
@@ -50391,7 +50423,7 @@
       <c r="D104" t="s">
         <v>229</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F104" t="s">
@@ -50411,7 +50443,7 @@
       <c r="D105" t="s">
         <v>142</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F105" t="s">
@@ -50431,7 +50463,7 @@
       <c r="D106" t="s">
         <v>385</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F106" t="s">
@@ -50451,7 +50483,7 @@
       <c r="D107" t="s">
         <v>385</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E107" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F107" t="s">
@@ -50471,7 +50503,7 @@
       <c r="D108" t="s">
         <v>385</v>
       </c>
-      <c r="E108" s="18" t="s">
+      <c r="E108" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F108" t="s">
@@ -50491,7 +50523,7 @@
       <c r="D109" t="s">
         <v>142</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F109" t="s">
@@ -50511,7 +50543,7 @@
       <c r="D110" t="s">
         <v>142</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="E110" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F110" t="s">
@@ -50531,7 +50563,7 @@
       <c r="D111" t="s">
         <v>385</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F111" t="s">
@@ -50551,7 +50583,7 @@
       <c r="D112" t="s">
         <v>385</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F112" t="s">
@@ -50571,7 +50603,7 @@
       <c r="D113" t="s">
         <v>385</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F113" t="s">
@@ -50591,7 +50623,7 @@
       <c r="D114" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E114" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F114" t="s">
@@ -50611,7 +50643,7 @@
       <c r="D115" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F115" t="s">
@@ -50631,7 +50663,7 @@
       <c r="D116" t="s">
         <v>237</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F116" t="s">
@@ -50651,7 +50683,7 @@
       <c r="D117" t="s">
         <v>237</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F117" t="s">
@@ -50671,7 +50703,7 @@
       <c r="D118" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F118" t="s">
@@ -50691,7 +50723,7 @@
       <c r="D119" t="s">
         <v>237</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E119" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F119" t="s">
@@ -50711,7 +50743,7 @@
       <c r="D120" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="E120" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F120" t="s">
@@ -50731,7 +50763,7 @@
       <c r="D121" t="s">
         <v>534</v>
       </c>
-      <c r="E121" s="18" t="s">
+      <c r="E121" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F121" t="s">
@@ -50752,7 +50784,7 @@
       <c r="D122" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="20"/>
+      <c r="E122" s="19"/>
       <c r="F122" s="3"/>
       <c r="G122" s="2" t="s">
         <v>1099</v>
@@ -50792,7 +50824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
@@ -50806,7 +50838,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>681</v>
       </c>
     </row>
@@ -50814,27 +50846,27 @@
       <c r="B2" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -50873,7 +50905,7 @@
       <c r="D10" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>556</v>
       </c>
       <c r="F10" t="s">
@@ -50938,7 +50970,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
@@ -50952,7 +50984,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1013</v>
       </c>
       <c r="B16" t="s">
@@ -50980,7 +51012,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>1015</v>
       </c>
       <c r="B18" t="s">
@@ -51005,7 +51037,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>1012</v>
       </c>
       <c r="B20" t="s">
@@ -51182,7 +51214,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B31" t="s">
@@ -51196,7 +51228,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>732</v>
       </c>
       <c r="B32" t="s">
@@ -51585,7 +51617,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="30" t="s">
         <v>1007</v>
       </c>
       <c r="B60" t="s">
@@ -51599,7 +51631,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="30" t="s">
         <v>1008</v>
       </c>
       <c r="B61" t="s">
@@ -51613,7 +51645,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>1006</v>
       </c>
       <c r="B62" t="s">
@@ -52845,13 +52877,13 @@
     <col min="2" max="2" width="35.21875" customWidth="1"/>
     <col min="3" max="3" width="68.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>640</v>
       </c>
     </row>
@@ -52876,12 +52908,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -52898,7 +52930,7 @@
       <c r="D9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -52921,7 +52953,7 @@
       <c r="D11" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F11" t="s">
@@ -52941,7 +52973,7 @@
       <c r="D12" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F12" t="s">
@@ -52961,7 +52993,7 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="F13" t="s">
@@ -52981,7 +53013,7 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="F14" t="s">
@@ -53001,7 +53033,7 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="F15" t="s">
@@ -53021,7 +53053,7 @@
       <c r="D16" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="F16" t="s">
@@ -53044,7 +53076,7 @@
       <c r="D17" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>1115</v>
       </c>
       <c r="F17" t="s">
@@ -53067,7 +53099,7 @@
       <c r="D18" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>1116</v>
       </c>
       <c r="F18" t="s">
@@ -53087,7 +53119,7 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>1116</v>
       </c>
       <c r="F19" t="s">
@@ -53107,7 +53139,7 @@
       <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>1116</v>
       </c>
       <c r="F20" t="s">
@@ -53123,11 +53155,11 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>646</v>
       </c>
     </row>
@@ -53152,12 +53184,12 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -53177,7 +53209,7 @@
       <c r="D32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -53200,7 +53232,7 @@
       <c r="D34" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F34" t="s">
@@ -53220,7 +53252,7 @@
       <c r="D35" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F35" t="s">
@@ -53240,7 +53272,7 @@
       <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -53257,7 +53289,7 @@
       <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>1120</v>
       </c>
       <c r="F37" t="s">
@@ -53277,7 +53309,7 @@
       <c r="D38" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F38" t="s">
@@ -53297,7 +53329,7 @@
       <c r="D39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>125</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -53320,7 +53352,7 @@
       <c r="D40" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F40" t="s">
@@ -53340,7 +53372,7 @@
       <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F41" t="s">
@@ -53360,7 +53392,7 @@
       <c r="D42" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F42" t="s">
@@ -53380,7 +53412,7 @@
       <c r="D43" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F43" t="s">
@@ -53400,7 +53432,7 @@
       <c r="D44" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>460</v>
       </c>
       <c r="F44" t="s">
@@ -53420,7 +53452,7 @@
       <c r="D45" t="s">
         <v>203</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F45" t="s">
@@ -53440,7 +53472,7 @@
       <c r="D46" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F46" t="s">
@@ -53460,7 +53492,7 @@
       <c r="D47" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F47" t="s">
@@ -53480,7 +53512,7 @@
       <c r="D48" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F48" t="s">
@@ -53500,7 +53532,7 @@
       <c r="D49" t="s">
         <v>263</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F49" t="s">
@@ -53520,7 +53552,7 @@
       <c r="D50" t="s">
         <v>263</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F50" t="s">
@@ -53540,7 +53572,7 @@
       <c r="D51" t="s">
         <v>263</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F51" t="s">
@@ -53560,7 +53592,7 @@
       <c r="D52" t="s">
         <v>263</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F52" t="s">
@@ -53568,7 +53600,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>948</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -53580,7 +53612,7 @@
       <c r="D53" t="s">
         <v>203</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F53" t="s">
@@ -53588,25 +53620,25 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="24" t="s">
         <v>944</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>1127</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="G54" s="25"/>
+      <c r="G54" s="24"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -53621,7 +53653,7 @@
       <c r="D55" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F55" t="s">
@@ -53641,7 +53673,7 @@
       <c r="D56" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F56" t="s">
@@ -53649,25 +53681,25 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="27" t="s">
         <v>945</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="27" t="s">
         <v>1126</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G57" s="28"/>
+      <c r="G57" s="27"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -53682,7 +53714,7 @@
       <c r="D58" t="s">
         <v>364</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>510</v>
       </c>
       <c r="F58" t="s">
@@ -53702,7 +53734,7 @@
       <c r="D59" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F59" t="s">
@@ -53722,7 +53754,7 @@
       <c r="D60" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F60" t="s">
@@ -53742,7 +53774,7 @@
       <c r="D61" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F61" t="s">
@@ -53762,7 +53794,7 @@
       <c r="D62" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F62" t="s">
@@ -53782,7 +53814,7 @@
       <c r="D63" t="s">
         <v>534</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="17">
         <v>5103</v>
       </c>
       <c r="F63" t="s">
@@ -53802,7 +53834,7 @@
       <c r="D64" t="s">
         <v>534</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F64" t="s">
@@ -53822,7 +53854,7 @@
       <c r="D65" t="s">
         <v>534</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>551</v>
       </c>
       <c r="F65" t="s">
@@ -53842,7 +53874,7 @@
       <c r="D66" t="s">
         <v>534</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F66" t="s">
@@ -53862,7 +53894,7 @@
       <c r="D67" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="17">
         <v>5103</v>
       </c>
       <c r="F67" t="s">
@@ -53882,7 +53914,7 @@
       <c r="D68" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F68" t="s">
@@ -53902,7 +53934,7 @@
       <c r="D69" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F69" t="s">
@@ -53922,7 +53954,7 @@
       <c r="D70" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F70" t="s">
@@ -53942,7 +53974,7 @@
       <c r="D71" t="s">
         <v>396</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F71" t="s">
@@ -53962,7 +53994,7 @@
       <c r="D72" t="s">
         <v>263</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F72" t="s">
@@ -53982,7 +54014,7 @@
       <c r="D73" t="s">
         <v>263</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F73" t="s">
@@ -54002,7 +54034,7 @@
       <c r="D74" t="s">
         <v>263</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F74" t="s">
@@ -54022,7 +54054,7 @@
       <c r="D75" t="s">
         <v>203</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F75" t="s">
@@ -54042,7 +54074,7 @@
       <c r="D76" t="s">
         <v>203</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F76" t="s">
@@ -54062,7 +54094,7 @@
       <c r="D77" t="s">
         <v>203</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F77" t="s">
@@ -54082,7 +54114,7 @@
       <c r="D78" t="s">
         <v>272</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F78" t="s">
@@ -54102,7 +54134,7 @@
       <c r="D79" t="s">
         <v>272</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F79" t="s">
@@ -54122,7 +54154,7 @@
       <c r="D80" t="s">
         <v>272</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F80" t="s">
@@ -54130,88 +54162,88 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B81" s="25" t="s">
+      <c r="A81" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="24" t="s">
         <v>1148</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="27" t="s">
+      <c r="E81" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="F81" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="G81" s="26"/>
+      <c r="G81" s="25"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B82" s="26" t="s">
+      <c r="A82" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="F82" s="26" t="s">
+      <c r="F82" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="G82" s="25"/>
+      <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" s="28" t="s">
+      <c r="A83" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="27" t="s">
         <v>1149</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G83" s="28"/>
+      <c r="G83" s="27"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B84" s="28" t="s">
+      <c r="A84" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="27" t="s">
         <v>1145</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D84" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="F84" s="28" t="s">
+      <c r="F84" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="G84" s="28"/>
+      <c r="G84" s="27"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -54226,7 +54258,7 @@
       <c r="D85" t="s">
         <v>51</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F85" t="s">
@@ -54246,7 +54278,7 @@
       <c r="D86" t="s">
         <v>51</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F86" t="s">
@@ -54266,7 +54298,7 @@
       <c r="D87" t="s">
         <v>372</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F87" t="s">
@@ -54286,7 +54318,7 @@
       <c r="D88" t="s">
         <v>372</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F88" t="s">
@@ -54306,7 +54338,7 @@
       <c r="D89" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F89" t="s">
@@ -54326,7 +54358,7 @@
       <c r="D90" t="s">
         <v>39</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F90" t="s">
@@ -54346,7 +54378,7 @@
       <c r="D91" t="s">
         <v>39</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F91" t="s">
@@ -54366,7 +54398,7 @@
       <c r="D92" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="17" t="s">
         <v>1120</v>
       </c>
       <c r="F92" t="s">
@@ -54386,7 +54418,7 @@
       <c r="D93" t="s">
         <v>51</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F93" t="s">
@@ -54406,7 +54438,7 @@
       <c r="D94" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F94" s="3" t="s">
@@ -54429,7 +54461,7 @@
       <c r="D95" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="19" t="s">
         <v>423</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -54452,7 +54484,7 @@
       <c r="D96" t="s">
         <v>534</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="17" t="s">
         <v>375</v>
       </c>
       <c r="F96" t="s">
@@ -54472,7 +54504,7 @@
       <c r="D97" t="s">
         <v>253</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F97" t="s">
@@ -54492,7 +54524,7 @@
       <c r="D98" t="s">
         <v>203</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F98" t="s">
@@ -54512,7 +54544,7 @@
       <c r="D99" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F99" t="s">
@@ -54532,7 +54564,7 @@
       <c r="D100" t="s">
         <v>229</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F100" t="s">
@@ -54552,7 +54584,7 @@
       <c r="D101" t="s">
         <v>142</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F101" t="s">
@@ -54572,7 +54604,7 @@
       <c r="D102" t="s">
         <v>385</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F102" t="s">
@@ -54592,7 +54624,7 @@
       <c r="D103" t="s">
         <v>385</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F103" t="s">
@@ -54612,7 +54644,7 @@
       <c r="D104" t="s">
         <v>385</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F104" t="s">
@@ -54632,7 +54664,7 @@
       <c r="D105" t="s">
         <v>142</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F105" t="s">
@@ -54652,7 +54684,7 @@
       <c r="D106" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F106" t="s">
@@ -54672,7 +54704,7 @@
       <c r="D107" t="s">
         <v>385</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E107" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F107" t="s">
@@ -54692,7 +54724,7 @@
       <c r="D108" t="s">
         <v>385</v>
       </c>
-      <c r="E108" s="18" t="s">
+      <c r="E108" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F108" t="s">
@@ -54712,7 +54744,7 @@
       <c r="D109" t="s">
         <v>385</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F109" t="s">
@@ -54732,7 +54764,7 @@
       <c r="D110" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="E110" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F110" t="s">
@@ -54752,7 +54784,7 @@
       <c r="D111" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F111" t="s">
@@ -54772,7 +54804,7 @@
       <c r="D112" t="s">
         <v>237</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F112" t="s">
@@ -54792,7 +54824,7 @@
       <c r="D113" t="s">
         <v>237</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F113" t="s">
@@ -54812,7 +54844,7 @@
       <c r="D114" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E114" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F114" t="s">
@@ -54832,7 +54864,7 @@
       <c r="D115" t="s">
         <v>237</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F115" t="s">
@@ -54852,7 +54884,7 @@
       <c r="D116" t="s">
         <v>5</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F116" t="s">
@@ -54872,7 +54904,7 @@
       <c r="D117" t="s">
         <v>534</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F117" t="s">
@@ -54893,7 +54925,7 @@
       <c r="D118" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="20"/>
+      <c r="E118" s="19"/>
       <c r="F118" s="3"/>
       <c r="G118" s="2" t="s">
         <v>1099</v>
@@ -54933,7 +54965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -54947,7 +54979,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>681</v>
       </c>
     </row>
@@ -54955,27 +54987,27 @@
       <c r="B2" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -55014,7 +55046,7 @@
       <c r="D10" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>556</v>
       </c>
       <c r="F10" t="s">
@@ -55079,7 +55111,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
@@ -55093,7 +55125,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>1013</v>
       </c>
       <c r="B16" t="s">
@@ -55121,7 +55153,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>1015</v>
       </c>
       <c r="B18" t="s">
@@ -55146,7 +55178,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>1012</v>
       </c>
       <c r="B20" t="s">
@@ -55323,7 +55355,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B31" t="s">
@@ -55337,7 +55369,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>732</v>
       </c>
       <c r="B32" t="s">
@@ -55726,7 +55758,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="30" t="s">
         <v>1007</v>
       </c>
       <c r="B60" t="s">
@@ -55740,7 +55772,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="30" t="s">
         <v>1008</v>
       </c>
       <c r="B61" t="s">
@@ -55754,7 +55786,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>1006</v>
       </c>
       <c r="B62" t="s">
@@ -56974,15 +57006,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
@@ -56993,16 +57025,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
@@ -57010,7 +57042,7 @@
       </c>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
       <c r="F3"/>
       <c r="G3"/>
     </row>
@@ -57018,35 +57050,35 @@
       <c r="B4" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>668</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -57061,7 +57093,7 @@
       <c r="D10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -57084,7 +57116,7 @@
       <c r="D12" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>151</v>
       </c>
       <c r="F12" t="s">
@@ -57092,108 +57124,105 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" t="s">
         <v>190</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>204</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="14"/>
-    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1170</v>
+      </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>509</v>
       </c>
       <c r="D15" t="s">
         <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>408</v>
+      </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="G16" s="7"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1164</v>
+      </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1165</v>
+      </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
         <v>146</v>
@@ -57201,55 +57230,62 @@
       <c r="F18" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="7"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1168</v>
+      </c>
       <c r="B19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>150</v>
+      </c>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1169</v>
+      </c>
       <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" t="s">
-        <v>148</v>
+        <v>138</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1166</v>
+      </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
         <v>146</v>
@@ -57257,14 +57293,16 @@
       <c r="F21" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1167</v>
+      </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
         <v>142</v>
@@ -57275,194 +57313,227 @@
       <c r="F22" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1160</v>
+      </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
         <v>142</v>
       </c>
       <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
         <v>146</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
         <v>147</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1163</v>
+      </c>
       <c r="B26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>226</v>
+      </c>
       <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>152</v>
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>509</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
       <c r="B29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>394</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
+        <v>139</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
       <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>514</v>
-      </c>
-      <c r="D30" t="s">
-        <v>372</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>513</v>
       </c>
       <c r="D31" t="s">
         <v>372</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>151</v>
       </c>
       <c r="F31" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>226</v>
+      </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>395</v>
+        <v>513</v>
       </c>
       <c r="D32" t="s">
-        <v>396</v>
-      </c>
-      <c r="E32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>151</v>
       </c>
       <c r="F32" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>527</v>
+        <v>395</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>396</v>
       </c>
       <c r="E33" t="s">
         <v>151</v>
@@ -57470,11 +57541,35 @@
       <c r="F33" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E36" s="18"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>527</v>
+      </c>
+      <c r="D34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" t="s">
+        <v>376</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="14"/>
     </row>
   </sheetData>
+  <sortState ref="A15:F34">
+    <sortCondition ref="A14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5698" uniqueCount="1171">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3652,7 +3652,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3683,7 +3683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4003,7 +4002,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>640</v>
       </c>
     </row>
@@ -4028,12 +4027,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>660</v>
       </c>
     </row>
@@ -4430,7 +4429,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>646</v>
       </c>
     </row>
@@ -4455,37 +4454,37 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="19" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="19" t="s">
         <v>951</v>
       </c>
     </row>
@@ -4628,7 +4627,7 @@
       <c r="D51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -5119,7 +5118,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="28" t="s">
         <v>948</v>
       </c>
       <c r="B76" t="s">
@@ -5139,25 +5138,25 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F77" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G77" s="24"/>
+      <c r="G77" s="23"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -5220,25 +5219,25 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="26" t="s">
         <v>947</v>
       </c>
-      <c r="D81" s="27" t="s">
+      <c r="D81" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F81" s="27" t="s">
+      <c r="F81" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G81" s="27"/>
+      <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -6107,88 +6106,88 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125" s="24" t="s">
+      <c r="A125" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C125" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="D125" s="25" t="s">
+      <c r="D125" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E125" s="26" t="s">
+      <c r="E125" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F125" s="25" t="s">
+      <c r="F125" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G125" s="25"/>
+      <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B126" s="25" t="s">
+      <c r="A126" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E126" s="26" t="s">
+      <c r="E126" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F126" s="25" t="s">
+      <c r="F126" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="G126" s="24"/>
+      <c r="G126" s="23"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B127" s="27" t="s">
+      <c r="A127" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="D127" s="27" t="s">
+      <c r="D127" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E127" s="28" t="s">
+      <c r="E127" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F127" s="27" t="s">
+      <c r="F127" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G127" s="27"/>
+      <c r="G127" s="26"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B128" s="27" t="s">
+      <c r="A128" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="C128" s="27" t="s">
+      <c r="C128" s="26" t="s">
         <v>946</v>
       </c>
-      <c r="D128" s="27" t="s">
+      <c r="D128" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E128" s="28" t="s">
+      <c r="E128" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F128" s="27" t="s">
+      <c r="F128" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G128" s="27"/>
+      <c r="G128" s="26"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
@@ -6277,7 +6276,7 @@
       <c r="B133" t="s">
         <v>308</v>
       </c>
-      <c r="C133" s="29" t="s">
+      <c r="C133" s="28" t="s">
         <v>484</v>
       </c>
       <c r="D133" t="s">
@@ -6297,7 +6296,7 @@
       <c r="B134" t="s">
         <v>309</v>
       </c>
-      <c r="C134" s="29" t="s">
+      <c r="C134" s="28" t="s">
         <v>484</v>
       </c>
       <c r="D134" t="s">
@@ -6317,7 +6316,7 @@
       <c r="B135" t="s">
         <v>312</v>
       </c>
-      <c r="C135" s="29" t="s">
+      <c r="C135" s="28" t="s">
         <v>485</v>
       </c>
       <c r="D135" t="s">
@@ -6377,7 +6376,7 @@
       <c r="B138" t="s">
         <v>310</v>
       </c>
-      <c r="C138" s="29" t="s">
+      <c r="C138" s="28" t="s">
         <v>490</v>
       </c>
       <c r="D138" t="s">
@@ -6397,7 +6396,7 @@
       <c r="B139" t="s">
         <v>311</v>
       </c>
-      <c r="C139" s="29" t="s">
+      <c r="C139" s="28" t="s">
         <v>491</v>
       </c>
       <c r="D139" t="s">
@@ -6417,7 +6416,7 @@
       <c r="B140" t="s">
         <v>313</v>
       </c>
-      <c r="C140" s="29" t="s">
+      <c r="C140" s="28" t="s">
         <v>492</v>
       </c>
       <c r="D140" t="s">
@@ -6903,7 +6902,7 @@
       <c r="D164" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E164" s="19" t="s">
+      <c r="E164" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F164" s="3" t="s">
@@ -6926,7 +6925,7 @@
       <c r="D165" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E165" s="19" t="s">
+      <c r="E165" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F165" s="3" t="s">
@@ -7453,7 +7452,7 @@
       <c r="D191" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E191" s="19"/>
+      <c r="E191" s="18"/>
       <c r="F191" s="3"/>
       <c r="G191" s="2" t="s">
         <v>1099</v>
@@ -7472,7 +7471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -7488,7 +7487,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>646</v>
       </c>
       <c r="E1" s="17"/>
@@ -7518,25 +7517,25 @@
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>1049</v>
       </c>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>1050</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>1051</v>
       </c>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>1052</v>
       </c>
       <c r="E9" s="17"/>
@@ -7624,7 +7623,7 @@
       <c r="D15" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -8164,7 +8163,7 @@
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -8218,7 +8217,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>646</v>
       </c>
       <c r="E1" s="17"/>
@@ -8248,7 +8247,7 @@
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -8416,7 +8415,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>681</v>
       </c>
     </row>
@@ -8436,12 +8435,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>660</v>
       </c>
     </row>
@@ -8544,7 +8543,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
@@ -8558,7 +8557,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>1013</v>
       </c>
       <c r="B16" t="s">
@@ -8586,7 +8585,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>1015</v>
       </c>
       <c r="B18" t="s">
@@ -8611,7 +8610,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>1012</v>
       </c>
       <c r="B20" t="s">
@@ -8898,7 +8897,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B39" t="s">
@@ -8912,7 +8911,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="29" t="s">
         <v>732</v>
       </c>
       <c r="B40" t="s">
@@ -9217,7 +9216,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>1017</v>
       </c>
       <c r="B62" t="s">
@@ -9315,7 +9314,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="29" t="s">
         <v>1007</v>
       </c>
       <c r="B69" t="s">
@@ -9329,7 +9328,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="29" t="s">
         <v>1008</v>
       </c>
       <c r="B70" t="s">
@@ -9343,7 +9342,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="29" t="s">
         <v>1006</v>
       </c>
       <c r="B71" t="s">
@@ -10827,7 +10826,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>640</v>
       </c>
       <c r="E1" s="17"/>
@@ -10857,13 +10856,13 @@
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>657</v>
       </c>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>658</v>
       </c>
       <c r="E7" s="17"/>
@@ -11460,7 +11459,7 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:16381" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>646</v>
       </c>
       <c r="E39" s="17"/>
@@ -11490,19 +11489,19 @@
       <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:16381" x14ac:dyDescent="0.3">
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="19" t="s">
         <v>657</v>
       </c>
       <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:16381" x14ac:dyDescent="0.3">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>658</v>
       </c>
       <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:16381" x14ac:dyDescent="0.3">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="20" t="s">
         <v>659</v>
       </c>
       <c r="E46" s="17"/>
@@ -44324,7 +44323,7 @@
       <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F51" t="s">
@@ -44345,7 +44344,7 @@
       <c r="D52" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -44366,7 +44365,7 @@
       <c r="D53" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -44428,7 +44427,7 @@
       <c r="D56" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -44449,7 +44448,7 @@
       <c r="D57" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -44470,7 +44469,7 @@
       <c r="D58" t="s">
         <v>142</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -44499,7 +44498,7 @@
       <c r="D59" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -44576,7 +44575,7 @@
       <c r="D62" t="s">
         <v>200</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -44597,7 +44596,7 @@
       <c r="D63" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -44646,7 +44645,7 @@
       <c r="D65" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -44667,7 +44666,7 @@
       <c r="D66" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -44696,7 +44695,7 @@
       <c r="D67" t="s">
         <v>203</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -44859,7 +44858,7 @@
       <c r="D74" t="s">
         <v>534</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -44880,7 +44879,7 @@
       <c r="D75" t="s">
         <v>534</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -44901,7 +44900,7 @@
       <c r="D76" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F76" s="3" t="s">
@@ -44924,7 +44923,7 @@
       <c r="D77" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -44945,7 +44944,7 @@
       <c r="D78" t="s">
         <v>203</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="18" t="s">
         <v>556</v>
       </c>
       <c r="F78" s="3" t="s">
@@ -44974,7 +44973,7 @@
       <c r="D79" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="E79" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -45003,7 +45002,7 @@
       <c r="D80" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -45032,7 +45031,7 @@
       <c r="D81" t="s">
         <v>203</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -45117,7 +45116,7 @@
       <c r="D84" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -45146,7 +45145,7 @@
       <c r="D85" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="18" t="s">
         <v>556</v>
       </c>
       <c r="F85" s="3" t="s">
@@ -45175,7 +45174,7 @@
       <c r="D86" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -45204,7 +45203,7 @@
       <c r="D87" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="E87" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F87" s="3" t="s">
@@ -45233,7 +45232,7 @@
       <c r="D88" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F88" s="3" t="s">
@@ -45262,7 +45261,7 @@
       <c r="D89" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F89" s="3" t="s">
@@ -45320,7 +45319,7 @@
       <c r="D91" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F91" s="3" t="s">
@@ -45351,7 +45350,7 @@
       <c r="D92" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="E92" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F92" s="3" t="s">
@@ -45380,7 +45379,7 @@
       <c r="D93" t="s">
         <v>104</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F93" s="3" t="s">
@@ -45409,7 +45408,7 @@
       <c r="D94" t="s">
         <v>104</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F94" s="3" t="s">
@@ -45438,7 +45437,7 @@
       <c r="D95" t="s">
         <v>104</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -45467,7 +45466,7 @@
       <c r="D96" t="s">
         <v>104</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F96" s="3" t="s">
@@ -45496,7 +45495,7 @@
       <c r="D97" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="E97" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F97" s="3" t="s">
@@ -45525,7 +45524,7 @@
       <c r="D98" t="s">
         <v>111</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="18" t="s">
         <v>556</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -45554,7 +45553,7 @@
       <c r="D99" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F99" s="3" t="s">
@@ -45585,7 +45584,7 @@
       <c r="D100" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="E100" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F100" s="3" t="s">
@@ -45614,7 +45613,7 @@
       <c r="D101" t="s">
         <v>79</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F101" s="3" t="s">
@@ -45643,7 +45642,7 @@
       <c r="D102" t="s">
         <v>614</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="18" t="s">
         <v>556</v>
       </c>
       <c r="F102" s="3" t="s">
@@ -45782,7 +45781,7 @@
       <c r="D107" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F107" s="3" t="s">
@@ -45953,7 +45952,7 @@
       <c r="D113" t="s">
         <v>2</v>
       </c>
-      <c r="E113" s="19" t="s">
+      <c r="E113" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F113" s="3" t="s">
@@ -46001,7 +46000,7 @@
       <c r="D115" t="s">
         <v>534</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="E115" s="18" t="s">
         <v>556</v>
       </c>
       <c r="F115" s="3" t="s">
@@ -46030,7 +46029,7 @@
       <c r="D116" t="s">
         <v>534</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="E116" s="18" t="s">
         <v>556</v>
       </c>
       <c r="F116" s="3" t="s">
@@ -46059,7 +46058,7 @@
       <c r="D117" t="s">
         <v>534</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="18" t="s">
         <v>556</v>
       </c>
       <c r="F117" s="3" t="s">
@@ -46088,7 +46087,7 @@
       <c r="D118" t="s">
         <v>534</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="E118" s="18" t="s">
         <v>556</v>
       </c>
       <c r="F118" s="3" t="s">
@@ -46117,7 +46116,7 @@
       <c r="D119" t="s">
         <v>142</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="E119" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F119" s="3" t="s">
@@ -46146,7 +46145,7 @@
       <c r="D120" t="s">
         <v>142</v>
       </c>
-      <c r="E120" s="19" t="s">
+      <c r="E120" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F120" s="3" t="s">
@@ -46175,7 +46174,7 @@
       <c r="D121" t="s">
         <v>142</v>
       </c>
-      <c r="E121" s="19" t="s">
+      <c r="E121" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F121" s="3" t="s">
@@ -46204,7 +46203,7 @@
       <c r="D122" t="s">
         <v>142</v>
       </c>
-      <c r="E122" s="19" t="s">
+      <c r="E122" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F122" s="3" t="s">
@@ -46233,7 +46232,7 @@
       <c r="D123" t="s">
         <v>142</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F123" s="3" t="s">
@@ -46254,7 +46253,7 @@
       <c r="D124" t="s">
         <v>571</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F124" s="3" t="s">
@@ -46283,7 +46282,7 @@
       <c r="D125" t="s">
         <v>203</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F125" s="3" t="s">
@@ -46314,7 +46313,7 @@
       <c r="D126" t="s">
         <v>576</v>
       </c>
-      <c r="E126" s="19" t="s">
+      <c r="E126" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -46343,7 +46342,7 @@
       <c r="D127" t="s">
         <v>142</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F127" s="3" t="s">
@@ -46372,7 +46371,7 @@
       <c r="D128" t="s">
         <v>104</v>
       </c>
-      <c r="E128" s="19" t="s">
+      <c r="E128" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F128" s="3" t="s">
@@ -46401,7 +46400,7 @@
       <c r="D129" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F129" s="3" t="s">
@@ -46429,7 +46428,7 @@
       <c r="D130" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="19" t="s">
+      <c r="E130" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F130" s="3" t="s">
@@ -46458,7 +46457,7 @@
       <c r="D131" t="s">
         <v>5</v>
       </c>
-      <c r="E131" s="19" t="s">
+      <c r="E131" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F131" s="3" t="s">
@@ -46487,7 +46486,7 @@
       <c r="D132" t="s">
         <v>5</v>
       </c>
-      <c r="E132" s="19" t="s">
+      <c r="E132" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F132" s="3" t="s">
@@ -46516,7 +46515,7 @@
       <c r="D133" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="19" t="s">
+      <c r="E133" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -46545,7 +46544,7 @@
       <c r="D134" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="19" t="s">
+      <c r="E134" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F134" s="3" t="s">
@@ -46574,7 +46573,7 @@
       <c r="D135" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="19" t="s">
+      <c r="E135" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F135" s="3" t="s">
@@ -46595,7 +46594,7 @@
       <c r="D136" t="s">
         <v>534</v>
       </c>
-      <c r="E136" s="19" t="s">
+      <c r="E136" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F136" s="3" t="s">
@@ -46616,7 +46615,7 @@
       <c r="D137" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="19" t="s">
+      <c r="E137" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F137" s="3" t="s">
@@ -46672,7 +46671,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>681</v>
       </c>
     </row>
@@ -46680,32 +46679,32 @@
       <c r="B2" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>659</v>
       </c>
     </row>
@@ -46809,7 +46808,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>1014</v>
       </c>
       <c r="B16" t="s">
@@ -46823,7 +46822,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
@@ -46851,7 +46850,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
@@ -46876,7 +46875,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>1012</v>
       </c>
       <c r="B21" t="s">
@@ -47053,7 +47052,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B32" t="s">
@@ -47067,7 +47066,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
         <v>732</v>
       </c>
       <c r="B33" t="s">
@@ -47456,7 +47455,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
         <v>1007</v>
       </c>
       <c r="B61" t="s">
@@ -47470,7 +47469,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>1008</v>
       </c>
       <c r="B62" t="s">
@@ -47484,7 +47483,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>1006</v>
       </c>
       <c r="B63" t="s">
@@ -48706,8 +48705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48722,7 +48721,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>640</v>
       </c>
     </row>
@@ -48747,12 +48746,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -48993,12 +48992,18 @@
         <v>1114</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>646</v>
       </c>
     </row>
@@ -49023,32 +49028,32 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -49188,7 +49193,7 @@
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -49459,7 +49464,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>948</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -49479,25 +49484,25 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>1127</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G58" s="24"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -49540,25 +49545,25 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>1126</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="26" t="s">
         <v>947</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="E61" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G61" s="27"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -50021,88 +50026,88 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" s="24" t="s">
+      <c r="A85" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" s="23" t="s">
         <v>1148</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E85" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F85" s="25" t="s">
+      <c r="F85" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G85" s="25"/>
+      <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B86" s="25" t="s">
+      <c r="A86" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E86" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F86" s="25" t="s">
+      <c r="F86" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="G86" s="24"/>
+      <c r="G86" s="23"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" s="27" t="s">
+      <c r="A87" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" s="26" t="s">
         <v>1149</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="F87" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G87" s="27"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B88" s="27" t="s">
+      <c r="A88" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="26" t="s">
         <v>946</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="E88" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F88" s="27" t="s">
+      <c r="F88" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G88" s="27"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -50297,7 +50302,7 @@
       <c r="D98" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -50320,7 +50325,7 @@
       <c r="D99" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F99" s="3" t="s">
@@ -50784,7 +50789,7 @@
       <c r="D122" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="19"/>
+      <c r="E122" s="18"/>
       <c r="F122" s="3"/>
       <c r="G122" s="2" t="s">
         <v>1099</v>
@@ -50838,7 +50843,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>681</v>
       </c>
     </row>
@@ -50846,27 +50851,27 @@
       <c r="B2" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -50970,7 +50975,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
@@ -50984,7 +50989,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>1013</v>
       </c>
       <c r="B16" t="s">
@@ -51012,7 +51017,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>1015</v>
       </c>
       <c r="B18" t="s">
@@ -51037,7 +51042,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>1012</v>
       </c>
       <c r="B20" t="s">
@@ -51214,7 +51219,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B31" t="s">
@@ -51228,7 +51233,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>732</v>
       </c>
       <c r="B32" t="s">
@@ -51617,7 +51622,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="29" t="s">
         <v>1007</v>
       </c>
       <c r="B60" t="s">
@@ -51631,7 +51636,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
         <v>1008</v>
       </c>
       <c r="B61" t="s">
@@ -51645,7 +51650,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>1006</v>
       </c>
       <c r="B62" t="s">
@@ -52867,8 +52872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52883,7 +52888,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>640</v>
       </c>
     </row>
@@ -52908,12 +52913,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -53154,12 +53159,18 @@
         <v>1114</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>646</v>
       </c>
     </row>
@@ -53184,12 +53195,12 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -53329,7 +53340,7 @@
       <c r="D39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -53600,7 +53611,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>948</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -53620,25 +53631,25 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="23" t="s">
         <v>1127</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G54" s="24"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -53681,25 +53692,25 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>1126</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="26" t="s">
         <v>947</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G57" s="27"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -54162,88 +54173,88 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B81" s="24" t="s">
+      <c r="A81" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="23" t="s">
         <v>1148</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="F81" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G81" s="25"/>
+      <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B82" s="25" t="s">
+      <c r="A82" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E82" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F82" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="G82" s="24"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" s="27" t="s">
+      <c r="A83" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="26" t="s">
         <v>1149</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F83" s="27" t="s">
+      <c r="F83" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G83" s="27"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B84" s="27" t="s">
+      <c r="A84" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="26" t="s">
         <v>946</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F84" s="27" t="s">
+      <c r="F84" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G84" s="27"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -54438,7 +54449,7 @@
       <c r="D94" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F94" s="3" t="s">
@@ -54461,7 +54472,7 @@
       <c r="D95" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="18" t="s">
         <v>423</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -54925,7 +54936,7 @@
       <c r="D118" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="19"/>
+      <c r="E118" s="18"/>
       <c r="F118" s="3"/>
       <c r="G118" s="2" t="s">
         <v>1099</v>
@@ -54979,7 +54990,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>681</v>
       </c>
     </row>
@@ -54987,27 +54998,27 @@
       <c r="B2" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -55111,7 +55122,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
@@ -55125,7 +55136,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>1013</v>
       </c>
       <c r="B16" t="s">
@@ -55153,7 +55164,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>1015</v>
       </c>
       <c r="B18" t="s">
@@ -55178,7 +55189,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>1012</v>
       </c>
       <c r="B20" t="s">
@@ -55355,7 +55366,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B31" t="s">
@@ -55369,7 +55380,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="29" t="s">
         <v>732</v>
       </c>
       <c r="B32" t="s">
@@ -55758,7 +55769,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="29" t="s">
         <v>1007</v>
       </c>
       <c r="B60" t="s">
@@ -55772,7 +55783,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
         <v>1008</v>
       </c>
       <c r="B61" t="s">
@@ -55786,7 +55797,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>1006</v>
       </c>
       <c r="B62" t="s">
@@ -57025,7 +57036,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>646</v>
       </c>
       <c r="E1" s="17"/>
@@ -57059,19 +57070,19 @@
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>667</v>
       </c>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>668</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>669</v>
       </c>
       <c r="E8" s="17"/>

--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -7471,8 +7471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52872,7 +52872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -54976,8 +54976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5698" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5698" uniqueCount="1174">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3543,6 +3543,15 @@
   </si>
   <si>
     <t>air_temp_CR1000</t>
+  </si>
+  <si>
+    <t>LWLower</t>
+  </si>
+  <si>
+    <t>LWUpper</t>
+  </si>
+  <si>
+    <t>batt_volt_min</t>
   </si>
 </sst>
 </file>
@@ -7471,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7692,7 +7701,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>1173</v>
       </c>
       <c r="B19" t="s">
         <v>1019</v>
@@ -7755,7 +7764,7 @@
         <v>932</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>1171</v>
       </c>
       <c r="C22" t="s">
         <v>516</v>
@@ -7775,7 +7784,7 @@
         <v>933</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>1172</v>
       </c>
       <c r="C23" t="s">
         <v>517</v>
@@ -50829,7 +50838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>

--- a/Resources/EmpreinteVariableDescription.xlsx
+++ b/Resources/EmpreinteVariableDescription.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C136A88-A4F3-4C5F-AEEF-B3814C73DF95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5698" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5763" uniqueCount="1175">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3552,12 +3553,15 @@
   </si>
   <si>
     <t>batt_volt_min</t>
+  </si>
+  <si>
+    <t>Agreggated diagnostic code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3992,11 +3996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7477,7 +7481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -8208,7 +8212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8339,7 +8343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8408,11 +8412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10816,7 +10820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFA317"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -46663,7 +46667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -48711,11 +48715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:F21"/>
+      <selection activeCell="B22" sqref="B22:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49000,9 +49004,11 @@
       <c r="B21" t="s">
         <v>1114</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>1174</v>
+      </c>
       <c r="D21" s="3" t="s">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>1116</v>
@@ -49011,479 +49017,479 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="B24" s="21" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="36.6" x14ac:dyDescent="0.7">
+      <c r="B28" s="21" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
         <v>655</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E40" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>397</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="F38" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>931</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C39" t="s">
-        <v>515</v>
-      </c>
-      <c r="D39" t="s">
-        <v>285</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C40" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F41" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>202</v>
       </c>
       <c r="D42" t="s">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>460</v>
+        <v>375</v>
       </c>
       <c r="F42" t="s">
-        <v>462</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>939</v>
+      <c r="A43" t="s">
+        <v>931</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>1099</v>
+        <v>1143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>515</v>
+      </c>
+      <c r="D43" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F43" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>929</v>
+        <v>1122</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>115</v>
+        <v>1123</v>
       </c>
       <c r="C44" t="s">
-        <v>509</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="F44" t="s">
-        <v>376</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>454</v>
+        <v>1121</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>351</v>
+        <v>1119</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="E45" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" t="s">
+        <v>457</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="F45" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>423</v>
-      </c>
       <c r="F46" t="s">
-        <v>188</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>455</v>
+      <c r="A47" s="3" t="s">
+        <v>939</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C47" t="s">
-        <v>458</v>
-      </c>
-      <c r="D47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="F47" t="s">
-        <v>461</v>
+        <v>3</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>456</v>
+        <v>929</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>353</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="D48" t="s">
         <v>142</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>460</v>
+        <v>375</v>
       </c>
       <c r="F48" t="s">
-        <v>461</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>125</v>
+        <v>460</v>
       </c>
       <c r="F49" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>408</v>
+      <c r="A50" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" t="s">
-        <v>394</v>
+        <v>1142</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F50" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>415</v>
+        <v>352</v>
+      </c>
+      <c r="C51" t="s">
+        <v>458</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>417</v>
+        <v>353</v>
+      </c>
+      <c r="C52" t="s">
+        <v>459</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>421</v>
+        <v>356</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>431</v>
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>394</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F54" t="s">
-        <v>214</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
-        <v>948</v>
+      <c r="A57" t="s">
+        <v>413</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C57" t="s">
-        <v>496</v>
+        <v>1147</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="D57" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>423</v>
@@ -49493,58 +49499,57 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
-        <v>944</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="25" t="s">
+      <c r="A58" t="s">
+        <v>433</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D58" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" t="s">
         <v>214</v>
       </c>
-      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>444</v>
+      <c r="A60" t="s">
+        <v>434</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>423</v>
@@ -49554,218 +49559,219 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
-        <v>945</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>947</v>
-      </c>
-      <c r="D61" s="26" t="s">
+      <c r="A61" s="28" t="s">
+        <v>948</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>496</v>
+      </c>
+      <c r="D61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
+        <v>944</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="D62" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E62" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F62" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G61" s="26"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>930</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C62" t="s">
-        <v>512</v>
-      </c>
-      <c r="D62" t="s">
-        <v>364</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="F62" t="s">
-        <v>511</v>
-      </c>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>445</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
+        <v>945</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>947</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" s="26"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>930</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C66" t="s">
+        <v>512</v>
+      </c>
+      <c r="D66" t="s">
+        <v>364</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="F66" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>932</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C67" t="s">
         <v>516</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D67" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E67" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F67" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>933</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C68" t="s">
         <v>517</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D68" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E68" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F68" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D69" t="s">
         <v>39</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E69" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F69" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>934</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C70" t="s">
         <v>521</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D70" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E70" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F70" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>949</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C71" t="s">
         <v>550</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D71" t="s">
         <v>534</v>
-      </c>
-      <c r="E67" s="17">
-        <v>5103</v>
-      </c>
-      <c r="F67" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>953</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" t="s">
-        <v>550</v>
-      </c>
-      <c r="D68" t="s">
-        <v>534</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F68" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D69" t="s">
-        <v>534</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="F69" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D70" t="s">
-        <v>534</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>950</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C71" t="s">
-        <v>552</v>
-      </c>
-      <c r="D71" t="s">
-        <v>5</v>
       </c>
       <c r="E71" s="17">
         <v>5103</v>
@@ -49774,18 +49780,18 @@
         <v>537</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C72" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>534</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>423</v>
@@ -49794,38 +49800,38 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>942</v>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>937</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C73" t="s">
-        <v>548</v>
+        <v>367</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>534</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>423</v>
+        <v>551</v>
       </c>
       <c r="F73" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>943</v>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>938</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C74" t="s">
-        <v>549</v>
+        <v>245</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>534</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>423</v>
@@ -49834,124 +49840,124 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>950</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>123</v>
+        <v>365</v>
       </c>
       <c r="C75" t="s">
-        <v>395</v>
+        <v>552</v>
       </c>
       <c r="D75" t="s">
-        <v>396</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>375</v>
+        <v>5</v>
+      </c>
+      <c r="E75" s="17">
+        <v>5103</v>
       </c>
       <c r="F75" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>941</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>418</v>
+        <v>247</v>
+      </c>
+      <c r="C76" t="s">
+        <v>547</v>
       </c>
       <c r="D76" t="s">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>942</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>419</v>
+        <v>248</v>
+      </c>
+      <c r="C77" t="s">
+        <v>548</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F77" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>943</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>420</v>
+        <v>249</v>
+      </c>
+      <c r="C78" t="s">
+        <v>549</v>
       </c>
       <c r="D78" t="s">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F78" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>226</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>429</v>
+        <v>123</v>
+      </c>
+      <c r="C79" t="s">
+        <v>395</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>396</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="F79" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>226</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1151</v>
+        <v>1129</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -49959,19 +49965,19 @@
         <v>226</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>252</v>
+        <v>1130</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F81" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -49979,13 +49985,13 @@
         <v>226</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>423</v>
@@ -49999,19 +50005,19 @@
         <v>226</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1133</v>
+        <v>334</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -50019,203 +50025,203 @@
         <v>226</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1134</v>
+        <v>1151</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D84" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D85" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D86" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F86" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" s="23" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D87" t="s">
+        <v>272</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D88" t="s">
+        <v>272</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" s="23" t="s">
         <v>1148</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C89" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D89" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="25" t="s">
+      <c r="E89" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F89" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G85" s="24"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B86" s="24" t="s">
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B90" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C90" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D90" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="25" t="s">
+      <c r="E90" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F86" s="24" t="s">
+      <c r="F90" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="G86" s="23"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" s="26" t="s">
+      <c r="G90" s="23"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" s="26" t="s">
         <v>1149</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C91" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D91" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="27" t="s">
+      <c r="E91" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F87" s="26" t="s">
+      <c r="F91" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G87" s="26"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B88" s="26" t="s">
+      <c r="G91" s="26"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C92" s="26" t="s">
         <v>946</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D92" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="27" t="s">
+      <c r="E92" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="F88" s="26" t="s">
+      <c r="F92" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="G88" s="26"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>226</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C89" t="s">
-        <v>506</v>
-      </c>
-      <c r="D89" t="s">
-        <v>51</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F89" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>226</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C90" t="s">
-        <v>508</v>
-      </c>
-      <c r="D90" t="s">
-        <v>51</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F90" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>226</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" t="s">
-        <v>514</v>
-      </c>
-      <c r="D91" t="s">
-        <v>372</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="F91" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>226</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C92" t="s">
-        <v>513</v>
-      </c>
-      <c r="D92" t="s">
-        <v>372</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="F92" t="s">
-        <v>376</v>
-      </c>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>226</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>190</v>
+        <v>1152</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>506</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F93" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -50223,19 +50229,19 @@
         <v>226</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="C94" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D94" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F94" t="s">
-        <v>522</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -50243,19 +50249,19 @@
         <v>226</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>362</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="F95" t="s">
-        <v>522</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -50263,19 +50269,19 @@
         <v>226</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1153</v>
+        <v>120</v>
       </c>
       <c r="C96" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="D96" t="s">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>1120</v>
+        <v>375</v>
       </c>
       <c r="F96" t="s">
-        <v>449</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -50283,13 +50289,13 @@
         <v>226</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>527</v>
+        <v>204</v>
       </c>
       <c r="D97" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>375</v>
@@ -50303,22 +50309,19 @@
         <v>226</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>647</v>
+        <v>361</v>
+      </c>
+      <c r="C98" t="s">
+        <v>518</v>
+      </c>
+      <c r="D98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -50326,22 +50329,19 @@
         <v>226</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E99" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>647</v>
+        <v>362</v>
+      </c>
+      <c r="C99" t="s">
+        <v>519</v>
+      </c>
+      <c r="D99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -50349,19 +50349,19 @@
         <v>226</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>86</v>
+        <v>1153</v>
       </c>
       <c r="C100" t="s">
-        <v>652</v>
+        <v>525</v>
       </c>
       <c r="D100" t="s">
-        <v>534</v>
+        <v>51</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>375</v>
+        <v>1120</v>
       </c>
       <c r="F100" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -50369,19 +50369,19 @@
         <v>226</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D101" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -50389,19 +50389,22 @@
         <v>226</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C102" t="s">
-        <v>533</v>
-      </c>
-      <c r="D102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="3" t="s">
         <v>188</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -50409,19 +50412,22 @@
         <v>226</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C103" t="s">
-        <v>535</v>
-      </c>
-      <c r="D103" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="3" t="s">
         <v>188</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -50429,19 +50435,19 @@
         <v>226</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="C104" t="s">
-        <v>378</v>
+        <v>652</v>
       </c>
       <c r="D104" t="s">
-        <v>229</v>
+        <v>534</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F104" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -50449,13 +50455,13 @@
         <v>226</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1136</v>
+        <v>259</v>
       </c>
       <c r="C105" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D105" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="E105" s="17" t="s">
         <v>423</v>
@@ -50469,13 +50475,13 @@
         <v>226</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1137</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D106" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>423</v>
@@ -50489,13 +50495,13 @@
         <v>226</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1138</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D107" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>423</v>
@@ -50509,19 +50515,19 @@
         <v>226</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1139</v>
+        <v>228</v>
       </c>
       <c r="C108" t="s">
-        <v>545</v>
+        <v>378</v>
       </c>
       <c r="D108" t="s">
-        <v>385</v>
+        <v>229</v>
       </c>
       <c r="E108" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F108" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -50529,10 +50535,10 @@
         <v>226</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>250</v>
+        <v>1136</v>
       </c>
       <c r="C109" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D109" t="s">
         <v>142</v>
@@ -50549,19 +50555,19 @@
         <v>226</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>231</v>
+        <v>1137</v>
       </c>
       <c r="C110" t="s">
-        <v>381</v>
+        <v>543</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="E110" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F110" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -50569,10 +50575,10 @@
         <v>226</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>232</v>
+        <v>1138</v>
       </c>
       <c r="C111" t="s">
-        <v>382</v>
+        <v>544</v>
       </c>
       <c r="D111" t="s">
         <v>385</v>
@@ -50581,7 +50587,7 @@
         <v>423</v>
       </c>
       <c r="F111" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -50589,10 +50595,10 @@
         <v>226</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>233</v>
+        <v>1139</v>
       </c>
       <c r="C112" t="s">
-        <v>383</v>
+        <v>545</v>
       </c>
       <c r="D112" t="s">
         <v>385</v>
@@ -50601,7 +50607,7 @@
         <v>423</v>
       </c>
       <c r="F112" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -50609,19 +50615,19 @@
         <v>226</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>384</v>
+        <v>546</v>
       </c>
       <c r="D113" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F113" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -50629,13 +50635,13 @@
         <v>226</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>423</v>
@@ -50649,19 +50655,19 @@
         <v>226</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F115" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -50669,19 +50675,19 @@
         <v>226</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D116" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="E116" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F116" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -50689,19 +50695,19 @@
         <v>226</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C117" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D117" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>423</v>
       </c>
       <c r="F117" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -50709,10 +50715,10 @@
         <v>226</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C118" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
@@ -50721,7 +50727,7 @@
         <v>423</v>
       </c>
       <c r="F118" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -50729,13 +50735,13 @@
         <v>226</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D119" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>423</v>
@@ -50749,13 +50755,13 @@
         <v>226</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C120" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>423</v>
@@ -50769,13 +50775,13 @@
         <v>226</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C121" t="s">
-        <v>952</v>
+        <v>390</v>
       </c>
       <c r="D121" t="s">
-        <v>534</v>
+        <v>237</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>423</v>
@@ -50783,49 +50789,129 @@
       <c r="F121" t="s">
         <v>188</v>
       </c>
-      <c r="G121" t="s">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>226</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" t="s">
+        <v>387</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F122" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" t="s">
+        <v>391</v>
+      </c>
+      <c r="D123" t="s">
+        <v>237</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" t="s">
+        <v>388</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F124" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" t="s">
+        <v>952</v>
+      </c>
+      <c r="D125" t="s">
+        <v>534</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F125" t="s">
+        <v>188</v>
+      </c>
+      <c r="G125" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B122" s="3" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="3" t="s">
+      <c r="C126" s="2"/>
+      <c r="D126" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="18"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="2" t="s">
+      <c r="E126" s="18"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="2" t="s">
         <v>1099</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B123" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B124" s="2" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B125" s="2" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B126" s="2" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B127" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B128" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -50835,11 +50921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51086,461 +51172,473 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>962</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="C22" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D22" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="B23" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="C23" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D23" t="s">
         <v>689</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="E24" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="B25" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="C25" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="D25" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="B26" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="C26" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="D26" t="s">
         <v>708</v>
       </c>
+      <c r="E26" s="3" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="B27" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="C27" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="D27" t="s">
         <v>855</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="E27" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="B28" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="D28" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B29" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="C29" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D29" t="s">
         <v>854</v>
       </c>
+      <c r="E29" s="3" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>962</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C30" t="s">
+        <v>848</v>
+      </c>
+      <c r="D30" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>961</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C31" t="s">
+        <v>851</v>
+      </c>
+      <c r="D31" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>974</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C33" t="s">
+        <v>874</v>
+      </c>
+      <c r="D33" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>972</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C34" t="s">
+        <v>871</v>
+      </c>
+      <c r="D34" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>973</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C35" t="s">
+        <v>873</v>
+      </c>
+      <c r="D35" t="s">
+        <v>855</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>975</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D36" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>970</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C37" t="s">
+        <v>865</v>
+      </c>
+      <c r="D37" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>102</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B38" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C38" t="s">
         <v>858</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D38" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B39" t="s">
         <v>71</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C39" t="s">
         <v>892</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D39" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
         <v>732</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B40" t="s">
         <v>732</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C40" t="s">
         <v>893</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D40" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>1000</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B41" t="s">
         <v>750</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C41" t="s">
         <v>379</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D41" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C42" t="s">
         <v>842</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D42" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>957</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B43" t="s">
         <v>696</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C43" t="s">
         <v>843</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D43" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>704</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B45" t="s">
         <v>704</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C45" t="s">
         <v>863</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D45" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>988</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B46" t="s">
         <v>729</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C46" t="s">
         <v>890</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D46" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>965</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B47" t="s">
         <v>1083</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C47" t="s">
         <v>849</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D47" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>964</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" t="s">
         <v>1084</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C48" t="s">
         <v>852</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D48" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>978</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B50" t="s">
         <v>1086</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C50" t="s">
         <v>878</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D50" t="s">
         <v>712</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>976</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C43" t="s">
-        <v>876</v>
-      </c>
-      <c r="D43" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>977</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C44" t="s">
-        <v>877</v>
-      </c>
-      <c r="D44" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>979</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D45" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>969</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C46" t="s">
-        <v>866</v>
-      </c>
-      <c r="D46" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>989</v>
-      </c>
-      <c r="B47" t="s">
-        <v>731</v>
-      </c>
-      <c r="C47" t="s">
-        <v>891</v>
-      </c>
-      <c r="D47" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" t="s">
-        <v>844</v>
-      </c>
-      <c r="D48" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>959</v>
-      </c>
-      <c r="B49" t="s">
-        <v>698</v>
-      </c>
-      <c r="C49" t="s">
-        <v>845</v>
-      </c>
-      <c r="D49" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>705</v>
+        <v>976</v>
       </c>
       <c r="B51" t="s">
-        <v>705</v>
+        <v>1087</v>
       </c>
       <c r="C51" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="D51" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B52" t="s">
-        <v>752</v>
+        <v>1088</v>
       </c>
       <c r="C52" t="s">
-        <v>1003</v>
+        <v>877</v>
       </c>
       <c r="D52" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1004</v>
+        <v>979</v>
       </c>
       <c r="B53" t="s">
-        <v>754</v>
-      </c>
-      <c r="C53" t="s">
-        <v>909</v>
+        <v>1089</v>
       </c>
       <c r="D53" t="s">
         <v>689</v>
@@ -51548,377 +51646,380 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1005</v>
+        <v>969</v>
       </c>
       <c r="B54" t="s">
-        <v>756</v>
+        <v>1090</v>
       </c>
       <c r="C54" t="s">
-        <v>574</v>
+        <v>866</v>
       </c>
       <c r="D54" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>691</v>
+        <v>989</v>
       </c>
       <c r="B55" t="s">
-        <v>691</v>
+        <v>731</v>
       </c>
       <c r="C55" t="s">
-        <v>839</v>
+        <v>891</v>
       </c>
       <c r="D55" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>954</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>693</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D56" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B57" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C57" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="D57" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" t="s">
-        <v>908</v>
-      </c>
-      <c r="D58" t="s">
-        <v>751</v>
+      <c r="A58" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="B59" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="C59" t="s">
-        <v>838</v>
+        <v>864</v>
       </c>
       <c r="D59" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B60" t="s">
+        <v>752</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D60" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B61" t="s">
+        <v>754</v>
+      </c>
+      <c r="C61" t="s">
+        <v>909</v>
+      </c>
+      <c r="D61" t="s">
         <v>689</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B60" t="s">
-        <v>747</v>
-      </c>
-      <c r="C60" t="s">
-        <v>911</v>
-      </c>
-      <c r="D60" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B61" t="s">
-        <v>746</v>
-      </c>
-      <c r="C61" t="s">
-        <v>905</v>
-      </c>
-      <c r="D61" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="B62" t="s">
-        <v>745</v>
+        <v>813</v>
       </c>
       <c r="C62" t="s">
-        <v>904</v>
+        <v>1016</v>
       </c>
       <c r="D62" t="s">
-        <v>739</v>
+        <v>793</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>993</v>
+      <c r="A63" t="s">
+        <v>1005</v>
       </c>
       <c r="B63" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="C63" t="s">
-        <v>901</v>
+        <v>574</v>
       </c>
       <c r="D63" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>990</v>
+      <c r="A64" t="s">
+        <v>691</v>
       </c>
       <c r="B64" t="s">
-        <v>738</v>
+        <v>691</v>
       </c>
       <c r="C64" t="s">
-        <v>898</v>
+        <v>839</v>
       </c>
       <c r="D64" t="s">
-        <v>739</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>996</v>
+        <v>954</v>
       </c>
       <c r="B65" t="s">
-        <v>787</v>
+        <v>693</v>
       </c>
       <c r="C65" t="s">
-        <v>1010</v>
+        <v>840</v>
       </c>
       <c r="D65" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>994</v>
+      <c r="A66" t="s">
+        <v>956</v>
       </c>
       <c r="B66" t="s">
-        <v>743</v>
+        <v>694</v>
       </c>
       <c r="C66" t="s">
-        <v>902</v>
+        <v>841</v>
       </c>
       <c r="D66" t="s">
-        <v>739</v>
+        <v>692</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>991</v>
+      <c r="A67" t="s">
+        <v>1001</v>
       </c>
       <c r="B67" t="s">
-        <v>740</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="D67" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>997</v>
+        <v>690</v>
       </c>
       <c r="B68" t="s">
-        <v>788</v>
+        <v>690</v>
       </c>
       <c r="C68" t="s">
-        <v>1009</v>
+        <v>838</v>
       </c>
       <c r="D68" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>995</v>
+      <c r="A69" s="29" t="s">
+        <v>1007</v>
       </c>
       <c r="B69" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C69" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D69" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>992</v>
+      <c r="A70" s="29" t="s">
+        <v>1008</v>
       </c>
       <c r="B70" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="C70" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="D70" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>998</v>
+      <c r="A71" s="29" t="s">
+        <v>1006</v>
       </c>
       <c r="B71" t="s">
-        <v>789</v>
+        <v>745</v>
       </c>
       <c r="C71" t="s">
-        <v>1011</v>
+        <v>904</v>
       </c>
       <c r="D71" t="s">
-        <v>689</v>
+        <v>739</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>226</v>
+      <c r="A72" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="B72" t="s">
-        <v>683</v>
+        <v>742</v>
       </c>
       <c r="C72" t="s">
-        <v>836</v>
+        <v>901</v>
+      </c>
+      <c r="D72" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>226</v>
+      <c r="A73" s="3" t="s">
+        <v>990</v>
       </c>
       <c r="B73" t="s">
-        <v>685</v>
+        <v>738</v>
       </c>
       <c r="C73" t="s">
-        <v>857</v>
+        <v>898</v>
       </c>
       <c r="D73" t="s">
-        <v>686</v>
+        <v>739</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>996</v>
       </c>
       <c r="B74" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="C74" t="s">
-        <v>847</v>
+        <v>1010</v>
       </c>
       <c r="D74" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>226</v>
+      <c r="A75" s="3" t="s">
+        <v>994</v>
       </c>
       <c r="B75" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="C75" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="D75" t="s">
-        <v>854</v>
+        <v>739</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>226</v>
+      <c r="A76" s="3" t="s">
+        <v>991</v>
       </c>
       <c r="B76" t="s">
-        <v>702</v>
+        <v>740</v>
       </c>
       <c r="C76" t="s">
-        <v>862</v>
+        <v>899</v>
       </c>
       <c r="D76" t="s">
-        <v>689</v>
+        <v>739</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>997</v>
       </c>
       <c r="B77" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="C77" t="s">
-        <v>862</v>
+        <v>1009</v>
       </c>
       <c r="D77" t="s">
-        <v>854</v>
+        <v>689</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>226</v>
+      <c r="A78" s="3" t="s">
+        <v>995</v>
       </c>
       <c r="B78" t="s">
-        <v>706</v>
+        <v>744</v>
       </c>
       <c r="C78" t="s">
-        <v>862</v>
+        <v>903</v>
       </c>
       <c r="D78" t="s">
-        <v>854</v>
+        <v>739</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>226</v>
+      <c r="A79" s="3" t="s">
+        <v>992</v>
       </c>
       <c r="B79" t="s">
-        <v>1076</v>
+        <v>741</v>
       </c>
       <c r="C79" t="s">
-        <v>868</v>
+        <v>900</v>
       </c>
       <c r="D79" t="s">
-        <v>854</v>
+        <v>739</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>998</v>
       </c>
       <c r="B80" t="s">
-        <v>1091</v>
+        <v>789</v>
       </c>
       <c r="C80" t="s">
-        <v>869</v>
+        <v>1011</v>
       </c>
       <c r="D80" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -51926,13 +52027,10 @@
         <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="C81" t="s">
-        <v>862</v>
-      </c>
-      <c r="D81" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -51940,13 +52038,13 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>1077</v>
+        <v>685</v>
       </c>
       <c r="C82" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="D82" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -51954,13 +52052,13 @@
         <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>1078</v>
+        <v>688</v>
       </c>
       <c r="C83" t="s">
-        <v>872</v>
+        <v>847</v>
       </c>
       <c r="D83" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -51968,13 +52066,13 @@
         <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>1092</v>
+        <v>701</v>
       </c>
       <c r="C84" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
       <c r="D84" t="s">
-        <v>709</v>
+        <v>854</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -51982,13 +52080,13 @@
         <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>1093</v>
+        <v>702</v>
       </c>
       <c r="C85" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D85" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -51996,13 +52094,13 @@
         <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C86" t="s">
         <v>862</v>
       </c>
       <c r="D86" t="s">
-        <v>708</v>
+        <v>854</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -52010,13 +52108,13 @@
         <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C87" t="s">
         <v>862</v>
       </c>
       <c r="D87" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -52024,13 +52122,13 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>715</v>
+        <v>1076</v>
       </c>
       <c r="C88" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D88" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -52038,13 +52136,13 @@
         <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>716</v>
+        <v>1091</v>
       </c>
       <c r="C89" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="D89" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -52052,13 +52150,13 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="C90" t="s">
         <v>862</v>
       </c>
       <c r="D90" t="s">
-        <v>710</v>
+        <v>854</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -52066,13 +52164,13 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>718</v>
+        <v>1077</v>
       </c>
       <c r="C91" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="D91" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -52080,13 +52178,13 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>1078</v>
       </c>
       <c r="C92" t="s">
-        <v>906</v>
+        <v>872</v>
       </c>
       <c r="D92" t="s">
-        <v>749</v>
+        <v>710</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -52094,13 +52192,13 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>1092</v>
       </c>
       <c r="C93" t="s">
-        <v>907</v>
+        <v>879</v>
       </c>
       <c r="D93" t="s">
-        <v>749</v>
+        <v>709</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -52108,13 +52206,13 @@
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>1093</v>
       </c>
       <c r="C94" t="s">
-        <v>912</v>
+        <v>872</v>
       </c>
       <c r="D94" t="s">
-        <v>749</v>
+        <v>710</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -52122,13 +52220,13 @@
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>757</v>
+        <v>713</v>
       </c>
       <c r="C95" t="s">
-        <v>913</v>
+        <v>862</v>
       </c>
       <c r="D95" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -52136,13 +52234,13 @@
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>758</v>
+        <v>714</v>
       </c>
       <c r="C96" t="s">
-        <v>915</v>
+        <v>862</v>
       </c>
       <c r="D96" t="s">
-        <v>753</v>
+        <v>855</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -52150,13 +52248,13 @@
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>759</v>
+        <v>715</v>
       </c>
       <c r="C97" t="s">
-        <v>914</v>
+        <v>862</v>
       </c>
       <c r="D97" t="s">
-        <v>753</v>
+        <v>856</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -52164,13 +52262,13 @@
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>760</v>
+        <v>716</v>
       </c>
       <c r="C98" t="s">
-        <v>916</v>
+        <v>862</v>
       </c>
       <c r="D98" t="s">
-        <v>753</v>
+        <v>709</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -52178,13 +52276,13 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>761</v>
+        <v>717</v>
       </c>
       <c r="C99" t="s">
-        <v>917</v>
+        <v>862</v>
       </c>
       <c r="D99" t="s">
-        <v>753</v>
+        <v>710</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -52192,13 +52290,13 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>762</v>
+        <v>718</v>
       </c>
       <c r="C100" t="s">
-        <v>918</v>
+        <v>884</v>
       </c>
       <c r="D100" t="s">
-        <v>753</v>
+        <v>719</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -52206,13 +52304,13 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>763</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="D101" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -52220,13 +52318,13 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>764</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="D102" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -52234,13 +52332,13 @@
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>765</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D103" t="s">
-        <v>692</v>
+        <v>749</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -52248,10 +52346,10 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C104" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="D104" t="s">
         <v>689</v>
@@ -52262,13 +52360,13 @@
         <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="C105" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="D105" t="s">
-        <v>695</v>
+        <v>753</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -52276,13 +52374,13 @@
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="C106" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="D106" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -52290,13 +52388,13 @@
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C107" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="D107" t="s">
-        <v>695</v>
+        <v>753</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -52304,13 +52402,13 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C108" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="D108" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -52318,13 +52416,13 @@
         <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>1079</v>
+        <v>762</v>
       </c>
       <c r="C109" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D109" t="s">
-        <v>854</v>
+        <v>753</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -52332,13 +52430,13 @@
         <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>1080</v>
+        <v>763</v>
       </c>
       <c r="C110" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="D110" t="s">
-        <v>689</v>
+        <v>753</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -52346,13 +52444,13 @@
         <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>1094</v>
+        <v>764</v>
       </c>
       <c r="C111" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="D111" t="s">
-        <v>700</v>
+        <v>753</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -52360,13 +52458,13 @@
         <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>1095</v>
+        <v>765</v>
       </c>
       <c r="C112" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="D112" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -52374,13 +52472,13 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C113" t="s">
-        <v>862</v>
+        <v>922</v>
       </c>
       <c r="D113" t="s">
-        <v>854</v>
+        <v>689</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -52388,13 +52486,13 @@
         <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C114" t="s">
-        <v>862</v>
+        <v>923</v>
       </c>
       <c r="D114" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -52402,11 +52500,13 @@
         <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>773</v>
-      </c>
-      <c r="C115" s="3"/>
+        <v>768</v>
+      </c>
+      <c r="C115" t="s">
+        <v>924</v>
+      </c>
       <c r="D115" t="s">
-        <v>983</v>
+        <v>689</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -52414,11 +52514,13 @@
         <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>774</v>
-      </c>
-      <c r="C116" s="3"/>
+        <v>769</v>
+      </c>
+      <c r="C116" t="s">
+        <v>925</v>
+      </c>
       <c r="D116" t="s">
-        <v>983</v>
+        <v>695</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -52426,11 +52528,13 @@
         <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>775</v>
-      </c>
-      <c r="C117" s="3"/>
+        <v>770</v>
+      </c>
+      <c r="C117" t="s">
+        <v>926</v>
+      </c>
       <c r="D117" t="s">
-        <v>983</v>
+        <v>689</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -52438,11 +52542,13 @@
         <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>776</v>
-      </c>
-      <c r="C118" s="3"/>
+        <v>1079</v>
+      </c>
+      <c r="C118" t="s">
+        <v>927</v>
+      </c>
       <c r="D118" t="s">
-        <v>983</v>
+        <v>854</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -52450,11 +52556,13 @@
         <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>777</v>
-      </c>
-      <c r="C119" s="3"/>
+        <v>1080</v>
+      </c>
+      <c r="C119" t="s">
+        <v>928</v>
+      </c>
       <c r="D119" t="s">
-        <v>983</v>
+        <v>689</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -52462,11 +52570,13 @@
         <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>778</v>
-      </c>
-      <c r="C120" s="3"/>
+        <v>1094</v>
+      </c>
+      <c r="C120" t="s">
+        <v>927</v>
+      </c>
       <c r="D120" t="s">
-        <v>983</v>
+        <v>700</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -52474,11 +52584,13 @@
         <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>779</v>
-      </c>
-      <c r="C121" s="3"/>
+        <v>1095</v>
+      </c>
+      <c r="C121" t="s">
+        <v>928</v>
+      </c>
       <c r="D121" t="s">
-        <v>983</v>
+        <v>689</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -52486,11 +52598,13 @@
         <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>780</v>
-      </c>
-      <c r="C122" s="3"/>
+        <v>771</v>
+      </c>
+      <c r="C122" t="s">
+        <v>862</v>
+      </c>
       <c r="D122" t="s">
-        <v>983</v>
+        <v>854</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -52498,11 +52612,13 @@
         <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>781</v>
-      </c>
-      <c r="C123" s="3"/>
+        <v>772</v>
+      </c>
+      <c r="C123" t="s">
+        <v>862</v>
+      </c>
       <c r="D123" t="s">
-        <v>984</v>
+        <v>689</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -52510,11 +52626,11 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -52522,11 +52638,11 @@
         <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" t="s">
-        <v>784</v>
+        <v>983</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -52534,11 +52650,11 @@
         <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" t="s">
-        <v>786</v>
+        <v>983</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -52546,11 +52662,11 @@
         <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" t="s">
-        <v>689</v>
+        <v>983</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -52558,10 +52674,11 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>792</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="C128" s="3"/>
       <c r="D128" t="s">
-        <v>793</v>
+        <v>983</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -52569,10 +52686,11 @@
         <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>794</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="C129" s="3"/>
       <c r="D129" t="s">
-        <v>793</v>
+        <v>983</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -52580,10 +52698,11 @@
         <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>795</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="C130" s="3"/>
       <c r="D130" t="s">
-        <v>793</v>
+        <v>983</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -52591,10 +52710,11 @@
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>796</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="C131" s="3"/>
       <c r="D131" t="s">
-        <v>793</v>
+        <v>983</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -52602,10 +52722,11 @@
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>797</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="C132" s="3"/>
       <c r="D132" t="s">
-        <v>793</v>
+        <v>984</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -52613,10 +52734,11 @@
         <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>798</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="C133" s="3"/>
       <c r="D133" t="s">
-        <v>793</v>
+        <v>984</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -52624,10 +52746,11 @@
         <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>799</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="C134" s="3"/>
       <c r="D134" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -52635,10 +52758,11 @@
         <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>800</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="C135" s="3"/>
       <c r="D135" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -52646,10 +52770,11 @@
         <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>801</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="C136" s="3"/>
       <c r="D136" t="s">
-        <v>793</v>
+        <v>689</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -52657,7 +52782,7 @@
         <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="D137" t="s">
         <v>793</v>
@@ -52668,7 +52793,7 @@
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D138" t="s">
         <v>793</v>
@@ -52679,7 +52804,7 @@
         <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D139" t="s">
         <v>793</v>
@@ -52690,7 +52815,7 @@
         <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D140" t="s">
         <v>793</v>
@@ -52701,10 +52826,10 @@
         <v>226</v>
       </c>
       <c r="B141" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="D141" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -52712,10 +52837,10 @@
         <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="D142" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -52723,10 +52848,10 @@
         <v>226</v>
       </c>
       <c r="B143" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="D143" t="s">
-        <v>751</v>
+        <v>793</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -52734,10 +52859,10 @@
         <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="D144" t="s">
-        <v>751</v>
+        <v>793</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -52745,10 +52870,10 @@
         <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D145" t="s">
-        <v>751</v>
+        <v>793</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -52756,10 +52881,10 @@
         <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="D146" t="s">
-        <v>828</v>
+        <v>793</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -52767,10 +52892,10 @@
         <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>1081</v>
+        <v>803</v>
       </c>
       <c r="D147" t="s">
-        <v>829</v>
+        <v>793</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -52778,10 +52903,10 @@
         <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>1096</v>
+        <v>804</v>
       </c>
       <c r="D148" t="s">
-        <v>829</v>
+        <v>793</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -52789,10 +52914,10 @@
         <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>1066</v>
+        <v>805</v>
       </c>
       <c r="D149" t="s">
-        <v>829</v>
+        <v>793</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -52800,10 +52925,10 @@
         <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="D150" t="s">
-        <v>829</v>
+        <v>689</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -52811,10 +52936,10 @@
         <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="D151" t="s">
-        <v>832</v>
+        <v>689</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -52822,10 +52947,10 @@
         <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>1082</v>
+        <v>824</v>
       </c>
       <c r="D152" t="s">
-        <v>829</v>
+        <v>751</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -52833,10 +52958,10 @@
         <v>226</v>
       </c>
       <c r="B153" t="s">
-        <v>1097</v>
+        <v>825</v>
       </c>
       <c r="D153" t="s">
-        <v>829</v>
+        <v>751</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -52844,10 +52969,10 @@
         <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D154" t="s">
-        <v>829</v>
+        <v>751</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -52855,10 +52980,10 @@
         <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D155" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -52866,9 +52991,108 @@
         <v>226</v>
       </c>
       <c r="B156" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D156" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>226</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D157" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>226</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D158" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" t="s">
+        <v>830</v>
+      </c>
+      <c r="D159" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>226</v>
+      </c>
+      <c r="B160" t="s">
+        <v>831</v>
+      </c>
+      <c r="D160" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>226</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D161" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>226</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D162" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" t="s">
+        <v>833</v>
+      </c>
+      <c r="D163" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>226</v>
+      </c>
+      <c r="B164" t="s">
+        <v>834</v>
+      </c>
+      <c r="D164" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" t="s">
         <v>835</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D165" t="s">
         <v>829</v>
       </c>
     </row>
@@ -52878,7 +53102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
@@ -54982,7 +55206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -57025,7 +57249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
